--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_110.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_110.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33043-d78082-Reviews-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>165</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Clarion-Inn-Suites-Orange-County-John-Wayne-Airport.h20677.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_110.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="815">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2351 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r589069971-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>33043</t>
+  </si>
+  <si>
+    <t>78082</t>
+  </si>
+  <si>
+    <t>589069971</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>The employees here were super amazing! They were quick to take care of me when I asked for towels and toiletries. I stayed for two nights and when I asked my room to be serviced, the house keepers were super sweet too! I will definitely come back and recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded 2 days ago</t>
+  </si>
+  <si>
+    <t>Responded 2 days ago</t>
+  </si>
+  <si>
+    <t>The employees here were super amazing! They were quick to take care of me when I asked for towels and toiletries. I stayed for two nights and when I asked my room to be serviced, the house keepers were super sweet too! I will definitely come back and recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r588452187-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>588452187</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Comfortable hotel, great service</t>
+  </si>
+  <si>
+    <t>I stayed in the king suite on the third floor with my wife and kids. The boys were able to sleep in the sofabed. The staff was very helpful, and the breakfast service was the best I've had at a hotel, with made to order breakfast sandwiches that were delicious. The fire pit in the courtyard is really cool too. The only reason I didn't do five stars was that the room was a little smoky, but upon alerting the desk they brought some strong air purifying spray that worked well enough(we didn't ask to be moved, as it was the only room of its kind available). I would stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I stayed in the king suite on the third floor with my wife and kids. The boys were able to sleep in the sofabed. The staff was very helpful, and the breakfast service was the best I've had at a hotel, with made to order breakfast sandwiches that were delicious. The fire pit in the courtyard is really cool too. The only reason I didn't do five stars was that the room was a little smoky, but upon alerting the desk they brought some strong air purifying spray that worked well enough(we didn't ask to be moved, as it was the only room of its kind available). I would stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r587438477-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>587438477</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Great service and attitude!</t>
+  </si>
+  <si>
+    <t>Always feel welcome when I come in and most of the time get the room I want, Jessica welcomes​ me with a smile and happy greeting! Been staying here for years and I'm​ sure plenty more ahead!Thanks againJasonMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Always feel welcome when I come in and most of the time get the room I want, Jessica welcomes​ me with a smile and happy greeting! Been staying here for years and I'm​ sure plenty more ahead!Thanks againJasonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r571383544-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>571383544</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Recently remodeled and much improved</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel a few years ago (when it was a Comfort Inn) and noticed a big improvement this time. The rooms were very modern and clean. The lobby area was very nice, with a little cafe serving drinks and sandwiches etc. The pool area also looked quite nice. It's evident they have invested a lot into the property, and I'd stay here again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel a few years ago (when it was a Comfort Inn) and noticed a big improvement this time. The rooms were very modern and clean. The lobby area was very nice, with a little cafe serving drinks and sandwiches etc. The pool area also looked quite nice. It's evident they have invested a lot into the property, and I'd stay here again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r568978988-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>568978988</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Beware of overpromise / underdeliver</t>
+  </si>
+  <si>
+    <t>Super friendly staff (front desk, drivers) with a tendency to overpromise and underdeliver. Breakfast and space to eat it is limited. I am gluten sensitive and was promised by the front desk that they would provide gluten-free bread for me in the morning. The guy making breakfast sandwiches had no idea what I was talking about the next morning. When I followed up later in the day with the front desk folks, there was an apology that they weren't able to get to it. On the plus side, the hotel does offer shuttle service to / from the airport and shopping center. They reimbursed me for an Uber ride from the airport when they were unable to pick me up.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Super friendly staff (front desk, drivers) with a tendency to overpromise and underdeliver. Breakfast and space to eat it is limited. I am gluten sensitive and was promised by the front desk that they would provide gluten-free bread for me in the morning. The guy making breakfast sandwiches had no idea what I was talking about the next morning. When I followed up later in the day with the front desk folks, there was an apology that they weren't able to get to it. On the plus side, the hotel does offer shuttle service to / from the airport and shopping center. They reimbursed me for an Uber ride from the airport when they were unable to pick me up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r565291561-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>565291561</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Definitely Going Back!</t>
+  </si>
+  <si>
+    <t>I was just here a few days ago! When we arrived and checked in “Marilyn” was there with a huge smile! she was very friendly although me and my mom were giving her a hard time and being rude she knew how to keep calm! At the end she was apologizing and me and my mom were just telling her no need to apologize! We apologized to her because we had a long drive and we were tired! But Marilyn was super friendly and nice unlike the other staff she was helping us out in any way that she can! Honestly we will definitely go back! Great experience although it was for one night onlyMoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>I was just here a few days ago! When we arrived and checked in “Marilyn” was there with a huge smile! she was very friendly although me and my mom were giving her a hard time and being rude she knew how to keep calm! At the end she was apologizing and me and my mom were just telling her no need to apologize! We apologized to her because we had a long drive and we were tired! But Marilyn was super friendly and nice unlike the other staff she was helping us out in any way that she can! Honestly we will definitely go back! Great experience although it was for one night onlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r557440950-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>557440950</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Overnight in Orange County</t>
+  </si>
+  <si>
+    <t>A nice Hotel that provide  quick pickup from hotel after calling for a pickup and schedule ride back to airport at the end of stay .Friendly and helpful staff .  The is located a number eating establishments and close to shopping and a movie theatre . MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>A nice Hotel that provide  quick pickup from hotel after calling for a pickup and schedule ride back to airport at the end of stay .Friendly and helpful staff .  The is located a number eating establishments and close to shopping and a movie theatre . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r555312458-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>555312458</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Average hotel, clean rooms</t>
+  </si>
+  <si>
+    <t>Stayed here one night before flight out orange County. Price was reasonable. Hotel is dated, but kept clean. Hot tub had a lot of debris in bottom. Basic hotel for basic price. Would stay again for a night, but not much longer. MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded January 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here one night before flight out orange County. Price was reasonable. Hotel is dated, but kept clean. Hot tub had a lot of debris in bottom. Basic hotel for basic price. Would stay again for a night, but not much longer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r552323523-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>552323523</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Will stay here again.</t>
+  </si>
+  <si>
+    <t>Pros:1) right off the CA-552) free breakfast sandwiches made to order3) free parking4) free wifi5) very nice staff.6) rooms are pretty nicely remodeled.Cons:1) try to get a room away from the stairs because people's footsteps are really loud.2) There is only car entrance to the property and it is extremely steep.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Pros:1) right off the CA-552) free breakfast sandwiches made to order3) free parking4) free wifi5) very nice staff.6) rooms are pretty nicely remodeled.Cons:1) try to get a room away from the stairs because people's footsteps are really loud.2) There is only car entrance to the property and it is extremely steep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r539199889-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>539199889</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Friendly People</t>
+  </si>
+  <si>
+    <t>The staff was great specially the front desk person by the name of Adeline. She made it great fun. The room was clean and very nice inside.clarion inn &amp; suites . I enjoyed the INN and it was great fun to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>The staff was great specially the front desk person by the name of Adeline. She made it great fun. The room was clean and very nice inside.clarion inn &amp; suites . I enjoyed the INN and it was great fun to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r536746520-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>536746520</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Very well designed and clean</t>
+  </si>
+  <si>
+    <t>I booked Room on phone to the property as my reservation would not go thru Choice iPhone app. Person at property took the reservation without much ado as I mentioned my cell phone. All information was there and she booked the room on few seconds. Upon arrival being Diamond member they upgraded my room !Room was well finished and in great shape. See photos. Also had in pool area had fireplace-type flames!! Amazing warm feeling on October 28 th. Breakfast open until 11am , another unheard feature.Only thing needs upgrade is hdtv which is on fixed wall mount which could be an adjustable wall mount fixture so that guest could move it as desired facing lounge chair..MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2017</t>
+  </si>
+  <si>
+    <t>I booked Room on phone to the property as my reservation would not go thru Choice iPhone app. Person at property took the reservation without much ado as I mentioned my cell phone. All information was there and she booked the room on few seconds. Upon arrival being Diamond member they upgraded my room !Room was well finished and in great shape. See photos. Also had in pool area had fireplace-type flames!! Amazing warm feeling on October 28 th. Breakfast open until 11am , another unheard feature.Only thing needs upgrade is hdtv which is on fixed wall mount which could be an adjustable wall mount fixture so that guest could move it as desired facing lounge chair..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r535266433-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>535266433</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Loud and rude mangement</t>
+  </si>
+  <si>
+    <t>The room was too loud. I could hear sounds from other rooms and doors opening and closing. The air conditioner and bathroom fan were very loud and slightly off so they were vibrating. The plumbing was also very loud and woke me up when the guests upstairs used it. I left early and have been trying to get a refund for the unused days, but the management has been very difficult and doesn't really seem to care at all about their guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>The room was too loud. I could hear sounds from other rooms and doors opening and closing. The air conditioner and bathroom fan were very loud and slightly off so they were vibrating. The plumbing was also very loud and woke me up when the guests upstairs used it. I left early and have been trying to get a refund for the unused days, but the management has been very difficult and doesn't really seem to care at all about their guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r523444331-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>523444331</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Priceline customers gets shafted for "Free Breakfast" and "View of the Parking lot"</t>
+  </si>
+  <si>
+    <t>Priceline customers get slapped in the face at this hotel. PL customers do not get a "coupon" for hot breakfast.  They have to pay $7 for a breakfast sandwich.BAD:  Our free breakfast consist of coffee, a small muffin and fruits. (See photos.) Our view consists of the parking lot.  When the motorcycles rolled in last night, we heard every loud revving of their engine. GOOD:  The room was clean and well appointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Priceline customers get slapped in the face at this hotel. PL customers do not get a "coupon" for hot breakfast.  They have to pay $7 for a breakfast sandwich.BAD:  Our free breakfast consist of coffee, a small muffin and fruits. (See photos.) Our view consists of the parking lot.  When the motorcycles rolled in last night, we heard every loud revving of their engine. GOOD:  The room was clean and well appointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r522875852-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>522875852</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Sr. Coordinator</t>
+  </si>
+  <si>
+    <t>Hotel staff, especially Sabrina at front desk, professional and courteous. Rooms were kept in fine order, outside pool area serene and relaxing. Crew required a 4 week stay, all reservations were complete and rooms ready open arrival.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Hotel staff, especially Sabrina at front desk, professional and courteous. Rooms were kept in fine order, outside pool area serene and relaxing. Crew required a 4 week stay, all reservations were complete and rooms ready open arrival.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r520491828-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>520491828</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Perfect for the Airport</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here the night before flying home to the East Coast.  We dropped our rental car at the airport and called for shuttle service to the hotel and a driver was there very quickly.  The hotel was comfortable, clean, and quiet. We were given a voucher for breakfast the next morning which included a breakfast sandwich (egg, sausage, cheese) or bagel and cream cheese plus a muffin and drink. No breakfast buffet, which I would have preferred, but this was ok. Shuttle to airport was on prompt and staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here the night before flying home to the East Coast.  We dropped our rental car at the airport and called for shuttle service to the hotel and a driver was there very quickly.  The hotel was comfortable, clean, and quiet. We were given a voucher for breakfast the next morning which included a breakfast sandwich (egg, sausage, cheese) or bagel and cream cheese plus a muffin and drink. No breakfast buffet, which I would have preferred, but this was ok. Shuttle to airport was on prompt and staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r517440691-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>517440691</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Stayed there for 6 nights in june 2016 very fare price. Good value for money. Very modest hotelStaff is friendly and helpfull.Theres a nice pool and a hot tab.Theres a samall varaiety of food in the hotel diner .MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Stayed there for 6 nights in june 2016 very fare price. Good value for money. Very modest hotelStaff is friendly and helpfull.Theres a nice pool and a hot tab.Theres a samall varaiety of food in the hotel diner .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r514896420-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>514896420</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Great stay for an early morning SNA flight</t>
+  </si>
+  <si>
+    <t>We needed a place for our family of 4 to stay between an evening at Disneyland and an early morning flight out of John Wayne.  We checked in around 10:30pm, the staff was great -super friendly and accommodating of our desire of an adult beverage after a long, fun day at Disneyland!  There was even a bonfire going on that we would have enjoyed had we not been so tired.The room was clean, the fridge was cold, and the bathroom was very large. We utilized the 5:30am shuttle, which was on time and got us to the airport in about 7 minutes.   All in all, this fit the bill and would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>We needed a place for our family of 4 to stay between an evening at Disneyland and an early morning flight out of John Wayne.  We checked in around 10:30pm, the staff was great -super friendly and accommodating of our desire of an adult beverage after a long, fun day at Disneyland!  There was even a bonfire going on that we would have enjoyed had we not been so tired.The room was clean, the fridge was cold, and the bathroom was very large. We utilized the 5:30am shuttle, which was on time and got us to the airport in about 7 minutes.   All in all, this fit the bill and would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r509759622-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>509759622</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Hotel was great, hosted a family reunion many rooms, staff was accommodating to all of the needs of family, fire pit and pool was a hit. Breakfast bagel, juice, coffee was good start to the day, Laundry room on premise was a plus since my stay was 9 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was great, hosted a family reunion many rooms, staff was accommodating to all of the needs of family, fire pit and pool was a hit. Breakfast bagel, juice, coffee was good start to the day, Laundry room on premise was a plus since my stay was 9 days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r506322713-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>506322713</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Great serves !!!!!</t>
+  </si>
+  <si>
+    <t>This hotel is very up to date and serves is great Sandra is one of the front desk lady's and was very helpful on getting me a ride to airport booked and booking a room again. The rooms are very clean and the food at hotel is good also definitely recommend this hotel to people staying in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is very up to date and serves is great Sandra is one of the front desk lady's and was very helpful on getting me a ride to airport booked and booking a room again. The rooms are very clean and the food at hotel is good also definitely recommend this hotel to people staying in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r505354977-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>505354977</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>A decent option for a work stay</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 4 days and 5 nights and it was a pleasant, comfortable and quiet experience. The staff are very friendly, mixing the right amount of professionalism with natural good humour. Rooms are sizeable, comfortable and clean. My only slight quibble would be the sound of the (necessary) air conditioning which was akin to a WW2 bomber in terms of noise. Food and service was overall excellent. I would recommend it as a decent option for a work stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 4 days and 5 nights and it was a pleasant, comfortable and quiet experience. The staff are very friendly, mixing the right amount of professionalism with natural good humour. Rooms are sizeable, comfortable and clean. My only slight quibble would be the sound of the (necessary) air conditioning which was akin to a WW2 bomber in terms of noise. Food and service was overall excellent. I would recommend it as a decent option for a work stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r503605660-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>503605660</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>very friendly, helpful front desk and food service staff</t>
+  </si>
+  <si>
+    <t>First time to stay here.  Advertisement notes restaurant on site - not actually a restaurant, and was scheduled to close soon.  Front desk staff helpful to get me checked in in time to get food order in and the food service staff were kind enough to deliver to my room so I could get my things up to the to the room and get settled.  Flatbread was enough for an army.  Room decor needs some updating and was disturbed by neighbors very loud shower water noise at midnightMoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>First time to stay here.  Advertisement notes restaurant on site - not actually a restaurant, and was scheduled to close soon.  Front desk staff helpful to get me checked in in time to get food order in and the food service staff were kind enough to deliver to my room so I could get my things up to the to the room and get settled.  Flatbread was enough for an army.  Room decor needs some updating and was disturbed by neighbors very loud shower water noise at midnightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r492853326-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>492853326</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Monicaaaaaa</t>
+  </si>
+  <si>
+    <t>Ranae always makes me and anyone I'm with feel so welcomed. Always smiling always pleasant. Always a quick check in, always a good time.                           It's dope that they have a fridge inside the room. Good people good time nahmsayin MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Ranae always makes me and anyone I'm with feel so welcomed. Always smiling always pleasant. Always a quick check in, always a good time.                           It's dope that they have a fridge inside the room. Good people good time nahmsayin More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r492625685-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>492625685</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My experience </t>
+  </si>
+  <si>
+    <t>I've stayed at many hotels/suites before due to work &amp; vacations. Clarion Inn &amp; suites is my place to go when in the area. I love the atmosphere this workplace offers. Everyone is so helpful and nice, Sandra at the front desk is awesome. I appreciate her assistance, not everyone has the power to change a bad day to a good day but she definitely has! Love love love! &amp; the food is amazing !! MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed at many hotels/suites before due to work &amp; vacations. Clarion Inn &amp; suites is my place to go when in the area. I love the atmosphere this workplace offers. Everyone is so helpful and nice, Sandra at the front desk is awesome. I appreciate her assistance, not everyone has the power to change a bad day to a good day but she definitely has! Love love love! &amp; the food is amazing !! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r489220737-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>489220737</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Great Place - Great Service!</t>
+  </si>
+  <si>
+    <t>I stay here all of the time.  The rooms are clean and well taken care of.The front desk staff is always attentive and Sandra always goes the extra mile to make sure everything is taken care of.Thank you Clarion Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>I stay here all of the time.  The rooms are clean and well taken care of.The front desk staff is always attentive and Sandra always goes the extra mile to make sure everything is taken care of.Thank you Clarion Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r487779069-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>487779069</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>NICE &amp; CONVENIENT</t>
+  </si>
+  <si>
+    <t>Loved this hotel, we were only in town for 1 night but it was perfect! Close to the OC Observatory, room was very clean and the beds were AMAZING, no complaints. Breakfast provided which was also very good. Will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Loved this hotel, we were only in town for 1 night but it was perfect! Close to the OC Observatory, room was very clean and the beds were AMAZING, no complaints. Breakfast provided which was also very good. Will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r487714132-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>487714132</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Very clean, the staff was friendly.  Good location and the rooms were very spacious.  Jessica and Sandra were very helpful in our needs.  the hot tub and pool was very clean. There was more than enough parking.  Would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean, the staff was friendly.  Good location and the rooms were very spacious.  Jessica and Sandra were very helpful in our needs.  the hot tub and pool was very clean. There was more than enough parking.  Would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r487556146-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>487556146</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Front desk staff makes you feel at home</t>
+  </si>
+  <si>
+    <t>I travel to Orange County for work almost once a month. Sandra at the front desk greats me with a smile and is always helpful and welcoming. It makes it an easy decision for me to stay here every time I am in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel to Orange County for work almost once a month. Sandra at the front desk greats me with a smile and is always helpful and welcoming. It makes it an easy decision for me to stay here every time I am in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r485144174-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>485144174</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Best in town</t>
+  </si>
+  <si>
+    <t>Sandra makes this the best hotel ever. Platinum member because if her!! Recommend this hotel above all in this area. New management has really picked up the place as well. Safer parking, good breakfast, and best of all - always clean rooms!MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Sandra makes this the best hotel ever. Platinum member because if her!! Recommend this hotel above all in this area. New management has really picked up the place as well. Safer parking, good breakfast, and best of all - always clean rooms!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r485023370-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>485023370</t>
+  </si>
+  <si>
+    <t>Great place, comfortable stay!</t>
+  </si>
+  <si>
+    <t>Fast and really easy check in. Decent size room very clean. Clean bathroom as well. Nice pool area. Good wifi and phone service. Local and close to everything but you need a car to get around. Friendly helpful staff. Good bedding super comfortable with clean sheets. Great shower pressure and towel quality,  also very clean. Good house keeping. Plenty of lighting in room. Quiet environment. MoreShow less</t>
+  </si>
+  <si>
+    <t>Fast and really easy check in. Decent size room very clean. Clean bathroom as well. Nice pool area. Good wifi and phone service. Local and close to everything but you need a car to get around. Friendly helpful staff. Good bedding super comfortable with clean sheets. Great shower pressure and towel quality,  also very clean. Good house keeping. Plenty of lighting in room. Quiet environment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r483934893-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>483934893</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Great for business</t>
+  </si>
+  <si>
+    <t>Sandra at the front desk is wonderful. She is courteous and always greet you with a smile.  Great location close to businesses in OC. Room is great with convenient amenities.  They have hotel shuttle too. Recommended fit business traveler. MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Sandra at the front desk is wonderful. She is courteous and always greet you with a smile.  Great location close to businesses in OC. Room is great with convenient amenities.  They have hotel shuttle too. Recommended fit business traveler. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r476988095-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>476988095</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Extremely friendly and helpful staff</t>
+  </si>
+  <si>
+    <t>From check-in to check-out, we found the staff extremely friendly.  Renaa in reception was very feiendly and helpful.  She allowed us to stay until 2pm because our flight wasn't scheduled to leave out of John Wayne Airport until 4:30pm.  Ginger was running the mini-cafe, and she was so nice and friendly. The hotel was very quiet, and our room was very clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>From check-in to check-out, we found the staff extremely friendly.  Renaa in reception was very feiendly and helpful.  She allowed us to stay until 2pm because our flight wasn't scheduled to leave out of John Wayne Airport until 4:30pm.  Ginger was running the mini-cafe, and she was so nice and friendly. The hotel was very quiet, and our room was very clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r476121070-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>476121070</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daughter wedding </t>
+  </si>
+  <si>
+    <t>Service is non existent. Yesterday told maids 3 times to make the room yet no service when we returned. Mattress is worn out extremely uncomfortable crunched  when sitting felt the springs. Don't stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Service is non existent. Yesterday told maids 3 times to make the room yet no service when we returned. Mattress is worn out extremely uncomfortable crunched  when sitting felt the springs. Don't stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r474121131-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>474121131</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Quiet and friendly</t>
+  </si>
+  <si>
+    <t>3nights of good sleep...Sandra and her colleagues were very helpful with directions and suggestions.  Location was excellent for attending WWWY festival at the Observatory.  If you like shopping, the South Coast Plaza is close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>3nights of good sleep...Sandra and her colleagues were very helpful with directions and suggestions.  Location was excellent for attending WWWY festival at the Observatory.  If you like shopping, the South Coast Plaza is close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r469414259-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>469414259</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Staff was helpful and kind</t>
+  </si>
+  <si>
+    <t>I got to the hotel to let them know I'd be checking in late. The hotel had no information on my reservation, although I had email confirmation from Booking.com.  Sandra, at the desk, gave me the phone number to contact Booking.com.  After waiting for approx. 45 minutes, a live person answered, acknowledged my reservation, and said he would inform Clarion Inn right away.  9 hours later, the hotel still had not heard from Booking.com about my reservation.  In the meantime, Sandra used very kind judgment and professionalism - she held a room for me.  She went the extra mile to contact the next person at the desk, Jessica, telling her my situation.  When I arrived late at night, hoping that there'd be a room for me, Jessica greeted me, fully knowing the situation, gave me my room key, and wished me a good night's sleep.  Not only was I relieved at the way Sandra and Jessica took personal interest in my situation, they interacted with me with care, humor, and compassion.  Sandra and Jessica are top assets to the hotel, no question about that.  Booking.com never did contact the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>I got to the hotel to let them know I'd be checking in late. The hotel had no information on my reservation, although I had email confirmation from Booking.com.  Sandra, at the desk, gave me the phone number to contact Booking.com.  After waiting for approx. 45 minutes, a live person answered, acknowledged my reservation, and said he would inform Clarion Inn right away.  9 hours later, the hotel still had not heard from Booking.com about my reservation.  In the meantime, Sandra used very kind judgment and professionalism - she held a room for me.  She went the extra mile to contact the next person at the desk, Jessica, telling her my situation.  When I arrived late at night, hoping that there'd be a room for me, Jessica greeted me, fully knowing the situation, gave me my room key, and wished me a good night's sleep.  Not only was I relieved at the way Sandra and Jessica took personal interest in my situation, they interacted with me with care, humor, and compassion.  Sandra and Jessica are top assets to the hotel, no question about that.  Booking.com never did contact the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r468320908-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>468320908</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan am BJJ tournament </t>
+  </si>
+  <si>
+    <t>Forgot to request proper bed option when hotel wad booked. Sandra went above and beyond to still find us proper bed accommodations at check in. Even checked us in super early so we could get ready for the tournament.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Forgot to request proper bed option when hotel wad booked. Sandra went above and beyond to still find us proper bed accommodations at check in. Even checked us in super early so we could get ready for the tournament.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r467045487-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>467045487</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Overall Clean , Loved the Lobby area</t>
+  </si>
+  <si>
+    <t>I would have given a 5 but although my overall stay was good, did not care for heavy bathroom sliding door, i had to open and close every time my boys wanted to use, Would have loved a dimmer in bathroom so is not so bright at night.  And one other thing forgot my shampoos and the one provided had no foam, a better product would be nice to have. Very welcoming stuff.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>I would have given a 5 but although my overall stay was good, did not care for heavy bathroom sliding door, i had to open and close every time my boys wanted to use, Would have loved a dimmer in bathroom so is not so bright at night.  And one other thing forgot my shampoos and the one provided had no foam, a better product would be nice to have. Very welcoming stuff.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r465786045-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>465786045</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>Business Travel Accomodations</t>
+  </si>
+  <si>
+    <t>Even during the busiest season, this hotel and its staff go above and beyond to make sure your stay is comfortable and worry-free. From the time I checked in, no matter what I needed from a quick cup of coffee to ice cream just before bed, the lovely lady at the food counter was "on the job". The front desk could not be more pleasant even when I grumpily dragged in after a 14 hour day. Smiles, hellos and how can we help always greeted me. Knowing that I will be staying here on all my business trips (I'd stay here too if I had some time off!) takes the sting out of being away from home so often.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Even during the busiest season, this hotel and its staff go above and beyond to make sure your stay is comfortable and worry-free. From the time I checked in, no matter what I needed from a quick cup of coffee to ice cream just before bed, the lovely lady at the food counter was "on the job". The front desk could not be more pleasant even when I grumpily dragged in after a 14 hour day. Smiles, hellos and how can we help always greeted me. Knowing that I will be staying here on all my business trips (I'd stay here too if I had some time off!) takes the sting out of being away from home so often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r464380524-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>464380524</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>This is the first time i am staying at this hotel. And it was super pleasant. All the employees made me feel at home. Ginger, Jessica, Ranee,Sandra,Miriam,Joe,Gadys,Jesus. They are super sweet. And thanks for making it  pleasant memorable :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>This is the first time i am staying at this hotel. And it was super pleasant. All the employees made me feel at home. Ginger, Jessica, Ranee,Sandra,Miriam,Joe,Gadys,Jesus. They are super sweet. And thanks for making it  pleasant memorable :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r462670739-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>462670739</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend had the greatest experience at the Clarion!!!! Ginger is an employee there that goes above and beyond! No matter what the need she handled it! She was kind, personable, consistent, and efficient! At first I thought she was the manager the way she conducted herself and worked with the staff! Not only did she show good leadership she also showed genuine concern for the guests at the hotel provided them an experience worth more than we paid! The shuttle drivers were also awesome went the extra mile to make us comfortable and always were fast in picking us up!!!!! And let's not forget the front desk ladies!!!! We had a horrible arrival to California and she went out of her way to keep the jacuzzi open past hours so we could relax! This was one of the best hotel experiences I ever had and it wasn't the facility it was the staff!!!! Good job MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend had the greatest experience at the Clarion!!!! Ginger is an employee there that goes above and beyond! No matter what the need she handled it! She was kind, personable, consistent, and efficient! At first I thought she was the manager the way she conducted herself and worked with the staff! Not only did she show good leadership she also showed genuine concern for the guests at the hotel provided them an experience worth more than we paid! The shuttle drivers were also awesome went the extra mile to make us comfortable and always were fast in picking us up!!!!! And let's not forget the front desk ladies!!!! We had a horrible arrival to California and she went out of her way to keep the jacuzzi open past hours so we could relax! This was one of the best hotel experiences I ever had and it wasn't the facility it was the staff!!!! Good job More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r460777937-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>460777937</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Sandra was amazing...</t>
+  </si>
+  <si>
+    <t>My name is Olivia I live in Omaha Nebraska &amp; went to celebrate my daughters 16th birthday in Orange County. I reserved my room through travelocity couple weeks before my trip, it was pretty easy. When we arrived to Clarion Inn &amp; Suites John Wayne Airport the person that helped us her name was Sandra really nice person she greeted us in a positive, friendly matter she explained everything thoroughly, made me &amp; my daughter feel very welcomed. She just made our stay amazing. The rooms were clean all amenities you need they had them in our room. The Hotel was quiet &amp; clean inside &amp; out. I will definitely will stay here again, I will sure recommended to my family &amp; friends. I will be back this summer!MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>My name is Olivia I live in Omaha Nebraska &amp; went to celebrate my daughters 16th birthday in Orange County. I reserved my room through travelocity couple weeks before my trip, it was pretty easy. When we arrived to Clarion Inn &amp; Suites John Wayne Airport the person that helped us her name was Sandra really nice person she greeted us in a positive, friendly matter she explained everything thoroughly, made me &amp; my daughter feel very welcomed. She just made our stay amazing. The rooms were clean all amenities you need they had them in our room. The Hotel was quiet &amp; clean inside &amp; out. I will definitely will stay here again, I will sure recommended to my family &amp; friends. I will be back this summer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r454152786-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>454152786</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Outstanding!</t>
+  </si>
+  <si>
+    <t>Clean and roomy with all the amenities, such as; coffee, fridge, microwave, iron, and hair dryer. The staff were friendly and accommodating. TV reception was excellent with HD and WiFi worked great. Small Bistro in the main lobby for light snacks and beverages. Fast food restaurants are within easy walking distance in the area surrounded by more the expensive motels. Easy freeway, John Wayne Airport, and major road accessable. This is a real gem located in the heart of Orange County and this is the place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott Y, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Clean and roomy with all the amenities, such as; coffee, fridge, microwave, iron, and hair dryer. The staff were friendly and accommodating. TV reception was excellent with HD and WiFi worked great. Small Bistro in the main lobby for light snacks and beverages. Fast food restaurants are within easy walking distance in the area surrounded by more the expensive motels. Easy freeway, John Wayne Airport, and major road accessable. This is a real gem located in the heart of Orange County and this is the place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r454109834-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>454109834</t>
+  </si>
+  <si>
+    <t>Great!!!</t>
+  </si>
+  <si>
+    <t>This property is lovely! Renee especially at the front desk took very good care of me! Rooms are fantastic with nice pool area! I recommend to stay here. Lots of restaurants near by and they have a little bistro in the lobby!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>This property is lovely! Renee especially at the front desk took very good care of me! Rooms are fantastic with nice pool area! I recommend to stay here. Lots of restaurants near by and they have a little bistro in the lobby!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r449657839-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>449657839</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>My stay at the Clarion was excellent.  The hotel front desk staff was very friendly and attentive to my needs, check in and out was a snap.  Sandra was especially helpful in telling me about places to dine in the area.Thank you Sandra and Clarion Hotels!MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2017</t>
+  </si>
+  <si>
+    <t>My stay at the Clarion was excellent.  The hotel front desk staff was very friendly and attentive to my needs, check in and out was a snap.  Sandra was especially helpful in telling me about places to dine in the area.Thank you Sandra and Clarion Hotels!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r448721751-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>448721751</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>The best place to rest!!!</t>
+  </si>
+  <si>
+    <t>If you're ever in the Orange County, go to the Clarion by the John Wayne Airport, they will take great care of you.  We know we are there at least once or twice a month!!!  Easy on the pocketbook too!  You will thank us!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>If you're ever in the Orange County, go to the Clarion by the John Wayne Airport, they will take great care of you.  We know we are there at least once or twice a month!!!  Easy on the pocketbook too!  You will thank us!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r447954936-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>447954936</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>VERY nice people</t>
+  </si>
+  <si>
+    <t>Propertey is old, but the prices are worth it. great for walk-ins. people are nice,(staff) and the pool is great. The hot tub is working, and they have great tv. channels. the food is great. it is near the airport, and does have free shuttles. -ginger is a great cook---MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Propertey is old, but the prices are worth it. great for walk-ins. people are nice,(staff) and the pool is great. The hot tub is working, and they have great tv. channels. the food is great. it is near the airport, and does have free shuttles. -ginger is a great cook---More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r443741694-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>443741694</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Nice, decent location and friendly staff</t>
+  </si>
+  <si>
+    <t>Completed a five-night stay last week for business training in nearby Irvine. Hotel staff was always very courteous and accommodating to shuttle me each day to my training near the (John Wayne) airport. Hotel and room was very quiet and the room was cleaned well and refreshed each day when I returned. Having a small fridge and microwave came in handy for the week, too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded December 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2016</t>
+  </si>
+  <si>
+    <t>Completed a five-night stay last week for business training in nearby Irvine. Hotel staff was always very courteous and accommodating to shuttle me each day to my training near the (John Wayne) airport. Hotel and room was very quiet and the room was cleaned well and refreshed each day when I returned. Having a small fridge and microwave came in handy for the week, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r443410226-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>443410226</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Superb!</t>
+  </si>
+  <si>
+    <t>Stayed here for over 10 days, while my family transitioned into a new home. Staff was pleasant, welcoming, and quite friendly. Ginger was my favorite. She made us feel right at home! We thoroughly enjoyed our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for over 10 days, while my family transitioned into a new home. Staff was pleasant, welcoming, and quite friendly. Ginger was my favorite. She made us feel right at home! We thoroughly enjoyed our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r443184189-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>443184189</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I had a 1 night stay here at the Clarion. Check in/check out was smooth. Front desk staff were nice and friendly. I did not take advantage of the other amenities, as I was only here for 1 night, but they have a pool and outdoor seating with a fire pit. I would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a 1 night stay here at the Clarion. Check in/check out was smooth. Front desk staff were nice and friendly. I did not take advantage of the other amenities, as I was only here for 1 night, but they have a pool and outdoor seating with a fire pit. I would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r436459958-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>436459958</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing stay, and great help </t>
+  </si>
+  <si>
+    <t>It was an amazing weekend! Clarion inn has awesome employee who are so helpful. I was able to get a free upgrade due to some room issue and it was facing the pool! It was defiantly worth the trip from Arizona MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded November 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2016</t>
+  </si>
+  <si>
+    <t>It was an amazing weekend! Clarion inn has awesome employee who are so helpful. I was able to get a free upgrade due to some room issue and it was facing the pool! It was defiantly worth the trip from Arizona More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r433851611-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>433851611</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Find someplace else</t>
+  </si>
+  <si>
+    <t>Horrible bed--squeeky, hard, and every time my husband turned over, I was almost tossed out of bed.  Pillows were not good either. The noise in the courtyard went on to the wee hours of the night.  The noise at 7a.m. from the tour bus customers gathering in the front of the building was also very loud. The hot tub was only lukewarm and only 2 jets worked.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Horrible bed--squeeky, hard, and every time my husband turned over, I was almost tossed out of bed.  Pillows were not good either. The noise in the courtyard went on to the wee hours of the night.  The noise at 7a.m. from the tour bus customers gathering in the front of the building was also very loud. The hot tub was only lukewarm and only 2 jets worked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r430021597-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>430021597</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>STAYED FOR OVERNIGHT</t>
+  </si>
+  <si>
+    <t>Check inn staff was very nice. But in Morning name by Jessica was rude and not helpful like ignore us. we are here for business conference and find this one very close to airport.   This was the most horrible experience ,When we are check inn told front desk I need 6.30 wakeup but  after having no wake up call We was late for are routing things and meeting. Also they didn't offer express checkout. Hall way was smelled like weed.  Never come back  Thanks choiceMoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Check inn staff was very nice. But in Morning name by Jessica was rude and not helpful like ignore us. we are here for business conference and find this one very close to airport.   This was the most horrible experience ,When we are check inn told front desk I need 6.30 wakeup but  after having no wake up call We was late for are routing things and meeting. Also they didn't offer express checkout. Hall way was smelled like weed.  Never come back  Thanks choiceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r426227249-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>426227249</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Stayed on business</t>
+  </si>
+  <si>
+    <t>Staff was very accommodating and polite, room was clean. Meals (including breakfast) available at a counter in the lobby for a fee. Make sure you utilize the coffee urns in the rooms as coffee is only available in the lobby for a fee at the counter.MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded October 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2016</t>
+  </si>
+  <si>
+    <t>Staff was very accommodating and polite, room was clean. Meals (including breakfast) available at a counter in the lobby for a fee. Make sure you utilize the coffee urns in the rooms as coffee is only available in the lobby for a fee at the counter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r422599774-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>422599774</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Was close to where I was going</t>
+  </si>
+  <si>
+    <t>Must make this clear first, I was using points, so not always the best rooms for those not paying.
+The driveway is very steep. If you have a low vehicle you will scrape the bottom entering and exiting. The front desk clerk was on the phone in the room behind the desk.  I waited about 10 minutes.  He did apologize and said he was trying to direct a cab to the hotel. The lobby was clean, but looked old. There is a Bistro across the lobby from the front desk in the lobby. Check in went okay. The clerk directed me to the building where my room was. From the property map it looks like there are 5 buildings all around the outside pool. I took the elevator to my third floor room. Strange door locks, you just wave the key card in front of the lock. Took several attempts for the door to unlock. On-line the room was described as a king suite with sofa bed divided by a wall. The wall between the bed and living room area was about 4 feet tall and only 2 feet deep.
+The room was also described as NEW, which maybe was because of the new bathroom floor and 24" flat screen TV. The walls were not insulated, because I could hear the TV from one room and the people screaming at each other in the other room. I had ear plugs,...Must make this clear first, I was using points, so not always the best rooms for those not paying.The driveway is very steep. If you have a low vehicle you will scrape the bottom entering and exiting. The front desk clerk was on the phone in the room behind the desk.  I waited about 10 minutes.  He did apologize and said he was trying to direct a cab to the hotel. The lobby was clean, but looked old. There is a Bistro across the lobby from the front desk in the lobby. Check in went okay. The clerk directed me to the building where my room was. From the property map it looks like there are 5 buildings all around the outside pool. I took the elevator to my third floor room. Strange door locks, you just wave the key card in front of the lock. Took several attempts for the door to unlock. On-line the room was described as a king suite with sofa bed divided by a wall. The wall between the bed and living room area was about 4 feet tall and only 2 feet deep.The room was also described as NEW, which maybe was because of the new bathroom floor and 24" flat screen TV. The walls were not insulated, because I could hear the TV from one room and the people screaming at each other in the other room. I had ear plugs, so no problem.The room doors are all outside and there were no lights turned on in the area of my room.I have allergies which sometimes makes it hard to breathe in hotels, but this room was clean and even the air conditioner was NOT smelly. The bed was very comfortable. I still don't understand why a hotel puts 7 pillows on a king size bed, but they all do it.There was NO free breakfast but you could order something from the Bistro in the lobby. I did not eat there, but a sample of the food was a breakfast sandwich of egg and cheese on a bagel with breakfast potatoes for $6.There were about 10 items on the breakfast menu.For dinner you could order salads, flatbread pizzas or burgers. Not sure this would be my choice if in the area again.Bottom line, it was clean and odor free. Even though it is near John Wayne airport, I did not hear planes.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Must make this clear first, I was using points, so not always the best rooms for those not paying.
+The driveway is very steep. If you have a low vehicle you will scrape the bottom entering and exiting. The front desk clerk was on the phone in the room behind the desk.  I waited about 10 minutes.  He did apologize and said he was trying to direct a cab to the hotel. The lobby was clean, but looked old. There is a Bistro across the lobby from the front desk in the lobby. Check in went okay. The clerk directed me to the building where my room was. From the property map it looks like there are 5 buildings all around the outside pool. I took the elevator to my third floor room. Strange door locks, you just wave the key card in front of the lock. Took several attempts for the door to unlock. On-line the room was described as a king suite with sofa bed divided by a wall. The wall between the bed and living room area was about 4 feet tall and only 2 feet deep.
+The room was also described as NEW, which maybe was because of the new bathroom floor and 24" flat screen TV. The walls were not insulated, because I could hear the TV from one room and the people screaming at each other in the other room. I had ear plugs,...Must make this clear first, I was using points, so not always the best rooms for those not paying.The driveway is very steep. If you have a low vehicle you will scrape the bottom entering and exiting. The front desk clerk was on the phone in the room behind the desk.  I waited about 10 minutes.  He did apologize and said he was trying to direct a cab to the hotel. The lobby was clean, but looked old. There is a Bistro across the lobby from the front desk in the lobby. Check in went okay. The clerk directed me to the building where my room was. From the property map it looks like there are 5 buildings all around the outside pool. I took the elevator to my third floor room. Strange door locks, you just wave the key card in front of the lock. Took several attempts for the door to unlock. On-line the room was described as a king suite with sofa bed divided by a wall. The wall between the bed and living room area was about 4 feet tall and only 2 feet deep.The room was also described as NEW, which maybe was because of the new bathroom floor and 24" flat screen TV. The walls were not insulated, because I could hear the TV from one room and the people screaming at each other in the other room. I had ear plugs, so no problem.The room doors are all outside and there were no lights turned on in the area of my room.I have allergies which sometimes makes it hard to breathe in hotels, but this room was clean and even the air conditioner was NOT smelly. The bed was very comfortable. I still don't understand why a hotel puts 7 pillows on a king size bed, but they all do it.There was NO free breakfast but you could order something from the Bistro in the lobby. I did not eat there, but a sample of the food was a breakfast sandwich of egg and cheese on a bagel with breakfast potatoes for $6.There were about 10 items on the breakfast menu.For dinner you could order salads, flatbread pizzas or burgers. Not sure this would be my choice if in the area again.Bottom line, it was clean and odor free. Even though it is near John Wayne airport, I did not hear planes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r422291584-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>422291584</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>"BORING!!!"</t>
+  </si>
+  <si>
+    <t>I booked this hotel for 5 days and 4 nights for my daughter school move-in day. I stayed at this hotel after my daughter moved in at UCI.  It's nothing to do here if you are on your leisure time. Beside, it is for business area. It is so boring that I have to stay in the room all day doing nothing. There wasn't much restaurants around this area, just the MEXICAN restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>I booked this hotel for 5 days and 4 nights for my daughter school move-in day. I stayed at this hotel after my daughter moved in at UCI.  It's nothing to do here if you are on your leisure time. Beside, it is for business area. It is so boring that I have to stay in the room all day doing nothing. There wasn't much restaurants around this area, just the MEXICAN restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r419908799-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>419908799</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel - GREAT Staff</t>
+  </si>
+  <si>
+    <t>Wonderful hotel and very accommodating staff.I arrived just before 10am and requested an early check-in. Sandra was very helpful and asked me to wait in their nice lobby area and she would try.Pepe at the Bistro area made me an amazing bagel sandwich and the moment it was ready Sandra let me know that my room was indeed ready.Everyone went the extra mile for me - I was able to rest for an hour before my Sunday meeting.This is a first-rate hotel offering great service - lovely room and excellent overall feel. I'm well beyond please - Thank You Clarion...MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Wonderful hotel and very accommodating staff.I arrived just before 10am and requested an early check-in. Sandra was very helpful and asked me to wait in their nice lobby area and she would try.Pepe at the Bistro area made me an amazing bagel sandwich and the moment it was ready Sandra let me know that my room was indeed ready.Everyone went the extra mile for me - I was able to rest for an hour before my Sunday meeting.This is a first-rate hotel offering great service - lovely room and excellent overall feel. I'm well beyond please - Thank You Clarion...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r419223269-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>419223269</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Pretty good for just one night stay</t>
+  </si>
+  <si>
+    <t>We were hanging out in the area and needed a place to stay for one night. This was close to the beach so we gave it a whirl. The room was clean and the bathroom had recently been remodeled. I did call before hand to see how old the beds were as I have a picky back and they told me the hotel had been completely remodeled within the last two years and that all beds were new. That may have been true, but the bed was a little soft for me. Regardless, it was easy to get in and out and was close to many restaurants as well as the beach. We would stay here again. Keep in mind it is an older property, but for the price it was fair. There is a pool, but shortly after 10pm all became quiet. No noise problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We were hanging out in the area and needed a place to stay for one night. This was close to the beach so we gave it a whirl. The room was clean and the bathroom had recently been remodeled. I did call before hand to see how old the beds were as I have a picky back and they told me the hotel had been completely remodeled within the last two years and that all beds were new. That may have been true, but the bed was a little soft for me. Regardless, it was easy to get in and out and was close to many restaurants as well as the beach. We would stay here again. Keep in mind it is an older property, but for the price it was fair. There is a pool, but shortly after 10pm all became quiet. No noise problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r418214964-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>418214964</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Best budget hotel</t>
+  </si>
+  <si>
+    <t>This hotel has been refurbished within the past seven months and the results are excellent. We had a room facing the back so there was no noise from the street or airport. The room was very spacious and clean. The refurbishment included the bathroom. The only criticism, a minor one, is that the pocket door to the bathroom didn't change and it was hard to slide. The room comes with iron, microwave oven, refrigerator, coffee maker and small flat screen tv. The small swimming pool looks as good as new with a jacuzzi on the side. There is a small exercise room off the pool area. While breakfast is not included they offer an ala carte cafe type breakfast in the morning. You will easily save over $50 per night for something comparable. We will come back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>This hotel has been refurbished within the past seven months and the results are excellent. We had a room facing the back so there was no noise from the street or airport. The room was very spacious and clean. The refurbishment included the bathroom. The only criticism, a minor one, is that the pocket door to the bathroom didn't change and it was hard to slide. The room comes with iron, microwave oven, refrigerator, coffee maker and small flat screen tv. The small swimming pool looks as good as new with a jacuzzi on the side. There is a small exercise room off the pool area. While breakfast is not included they offer an ala carte cafe type breakfast in the morning. You will easily save over $50 per night for something comparable. We will come back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r411253576-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>411253576</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>I will never stay here again.</t>
+  </si>
+  <si>
+    <t>I will never stay at this hotel again. Customer service was terrible. I originally made a reservation through Orbitz for two nights, but I wanted to stay a third so I called the hotel (almost a month in advance.) and the woman who answered had no idea what was going on. She couldn't tell me how much my third night would be, when my credit card would be charged, or if I'd be able to stay in the room. She proceeded to tell me that she was "too swamped to help me." Because of her lack of customer service, I went to the hotel's website and found the manager's email to tell him about my incident. NO RESPONSE. When I arrived to check in, the woman at the front desk did not greet us and she was not friendly at all. I asked her about my third night and she told me she would "figure it out and call the room when she was ready for me to sign the papers." 45 minutes later, we left for dinner. There was a different girl at the desk because the one from earlier left for the day and told no one what was going on. The next day, I alerted the front desk that there was a problem with my bathroom door and she could not care less. 2 out of 3 front desk personnel were extremely unfriendly. The ONLY reason I...I will never stay at this hotel again. Customer service was terrible. I originally made a reservation through Orbitz for two nights, but I wanted to stay a third so I called the hotel (almost a month in advance.) and the woman who answered had no idea what was going on. She couldn't tell me how much my third night would be, when my credit card would be charged, or if I'd be able to stay in the room. She proceeded to tell me that she was "too swamped to help me." Because of her lack of customer service, I went to the hotel's website and found the manager's email to tell him about my incident. NO RESPONSE. When I arrived to check in, the woman at the front desk did not greet us and she was not friendly at all. I asked her about my third night and she told me she would "figure it out and call the room when she was ready for me to sign the papers." 45 minutes later, we left for dinner. There was a different girl at the desk because the one from earlier left for the day and told no one what was going on. The next day, I alerted the front desk that there was a problem with my bathroom door and she could not care less. 2 out of 3 front desk personnel were extremely unfriendly. The ONLY reason I will NEVER stay here again is because of the lack of customer service. The hotel was nice and in a convenient area and our room was comfortable, but I'd rather pay a little more to stay somewhere else with better customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>I will never stay at this hotel again. Customer service was terrible. I originally made a reservation through Orbitz for two nights, but I wanted to stay a third so I called the hotel (almost a month in advance.) and the woman who answered had no idea what was going on. She couldn't tell me how much my third night would be, when my credit card would be charged, or if I'd be able to stay in the room. She proceeded to tell me that she was "too swamped to help me." Because of her lack of customer service, I went to the hotel's website and found the manager's email to tell him about my incident. NO RESPONSE. When I arrived to check in, the woman at the front desk did not greet us and she was not friendly at all. I asked her about my third night and she told me she would "figure it out and call the room when she was ready for me to sign the papers." 45 minutes later, we left for dinner. There was a different girl at the desk because the one from earlier left for the day and told no one what was going on. The next day, I alerted the front desk that there was a problem with my bathroom door and she could not care less. 2 out of 3 front desk personnel were extremely unfriendly. The ONLY reason I...I will never stay at this hotel again. Customer service was terrible. I originally made a reservation through Orbitz for two nights, but I wanted to stay a third so I called the hotel (almost a month in advance.) and the woman who answered had no idea what was going on. She couldn't tell me how much my third night would be, when my credit card would be charged, or if I'd be able to stay in the room. She proceeded to tell me that she was "too swamped to help me." Because of her lack of customer service, I went to the hotel's website and found the manager's email to tell him about my incident. NO RESPONSE. When I arrived to check in, the woman at the front desk did not greet us and she was not friendly at all. I asked her about my third night and she told me she would "figure it out and call the room when she was ready for me to sign the papers." 45 minutes later, we left for dinner. There was a different girl at the desk because the one from earlier left for the day and told no one what was going on. The next day, I alerted the front desk that there was a problem with my bathroom door and she could not care less. 2 out of 3 front desk personnel were extremely unfriendly. The ONLY reason I will NEVER stay here again is because of the lack of customer service. The hotel was nice and in a convenient area and our room was comfortable, but I'd rather pay a little more to stay somewhere else with better customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r410577353-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>410577353</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Quiet little Hotel</t>
+  </si>
+  <si>
+    <t>This is my go to hotel when I need to stay in the area. The hotel is nicely renovated, quiet and the front desk is very friendly. I stay here often, and the lady at the front desk, Sandra remembers my name and greets me as I walk in. Makes business travel feel a little more like I am staying at a friend's house. The beds are super comfy too!MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>This is my go to hotel when I need to stay in the area. The hotel is nicely renovated, quiet and the front desk is very friendly. I stay here often, and the lady at the front desk, Sandra remembers my name and greets me as I walk in. Makes business travel feel a little more like I am staying at a friend's house. The beds are super comfy too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r409147483-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>409147483</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Very unhappy stay</t>
+  </si>
+  <si>
+    <t>Rating -1My baby niece had and accident on the bed sheets, where she had diarrhea On the second night we stayed.  We removed the sheets and bedspread  and put I them in bag for housekeeping to wash. We left a tip to the housekeepers, and I still received a call from the concierge stating that they were going to charge extra because it  was considered damage to the property. I  replied to her don't you guys wash sheets and comforters every time a guest leaves?  Don't you guys have people accidentally vomit, or women  bleed  accidentally on the sheets?! Nothing was damage in the room the Sheets and  comforters are washable! I always stay in hotels because I travel a lot and I've never once had a called from a hotel telling me that they would charge me extra because of dirty sheets. I decided to stay at this hotel because friends and family members had chosen this hotel because of the proximity to the wedding we  had  to attend. Also No continental breakfast! For that price we paid we could have gone next-door to the Best Western, where the rooms are bigger, cleaner, beds are cozy and pillows are soft, and nice to their guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rating -1My baby niece had and accident on the bed sheets, where she had diarrhea On the second night we stayed.  We removed the sheets and bedspread  and put I them in bag for housekeeping to wash. We left a tip to the housekeepers, and I still received a call from the concierge stating that they were going to charge extra because it  was considered damage to the property. I  replied to her don't you guys wash sheets and comforters every time a guest leaves?  Don't you guys have people accidentally vomit, or women  bleed  accidentally on the sheets?! Nothing was damage in the room the Sheets and  comforters are washable! I always stay in hotels because I travel a lot and I've never once had a called from a hotel telling me that they would charge me extra because of dirty sheets. I decided to stay at this hotel because friends and family members had chosen this hotel because of the proximity to the wedding we  had  to attend. Also No continental breakfast! For that price we paid we could have gone next-door to the Best Western, where the rooms are bigger, cleaner, beds are cozy and pillows are soft, and nice to their guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r399476431-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>399476431</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Families welcomed here:-)</t>
+  </si>
+  <si>
+    <t>Part two of the quick as heck trip to the West Coast:-)
+Arrived here after the stated 15:00/3:00 p.m. check in time and they were still in progress of cleaning the rooms with two beds (which was a requirement since I'm traveling with my 15 year old grand nephew) so that delayed us from checking in. But, we needed some items from Wal-Mart (a quick 10 minute drive down Dyer Road) so we went there.
+We had room 332 which is on the back side of the property and a ADA room (which I didn't request but could live with). Bed checks done... nothing there but us and the room was well stocked with towels plus a mini fridge and microwave which is definitely appreciated since a very early flight home the next day.
+The only issue I had was the air conditioning/heating unitl... it continually trips the GFI circuit built into the plug roughly every 1.5 hours... THAT got annoying after a while but how can management know to fix it if NO ONE MENTIONS IT. Since we had to wait for the room to be cleaned, I'm sure the previous occupants had the same exact problem...
+For the price and location, it's a good value and, if you have kids, the pool and spa will be a nice diversion. We had a quieter room but most in the complex overlook the pool so you can see your kids...Part two of the quick as heck trip to the West Coast:-)Arrived here after the stated 15:00/3:00 p.m. check in time and they were still in progress of cleaning the rooms with two beds (which was a requirement since I'm traveling with my 15 year old grand nephew) so that delayed us from checking in. But, we needed some items from Wal-Mart (a quick 10 minute drive down Dyer Road) so we went there.We had room 332 which is on the back side of the property and a ADA room (which I didn't request but could live with). Bed checks done... nothing there but us and the room was well stocked with towels plus a mini fridge and microwave which is definitely appreciated since a very early flight home the next day.The only issue I had was the air conditioning/heating unitl... it continually trips the GFI circuit built into the plug roughly every 1.5 hours... THAT got annoying after a while but how can management know to fix it if NO ONE MENTIONS IT. Since we had to wait for the room to be cleaned, I'm sure the previous occupants had the same exact problem...For the price and location, it's a good value and, if you have kids, the pool and spa will be a nice diversion. We had a quieter room but most in the complex overlook the pool so you can see your kids from your room if you don't want to swim. However, according to the 6'1"grand nephew, it's too shallow... stopping at just 5' deep.Fantastic location, family friendly and a less expensive alternate to the places near the West coast House of the Mouse (aka Disneyland in Anaheim) which isn't far down the road and the SNA airport is less than 10 minutes away... great alternative to the madhouse that is LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Part two of the quick as heck trip to the West Coast:-)
+Arrived here after the stated 15:00/3:00 p.m. check in time and they were still in progress of cleaning the rooms with two beds (which was a requirement since I'm traveling with my 15 year old grand nephew) so that delayed us from checking in. But, we needed some items from Wal-Mart (a quick 10 minute drive down Dyer Road) so we went there.
+We had room 332 which is on the back side of the property and a ADA room (which I didn't request but could live with). Bed checks done... nothing there but us and the room was well stocked with towels plus a mini fridge and microwave which is definitely appreciated since a very early flight home the next day.
+The only issue I had was the air conditioning/heating unitl... it continually trips the GFI circuit built into the plug roughly every 1.5 hours... THAT got annoying after a while but how can management know to fix it if NO ONE MENTIONS IT. Since we had to wait for the room to be cleaned, I'm sure the previous occupants had the same exact problem...
+For the price and location, it's a good value and, if you have kids, the pool and spa will be a nice diversion. We had a quieter room but most in the complex overlook the pool so you can see your kids...Part two of the quick as heck trip to the West Coast:-)Arrived here after the stated 15:00/3:00 p.m. check in time and they were still in progress of cleaning the rooms with two beds (which was a requirement since I'm traveling with my 15 year old grand nephew) so that delayed us from checking in. But, we needed some items from Wal-Mart (a quick 10 minute drive down Dyer Road) so we went there.We had room 332 which is on the back side of the property and a ADA room (which I didn't request but could live with). Bed checks done... nothing there but us and the room was well stocked with towels plus a mini fridge and microwave which is definitely appreciated since a very early flight home the next day.The only issue I had was the air conditioning/heating unitl... it continually trips the GFI circuit built into the plug roughly every 1.5 hours... THAT got annoying after a while but how can management know to fix it if NO ONE MENTIONS IT. Since we had to wait for the room to be cleaned, I'm sure the previous occupants had the same exact problem...For the price and location, it's a good value and, if you have kids, the pool and spa will be a nice diversion. We had a quieter room but most in the complex overlook the pool so you can see your kids from your room if you don't want to swim. However, according to the 6'1"grand nephew, it's too shallow... stopping at just 5' deep.Fantastic location, family friendly and a less expensive alternate to the places near the West coast House of the Mouse (aka Disneyland in Anaheim) which isn't far down the road and the SNA airport is less than 10 minutes away... great alternative to the madhouse that is LAX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r398657423-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>398657423</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Loud</t>
+  </si>
+  <si>
+    <t>If you are traveling for business steer clear. Kids are yelling after 10pm, the grounds are dirty and the staff is unsympathetic. I wore earplugs every night, ran a sound app on my phone and ran the a/c to drown it all out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r396786944-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>396786944</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>save your money, your gas and keep driving...</t>
+  </si>
+  <si>
+    <t>This was the ABSOLUTE worse hotel I've ever stayed in.  1. I caught the receptionist sleeping when I first checked in. 2. The leaning person left my room open after cleaning. After I complained to the front desk they said they'd have the GM call me. I'm still waiting for that call 3. Mold and mildew growing in the back of the sink. I'm almost certain it's still there. It didn't seem to bother the cleaning person even after I pointed it out. 4. Pee stains on the bathroom floor in my room. I guess the cleaning person didn't have a mop. Or at least one that had water or cleaner on it. I had to stand on towels for my entire stay. And forget about taking your shoes off. Not unless you've had a tetanus shot in the last 2 weeks.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the ABSOLUTE worse hotel I've ever stayed in.  1. I caught the receptionist sleeping when I first checked in. 2. The leaning person left my room open after cleaning. After I complained to the front desk they said they'd have the GM call me. I'm still waiting for that call 3. Mold and mildew growing in the back of the sink. I'm almost certain it's still there. It didn't seem to bother the cleaning person even after I pointed it out. 4. Pee stains on the bathroom floor in my room. I guess the cleaning person didn't have a mop. Or at least one that had water or cleaner on it. I had to stand on towels for my entire stay. And forget about taking your shoes off. Not unless you've had a tetanus shot in the last 2 weeks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r391931203-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>391931203</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Good sleep, good price, no issues</t>
+  </si>
+  <si>
+    <t>Stayed a night at this place on a recent visit to Orange County. Well maintained facility. Clean room, decent amenities and a fair price. No issues to report other than a slightly noisy window air conditioning unit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Stayed a night at this place on a recent visit to Orange County. Well maintained facility. Clean room, decent amenities and a fair price. No issues to report other than a slightly noisy window air conditioning unit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r388515767-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>388515767</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Santa Ana Coast Hotel</t>
+  </si>
+  <si>
+    <t>Unfriendly place to stay. Fair room, fair amenities, and no trouble with noise. However, staff was extremely rude at this hotel. Management lacked people skills and front desk clerk, Alexis, lacks customer service etiquette. Warning all credit card users, this hotel charges a deposit of $100 prior to your stay. Watch your credit card statement because this hotel charged our card several times for this deposit.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Unfriendly place to stay. Fair room, fair amenities, and no trouble with noise. However, staff was extremely rude at this hotel. Management lacked people skills and front desk clerk, Alexis, lacks customer service etiquette. Warning all credit card users, this hotel charges a deposit of $100 prior to your stay. Watch your credit card statement because this hotel charged our card several times for this deposit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r387097091-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>387097091</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Reservationist a gem!</t>
+  </si>
+  <si>
+    <t>Geez, I haven't even stayed there yet! I made a reservation for this coming July 12 for two nights with Rosemary. She was really great to deal with. professional, funny and knowledgeable. As a hotelier myself, I know the value of the having the knowledge and the personality that it takes to begin a great stay.Well done Rosemary!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Doug M, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Geez, I haven't even stayed there yet! I made a reservation for this coming July 12 for two nights with Rosemary. She was really great to deal with. professional, funny and knowledgeable. As a hotelier myself, I know the value of the having the knowledge and the personality that it takes to begin a great stay.Well done Rosemary!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r379911590-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>379911590</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Get away</t>
+  </si>
+  <si>
+    <t>Hotel itself was nice and a good location for Orange County Airport. Staff is overworked and seems stressed. Big problem with our shuttle to the airport though..... we needed to catch the first shuttle at 6:00 to make our flight time and the driver never showed up. We waited 15 minutes and finally we were saved by another hotel guest who just happened to be returning her rent-a-car and was willing to drop us off. The desk person said she would let her manager know, but nothing has come of that so far. For the return shuttle after our trip, they don't schedule you in ahead, so you have to call. When I did, I was put on hold for almost 20 minutes before a very helpful lady said she would send their driver, who did come to get us. I will say though that the price for their "park and fly" package is really a good deal to others I was going to do - if you can put up with the hassle and uncertainty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel itself was nice and a good location for Orange County Airport. Staff is overworked and seems stressed. Big problem with our shuttle to the airport though..... we needed to catch the first shuttle at 6:00 to make our flight time and the driver never showed up. We waited 15 minutes and finally we were saved by another hotel guest who just happened to be returning her rent-a-car and was willing to drop us off. The desk person said she would let her manager know, but nothing has come of that so far. For the return shuttle after our trip, they don't schedule you in ahead, so you have to call. When I did, I was put on hold for almost 20 minutes before a very helpful lady said she would send their driver, who did come to get us. I will say though that the price for their "park and fly" package is really a good deal to others I was going to do - if you can put up with the hassle and uncertainty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r379649289-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>379649289</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Excellent Place To Stay!</t>
+  </si>
+  <si>
+    <t>Very clean and modern.  Loved the snack bar in the lobby!  Staff even gave me a ride to Staples to pick up some printing.  Look forward to staying here again! And walking distance for some fast food if you're in the mood.  Cable reception was very good.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r378336767-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>378336767</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Too Much Fun</t>
+  </si>
+  <si>
+    <t>Stayed here over a weekend, while I was jamming with my band in Tustin, nearby. The room was really clean, modern, and acceptable. Front desk, check-in/service was very good as well. Now here's the good and the bad. This place was packed and there was a total and complete party atmosphere at this place. There was some sort of a Lacrosse tournament going on, and teams were staying here. That means a bunch of 18-21 yr. old Dudes, ready to party. Not only that, but I betcha' the place was sold out, and EVERYONE was partying it up! Not that we minded this, as we were pretty much doing the same, but if I came here with small kids, or for a romantic getaway, I'd RUN AWAY quickly. Fun yes, peaceful, nope.This being said, I would look forward to staying here again, just for the crazy atmosphere.  There was a bunch of junk piled up in the back parking lot, which was very unsightly and unacceptable. Rent a storage container or trash it... Was actually unsafe and ugly. Bad move, management. Otherwise, enjoyed the stay here and would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here over a weekend, while I was jamming with my band in Tustin, nearby. The room was really clean, modern, and acceptable. Front desk, check-in/service was very good as well. Now here's the good and the bad. This place was packed and there was a total and complete party atmosphere at this place. There was some sort of a Lacrosse tournament going on, and teams were staying here. That means a bunch of 18-21 yr. old Dudes, ready to party. Not only that, but I betcha' the place was sold out, and EVERYONE was partying it up! Not that we minded this, as we were pretty much doing the same, but if I came here with small kids, or for a romantic getaway, I'd RUN AWAY quickly. Fun yes, peaceful, nope.This being said, I would look forward to staying here again, just for the crazy atmosphere.  There was a bunch of junk piled up in the back parking lot, which was very unsightly and unacceptable. Rent a storage container or trash it... Was actually unsafe and ugly. Bad move, management. Otherwise, enjoyed the stay here and would return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r375304239-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>375304239</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Should have read the small print</t>
+  </si>
+  <si>
+    <t>Nothing special about my suite or the Hotel....no breakfast and no restaurants around....plenty of fast food joints...no recognition of being a diamond elite member....not even a bottle of water....I should have stayed at another Choice hotel..econo lodge would be better.MoreShow less</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded May 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2016</t>
+  </si>
+  <si>
+    <t>Nothing special about my suite or the Hotel....no breakfast and no restaurants around....plenty of fast food joints...no recognition of being a diamond elite member....not even a bottle of water....I should have stayed at another Choice hotel..econo lodge would be better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r372498695-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>372498695</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Robbed at 3am in my room</t>
+  </si>
+  <si>
+    <t>My son and three friends were robbed while they slept in their room on May 8 at the Clarion.  My son woke up at 3 am to someone at the bedside table stealing his phone and watch.  His friend's wallet was also stolen.  The hotel management was evasive in acknowledging the incident, even though the police responded. The hotel management has taken no action or accepted responsibility for the security breach.  My family will never stay in a Clarion or Choice Hotel property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>CA800, General Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>My son and three friends were robbed while they slept in their room on May 8 at the Clarion.  My son woke up at 3 am to someone at the bedside table stealing his phone and watch.  His friend's wallet was also stolen.  The hotel management was evasive in acknowledging the incident, even though the police responded. The hotel management has taken no action or accepted responsibility for the security breach.  My family will never stay in a Clarion or Choice Hotel property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r366130640-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>366130640</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>The website lies...no free breakfast and nothing was said at checkin.</t>
+  </si>
+  <si>
+    <t>I have stayed here many times.  Not again. Despite what the website states, and what my printout had, they discontinued the free breakfast.  And there was no comment about that when I checked in.  I do not eat much, but a bowl of cereal and OJ was always nice.The hotel is comfortable, but the lack of communication is deceptive. I do not return to places where they lie by omission.   This should have been disclosed at check in.  I expect more from a hotel...and especially one where I am a gold card member.Goodbye Clarion .  There are other hotels nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded April 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here many times.  Not again. Despite what the website states, and what my printout had, they discontinued the free breakfast.  And there was no comment about that when I checked in.  I do not eat much, but a bowl of cereal and OJ was always nice.The hotel is comfortable, but the lack of communication is deceptive. I do not return to places where they lie by omission.   This should have been disclosed at check in.  I expect more from a hotel...and especially one where I am a gold card member.Goodbye Clarion .  There are other hotels nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r358777043-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>358777043</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Don't give them your money</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in March 2016.  I came in very late with no reservation.  They took my card and said I would be charged $98.  In my room which was musty and humid I turned on the crappy air conditioning that I would expect in a $30 hotel.  It worked poorly, kept me up most the night.  In the morning I found they charged me $209.  When I complained they said "oh that is the deposit, it will be reversed".  So I was charged $300 for a $30 room.  Better to sleep in the car or on the beach.  I will never stay at another Clarion Hotel ANYWHERE EVER.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded April 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in March 2016.  I came in very late with no reservation.  They took my card and said I would be charged $98.  In my room which was musty and humid I turned on the crappy air conditioning that I would expect in a $30 hotel.  It worked poorly, kept me up most the night.  In the morning I found they charged me $209.  When I complained they said "oh that is the deposit, it will be reversed".  So I was charged $300 for a $30 room.  Better to sleep in the car or on the beach.  I will never stay at another Clarion Hotel ANYWHERE EVER.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r357185754-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>357185754</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Great stay. 3 rooms reserved</t>
+  </si>
+  <si>
+    <t>We stayed to attend a funeral, had to reserve 3 rooms. We arrived at 2pm and the clerk was good enough to let us into all the rooms early. The rooms have been updated, very clean and comfortable. They are painting the outside of the hotel, so there is a bit of construction to walk around, but nothing major and it didn't smell like paint, so we were quite pleased. The breakfast consisted of: fruit, boiled eggs, milk/other, egg/sausage sandwiches that could be micro. would have liked a toaster, but that's fine. Also, had little muffins and coffee. For the price, in this area of S.CA, it's well worth it. We would return, for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed to attend a funeral, had to reserve 3 rooms. We arrived at 2pm and the clerk was good enough to let us into all the rooms early. The rooms have been updated, very clean and comfortable. They are painting the outside of the hotel, so there is a bit of construction to walk around, but nothing major and it didn't smell like paint, so we were quite pleased. The breakfast consisted of: fruit, boiled eggs, milk/other, egg/sausage sandwiches that could be micro. would have liked a toaster, but that's fine. Also, had little muffins and coffee. For the price, in this area of S.CA, it's well worth it. We would return, for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r348553398-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>348553398</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>California Dreamin</t>
+  </si>
+  <si>
+    <t>Stayed two nights in this hotel. They were remodeling the breakfast area. The staff went over and above to compensate for the remodeling. This hotel was close to restaurants and the staff was very helpful in giving us directions to the restaurants. The room was excellent. I sat out on the balcony and read a book and it was very peaceful. I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Stayed two nights in this hotel. They were remodeling the breakfast area. The staff went over and above to compensate for the remodeling. This hotel was close to restaurants and the staff was very helpful in giving us directions to the restaurants. The room was excellent. I sat out on the balcony and read a book and it was very peaceful. I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r344656703-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>344656703</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Old and undergoing renovations</t>
+  </si>
+  <si>
+    <t>Nothing in advertisement prepared us for the shape this Clarion was in. Couldn't use the heated pool or hot tub due to debris from roof construction. The "breakfast" which was set up in a stripped hotel room had no seating. The food was flavourless, kind of like food tastes when you have a bad cold. This place needs help, until then avoid it. The drone of construction equipment during the whole day was annoying &amp; despite complaining about the drunks yelling, arguing &amp; slamming doors until after 1:30am no help from staff. We won't return.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Nothing in advertisement prepared us for the shape this Clarion was in. Couldn't use the heated pool or hot tub due to debris from roof construction. The "breakfast" which was set up in a stripped hotel room had no seating. The food was flavourless, kind of like food tastes when you have a bad cold. This place needs help, until then avoid it. The drone of construction equipment during the whole day was annoying &amp; despite complaining about the drunks yelling, arguing &amp; slamming doors until after 1:30am no help from staff. We won't return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r342845020-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>342845020</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Don't always believe all the reviews</t>
+  </si>
+  <si>
+    <t>After reading some reviews i was very leery about my stay. Upon arrival i was promptly greeted by the desk clerk and she checked me in. We went to out room on the 3rd floor at the rear of the building upon unloading as i knew already about the renovations being done. The workers were there working wasn't to noisy but a little messy as to be expected when you are renovating. As the day/night progressed noted that the Construction workers checked out early and left for the weekend so no weekend noise.Pool/Spa area was clean and spacious. We were here for a Disneyland trip and was pleasantly surprised as the drive is not to far and you are between John Wayne Airport and Disneyland and hotel is very easy to gain freeway access so commute was minimal.So a definite recommend if going to anywhere in Orange County. The beds were very comfortable and bathroom very spacious. A great plus was almost instant hot water and seemed to stay hot for awhile.MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading some reviews i was very leery about my stay. Upon arrival i was promptly greeted by the desk clerk and she checked me in. We went to out room on the 3rd floor at the rear of the building upon unloading as i knew already about the renovations being done. The workers were there working wasn't to noisy but a little messy as to be expected when you are renovating. As the day/night progressed noted that the Construction workers checked out early and left for the weekend so no weekend noise.Pool/Spa area was clean and spacious. We were here for a Disneyland trip and was pleasantly surprised as the drive is not to far and you are between John Wayne Airport and Disneyland and hotel is very easy to gain freeway access so commute was minimal.So a definite recommend if going to anywhere in Orange County. The beds were very comfortable and bathroom very spacious. A great plus was almost instant hot water and seemed to stay hot for awhile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r342104534-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>342104534</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>Construction brought the rating down</t>
+  </si>
+  <si>
+    <t>When done with construction will earn four stars.People here are real nice.Breakfast is in a room for now but they are trying hard.Beds and pillows are great.  Pool and got tub look good. Wish it was warmer.MoreShow less</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2016</t>
+  </si>
+  <si>
+    <t>When done with construction will earn four stars.People here are real nice.Breakfast is in a room for now but they are trying hard.Beds and pillows are great.  Pool and got tub look good. Wish it was warmer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r334141382-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>334141382</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>ANNOYED!</t>
+  </si>
+  <si>
+    <t>Apparently there are rooms that have already been rennovated and yet I was given the oldest room I have ever been in, tucked in the back end of the hotel near the laundry room.  The breakfast was WITHOUT ANY EXAGGERATION, DISSSSGUSTING.  Pre packaged breakfast sandwhiches.  I took on bite and I could not even fake it,, I had to spit it out.  Only cereal available was sugar coated crap.  So, the point is, ask for a NEW ROOM and if the free breakfast is leading you here,,, TRUST me , it is in NO WAY an added value and you will need to go out to eat any way.NOT every web site advertises that this location is "under rennovation".  At least I should have been given a newly rennovated room.The pool was fine and the hot tub was definitely a huge PLUS!  Bed was outdated.  Not a current version of a quality sleep system.  SUGGESTION:  call to make sure this location is post rennovation, ask if the breakfast is HOT or the same as it was for me.  I would only go back if the "free breakfast"  was HOT and not prepackaged breakfast sandwhiches you heat up in a microwave AND, if the renno was complete.MoreShow less</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Apparently there are rooms that have already been rennovated and yet I was given the oldest room I have ever been in, tucked in the back end of the hotel near the laundry room.  The breakfast was WITHOUT ANY EXAGGERATION, DISSSSGUSTING.  Pre packaged breakfast sandwhiches.  I took on bite and I could not even fake it,, I had to spit it out.  Only cereal available was sugar coated crap.  So, the point is, ask for a NEW ROOM and if the free breakfast is leading you here,,, TRUST me , it is in NO WAY an added value and you will need to go out to eat any way.NOT every web site advertises that this location is "under rennovation".  At least I should have been given a newly rennovated room.The pool was fine and the hot tub was definitely a huge PLUS!  Bed was outdated.  Not a current version of a quality sleep system.  SUGGESTION:  call to make sure this location is post rennovation, ask if the breakfast is HOT or the same as it was for me.  I would only go back if the "free breakfast"  was HOT and not prepackaged breakfast sandwhiches you heat up in a microwave AND, if the renno was complete.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r331872297-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>331872297</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Pleasant stay despite ongoing remodeling</t>
+  </si>
+  <si>
+    <t>The Clarion, a handsome Spanish style facility, is being extensively renovated (formerly a Comfort Inn). My king room was refurbished, updated, and upgraded. The Lobby,  breakfast area and other public areas are still under renovation but this did not affect my stay. The room was good-sized, clean and comfortable with a nice large bath and good shower, desk, comfortable side chair and basic amenities including a microwave, refrigerator and coffee maker. Good flat screen TV, Wi-Fi and lots of plug-ins. An elevator is available for rooms on upper floors . My room had a nice view of the attractive courtyard and pool area. Breakfast was set-up in a temporary room and was a bit limited. A shuttle was available to John Wayne airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>The Clarion, a handsome Spanish style facility, is being extensively renovated (formerly a Comfort Inn). My king room was refurbished, updated, and upgraded. The Lobby,  breakfast area and other public areas are still under renovation but this did not affect my stay. The room was good-sized, clean and comfortable with a nice large bath and good shower, desk, comfortable side chair and basic amenities including a microwave, refrigerator and coffee maker. Good flat screen TV, Wi-Fi and lots of plug-ins. An elevator is available for rooms on upper floors . My room had a nice view of the attractive courtyard and pool area. Breakfast was set-up in a temporary room and was a bit limited. A shuttle was available to John Wayne airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r330167538-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>330167538</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Wonderful hotel, beautifully remodeled rooms, friendly staff!</t>
+  </si>
+  <si>
+    <t>Absolutely great stay at this hotel! The staff is wonderful! They're currently undergoing some renovations, but are very accommodating. Work was not loud or disturbing. Remodeled rooms are simply beautiful!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Absolutely great stay at this hotel! The staff is wonderful! They're currently undergoing some renovations, but are very accommodating. Work was not loud or disturbing. Remodeled rooms are simply beautiful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r314933429-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>314933429</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>OK undergoing renovations</t>
+  </si>
+  <si>
+    <t>Im staying here two days while on business. Glad someone else is paying but I did get a newly renovated room so I was happy about that.  I'd never stay here for leisure pay more to get a bit better nearbyMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded October 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2015</t>
+  </si>
+  <si>
+    <t>Im staying here two days while on business. Glad someone else is paying but I did get a newly renovated room so I was happy about that.  I'd never stay here for leisure pay more to get a bit better nearbyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r314522100-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>314522100</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>Location is great, and the price was good. But I'm sure this is due to the remodeling that they are doing until the end of the year (Nov-Dec). I woke up every morning to hammers and saws and drilling and just about everything you could think of. So if you plan on staying here the work starts promptly at 730 am and lasts till about 7pm.MoreShow less</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Location is great, and the price was good. But I'm sure this is due to the remodeling that they are doing until the end of the year (Nov-Dec). I woke up every morning to hammers and saws and drilling and just about everything you could think of. So if you plan on staying here the work starts promptly at 730 am and lasts till about 7pm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r309023298-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>309023298</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Ok place, terrible stay because of ongoing renovation</t>
+  </si>
+  <si>
+    <t>Let me start with the positives.. 
+We had a pretty good stay. We loved the proximity of the hotel to the freeways and the university. 
+A few decent places to eat nearby. Rooms are spacious with good facilities. Restrooms are big and one does not feel cramped. The staff were pretty good and helped us resolve a few issues.
+On to the negatives. 
+The hotel is undergoing remodeling. This was mentioned in fine print and hence many people were not aware of it. 
+* We had booked a room with a king bed and sofabed and had requested for a few extra sheets and the sofabed to be cleaned as we might have an additional guest for a night. But that was not done
+* The room that was allocated to us was right next to where construction was happening and we were woken up not by our alarm, but by banging and drilling. People who come on a vacation will not leave @ 8 am before construction begins and in which case they should not rent out rooms close to that area. We walked into the restroom in that room and began hunting spiders. The next day morning, we 
+* Breakfast was horrendous. And that is an understatement. On day 1, the breakfast room had 6 slices of white bread, 3 muffins, and 7 packets of butter. after they saw people coming in, they brought in 6 bagels, but...Let me start with the positives.. We had a pretty good stay. We loved the proximity of the hotel to the freeways and the university. A few decent places to eat nearby. Rooms are spacious with good facilities. Restrooms are big and one does not feel cramped. The staff were pretty good and helped us resolve a few issues.On to the negatives. The hotel is undergoing remodeling. This was mentioned in fine print and hence many people were not aware of it. * We had booked a room with a king bed and sofabed and had requested for a few extra sheets and the sofabed to be cleaned as we might have an additional guest for a night. But that was not done* The room that was allocated to us was right next to where construction was happening and we were woken up not by our alarm, but by banging and drilling. People who come on a vacation will not leave @ 8 am before construction begins and in which case they should not rent out rooms close to that area. We walked into the restroom in that room and began hunting spiders. The next day morning, we * Breakfast was horrendous. And that is an understatement. On day 1, the breakfast room had 6 slices of white bread, 3 muffins, and 7 packets of butter. after they saw people coming in, they brought in 6 bagels, but no cream cheese and 10 slices of wheat bread. There was no coffee.I had a chat with the Asst. Mngr. and he promised to have something better at breakfast the next day. But the next day, they removed the bread and all that was there was pre-packaged sandwiches with meat (we are vegetarians), a few danish pastries and Nature Valley oats bars. They said the fire safety rules does not permit having a toaster. Who wants a toaster, just keep the bread and some jelly, we can at least eat it without toasting. No Sir, we cannot, Fire Safety rules! Seriously??? At least keep some milk, cereals and a microwave. No sir, we don't have cereals as part of our breakfast. Because of fire safety rules, we cannot have a microwave in that room. But you can keep a microwave inside our rooms, that's okay?? I am not asking for waffles or pancakes. In fact if you have fire safety rules, cereals are the best choice of breakfast. In the reservation, you said that the hotel is undergoing renovation., but did not say that there will be no breakfast or horrible Wi-fi. Sorry sir it was decided by our District manager to not put it out so we don't lose business. The reservation says, free hot breakfast with eggs, waffles, fruits and yogurt. Day 3: i decided to skip breakfast and went to IHOP for breakfast. * Wi-fi: bad on the first day, then we were switched to another room where it was okay* Beds: felt like sleeping on a trampoline. But this is the case with most hotels, not specifically this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Let me start with the positives.. 
+We had a pretty good stay. We loved the proximity of the hotel to the freeways and the university. 
+A few decent places to eat nearby. Rooms are spacious with good facilities. Restrooms are big and one does not feel cramped. The staff were pretty good and helped us resolve a few issues.
+On to the negatives. 
+The hotel is undergoing remodeling. This was mentioned in fine print and hence many people were not aware of it. 
+* We had booked a room with a king bed and sofabed and had requested for a few extra sheets and the sofabed to be cleaned as we might have an additional guest for a night. But that was not done
+* The room that was allocated to us was right next to where construction was happening and we were woken up not by our alarm, but by banging and drilling. People who come on a vacation will not leave @ 8 am before construction begins and in which case they should not rent out rooms close to that area. We walked into the restroom in that room and began hunting spiders. The next day morning, we 
+* Breakfast was horrendous. And that is an understatement. On day 1, the breakfast room had 6 slices of white bread, 3 muffins, and 7 packets of butter. after they saw people coming in, they brought in 6 bagels, but...Let me start with the positives.. We had a pretty good stay. We loved the proximity of the hotel to the freeways and the university. A few decent places to eat nearby. Rooms are spacious with good facilities. Restrooms are big and one does not feel cramped. The staff were pretty good and helped us resolve a few issues.On to the negatives. The hotel is undergoing remodeling. This was mentioned in fine print and hence many people were not aware of it. * We had booked a room with a king bed and sofabed and had requested for a few extra sheets and the sofabed to be cleaned as we might have an additional guest for a night. But that was not done* The room that was allocated to us was right next to where construction was happening and we were woken up not by our alarm, but by banging and drilling. People who come on a vacation will not leave @ 8 am before construction begins and in which case they should not rent out rooms close to that area. We walked into the restroom in that room and began hunting spiders. The next day morning, we * Breakfast was horrendous. And that is an understatement. On day 1, the breakfast room had 6 slices of white bread, 3 muffins, and 7 packets of butter. after they saw people coming in, they brought in 6 bagels, but no cream cheese and 10 slices of wheat bread. There was no coffee.I had a chat with the Asst. Mngr. and he promised to have something better at breakfast the next day. But the next day, they removed the bread and all that was there was pre-packaged sandwiches with meat (we are vegetarians), a few danish pastries and Nature Valley oats bars. They said the fire safety rules does not permit having a toaster. Who wants a toaster, just keep the bread and some jelly, we can at least eat it without toasting. No Sir, we cannot, Fire Safety rules! Seriously??? At least keep some milk, cereals and a microwave. No sir, we don't have cereals as part of our breakfast. Because of fire safety rules, we cannot have a microwave in that room. But you can keep a microwave inside our rooms, that's okay?? I am not asking for waffles or pancakes. In fact if you have fire safety rules, cereals are the best choice of breakfast. In the reservation, you said that the hotel is undergoing renovation., but did not say that there will be no breakfast or horrible Wi-fi. Sorry sir it was decided by our District manager to not put it out so we don't lose business. The reservation says, free hot breakfast with eggs, waffles, fruits and yogurt. Day 3: i decided to skip breakfast and went to IHOP for breakfast. * Wi-fi: bad on the first day, then we were switched to another room where it was okay* Beds: felt like sleeping on a trampoline. But this is the case with most hotels, not specifically this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r300045836-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>300045836</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>There is nothing sweet with this suite!</t>
+  </si>
+  <si>
+    <t>I understand this is a budget motel, so I only only expect a clean and safe room and property. It was neither. The exterior was old with dead potted plants. The exterior lights were burned out by our room (safety issue at night) Construction materials and ladders were left out in the parking lot on the property unsecured (danger for young children). It was a standard room with one bed and couch separated by a 3 foot wall. Sorry this is not a suite. It was a old and tired room. The sheets had stains on them. The pull out bed had a old dirty matress with a bodily fluid stain. Having no Choice, we slept on it so our kids did not have to. Every turn at night, we were poked by the bed frame and endured a faint smell of urine. The bathroom door did not work and the ceiling had water stains. The tub has a non slip liner that was covered in mold under it. I am shocked that Choice Hotels has not terminated its association with this property. A budget hotel should not be a slum hotel. Families should avoid this hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2015</t>
+  </si>
+  <si>
+    <t>I understand this is a budget motel, so I only only expect a clean and safe room and property. It was neither. The exterior was old with dead potted plants. The exterior lights were burned out by our room (safety issue at night) Construction materials and ladders were left out in the parking lot on the property unsecured (danger for young children). It was a standard room with one bed and couch separated by a 3 foot wall. Sorry this is not a suite. It was a old and tired room. The sheets had stains on them. The pull out bed had a old dirty matress with a bodily fluid stain. Having no Choice, we slept on it so our kids did not have to. Every turn at night, we were poked by the bed frame and endured a faint smell of urine. The bathroom door did not work and the ceiling had water stains. The tub has a non slip liner that was covered in mold under it. I am shocked that Choice Hotels has not terminated its association with this property. A budget hotel should not be a slum hotel. Families should avoid this hotel!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r290831530-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>290831530</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Dont let the picture fool you.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here this past weekend, when we got there it is this place is old and dirty. seems like they just cover the wall with paint and not replacing it. the stair floor paint was cheeping off, and dirty, the room was ok, the carpet was dirty and smelly, the tub was old, the breakfast was so so. they had a nice picture of outside but as soon as you are there its not nice at all. this Hotel need to serious update and serious major clean up.MoreShow less</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here this past weekend, when we got there it is this place is old and dirty. seems like they just cover the wall with paint and not replacing it. the stair floor paint was cheeping off, and dirty, the room was ok, the carpet was dirty and smelly, the tub was old, the breakfast was so so. they had a nice picture of outside but as soon as you are there its not nice at all. this Hotel need to serious update and serious major clean up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r287463841-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>287463841</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Dependable</t>
+  </si>
+  <si>
+    <t>Love this place. We stayed here 4 times in 4 months while relocating to Orange County 3 years ago, and when we had a household emergency last week it was this hotel we chose. If anything, it got better! The room seemed cleaner and the whole place seemed better. It was definitely more enjoyable this timeMoreShow less</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded July 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2015</t>
+  </si>
+  <si>
+    <t>Love this place. We stayed here 4 times in 4 months while relocating to Orange County 3 years ago, and when we had a household emergency last week it was this hotel we chose. If anything, it got better! The room seemed cleaner and the whole place seemed better. It was definitely more enjoyable this timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r285446470-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>285446470</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Budget friendly stay</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel due to competitive pricing. We were placed in room that was renovated and have no complaints to that regard. Once renovations are done I would think the hotel will be nice. A lot of things are tired but with some updating should be fine.  Only issue we encountered was lack of parking due to painting and the workers removed the tape to get us some parking. The hotel was quiet and rooms were clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel due to competitive pricing. We were placed in room that was renovated and have no complaints to that regard. Once renovations are done I would think the hotel will be nice. A lot of things are tired but with some updating should be fine.  Only issue we encountered was lack of parking due to painting and the workers removed the tape to get us some parking. The hotel was quiet and rooms were clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r284024503-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>284024503</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Cheap and you get what you pay for</t>
+  </si>
+  <si>
+    <t>This is the worst Comfort Inn I have stayed at.  The hotel was under construction and the water was shut off when I checked in.  My toilet "exploded" and I ended up with water all over.  The internet did not work.  When I talked with the front desk about the internet, I was told the front desk  had already received several complaints about the internet.  It never stopped crashing and I was then informed, due to the construction, that my room would not have internet.  It was suggested that I utilize the internet in the lobby. (BTW, the lobby internet was unreliable).   I was on a business trip and I felt uncomfortable trying to do work in a public location.  
+The room I stayed in smelled.  I asked about the odor but was told it was new paint smell.  The carpeting had multiple stains that made me question the new paint smell.  The refrigerator in the room was so cold it froze all of my food. (Yes, I did play with the temperature control.  No change)
+Again, I state comfort inn would not switch my room or reimburse me in any way.  The Manager of the hotel would not even contact me via phone or talk with me while I was staying at the facility.  I was given the check in staff to "solve the problem" which meant they could do nothing.
+The only positive I can honestly think about...This is the worst Comfort Inn I have stayed at.  The hotel was under construction and the water was shut off when I checked in.  My toilet "exploded" and I ended up with water all over.  The internet did not work.  When I talked with the front desk about the internet, I was told the front desk  had already received several complaints about the internet.  It never stopped crashing and I was then informed, due to the construction, that my room would not have internet.  It was suggested that I utilize the internet in the lobby. (BTW, the lobby internet was unreliable).   I was on a business trip and I felt uncomfortable trying to do work in a public location.  The room I stayed in smelled.  I asked about the odor but was told it was new paint smell.  The carpeting had multiple stains that made me question the new paint smell.  The refrigerator in the room was so cold it froze all of my food. (Yes, I did play with the temperature control.  No change)Again, I state comfort inn would not switch my room or reimburse me in any way.  The Manager of the hotel would not even contact me via phone or talk with me while I was staying at the facility.  I was given the check in staff to "solve the problem" which meant they could do nothing.The only positive I can honestly think about was the price was less then any other hotel.  The king room was large and the breakfast did include eggs, sausage, and waffles.  So, if you can live without internet, and live with construction and non working items in your room, it is a great place to stay for a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>This is the worst Comfort Inn I have stayed at.  The hotel was under construction and the water was shut off when I checked in.  My toilet "exploded" and I ended up with water all over.  The internet did not work.  When I talked with the front desk about the internet, I was told the front desk  had already received several complaints about the internet.  It never stopped crashing and I was then informed, due to the construction, that my room would not have internet.  It was suggested that I utilize the internet in the lobby. (BTW, the lobby internet was unreliable).   I was on a business trip and I felt uncomfortable trying to do work in a public location.  
+The room I stayed in smelled.  I asked about the odor but was told it was new paint smell.  The carpeting had multiple stains that made me question the new paint smell.  The refrigerator in the room was so cold it froze all of my food. (Yes, I did play with the temperature control.  No change)
+Again, I state comfort inn would not switch my room or reimburse me in any way.  The Manager of the hotel would not even contact me via phone or talk with me while I was staying at the facility.  I was given the check in staff to "solve the problem" which meant they could do nothing.
+The only positive I can honestly think about...This is the worst Comfort Inn I have stayed at.  The hotel was under construction and the water was shut off when I checked in.  My toilet "exploded" and I ended up with water all over.  The internet did not work.  When I talked with the front desk about the internet, I was told the front desk  had already received several complaints about the internet.  It never stopped crashing and I was then informed, due to the construction, that my room would not have internet.  It was suggested that I utilize the internet in the lobby. (BTW, the lobby internet was unreliable).   I was on a business trip and I felt uncomfortable trying to do work in a public location.  The room I stayed in smelled.  I asked about the odor but was told it was new paint smell.  The carpeting had multiple stains that made me question the new paint smell.  The refrigerator in the room was so cold it froze all of my food. (Yes, I did play with the temperature control.  No change)Again, I state comfort inn would not switch my room or reimburse me in any way.  The Manager of the hotel would not even contact me via phone or talk with me while I was staying at the facility.  I was given the check in staff to "solve the problem" which meant they could do nothing.The only positive I can honestly think about was the price was less then any other hotel.  The king room was large and the breakfast did include eggs, sausage, and waffles.  So, if you can live without internet, and live with construction and non working items in your room, it is a great place to stay for a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r283625391-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>283625391</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Recently renovated - rooms look nice. Good breakfast with a selection of hot items. Very convenient to Orange County Airport if you're flying in late or leaving early and want a place close by. Pool area looked nice. The only negative is the view from the back rooms is of an industrial area &amp; a storage lot. The property itself is landscaped very nicely however.MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently renovated - rooms look nice. Good breakfast with a selection of hot items. Very convenient to Orange County Airport if you're flying in late or leaving early and want a place close by. Pool area looked nice. The only negative is the view from the back rooms is of an industrial area &amp; a storage lot. The property itself is landscaped very nicely however.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r261374446-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>261374446</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>I am only giving this hotel one star because that is what is required as minimum. I read some of the reviews after the stay and this place needs way more than updating. The stay began with coming back from dinner and having someone doing drugs in one corner of the back parking lot and someone else urinating in another. The gentlemen urinating in the parking lot got in his white van after we exited our car and watched us very closely until we were out of site. Im not 100% sure of what happened after that, but my husband went outside to get something he left in the car and low and behold someone had hit the back of my car and the paint on it was...what...white. I of course went through the entire parking lot looking at every white car looking for my silver car paint on it and found nothing so we can only speculate. We had a reservation for 2 nights, didnt really want to stay this night but it was already 10 at night. The cherry topper in the morning was bugs in the bathroom, oh man, I dont even want my mind to go through what could have been lurking in the night, and lets not forget about the stains on the couch mattress. I went to the front desk, which is where breakfast also was being served and I was very quiet about...I am only giving this hotel one star because that is what is required as minimum. I read some of the reviews after the stay and this place needs way more than updating. The stay began with coming back from dinner and having someone doing drugs in one corner of the back parking lot and someone else urinating in another. The gentlemen urinating in the parking lot got in his white van after we exited our car and watched us very closely until we were out of site. Im not 100% sure of what happened after that, but my husband went outside to get something he left in the car and low and behold someone had hit the back of my car and the paint on it was...what...white. I of course went through the entire parking lot looking at every white car looking for my silver car paint on it and found nothing so we can only speculate. We had a reservation for 2 nights, didnt really want to stay this night but it was already 10 at night. The cherry topper in the morning was bugs in the bathroom, oh man, I dont even want my mind to go through what could have been lurking in the night, and lets not forget about the stains on the couch mattress. I went to the front desk, which is where breakfast also was being served and I was very quiet about my situation, let the young lady know what had happened and was happening and that I would not be staying my second night. I was only asking to be reimbursed for the night I was not going to stay and well you know she couldnt help me and the manager wouldnt be in til noon. We had Mickey to visit so we packed up and left the room I was not going to stay there another moment!!! After calling at noon from the park I was told the manager would not be in til 3 OMG how do you run a business with no one that can make decisions. The only positive thing out of that 24 hours was that andre (manager) was kind enough to phone us back and refund out one night. This place is awful on every level.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I am only giving this hotel one star because that is what is required as minimum. I read some of the reviews after the stay and this place needs way more than updating. The stay began with coming back from dinner and having someone doing drugs in one corner of the back parking lot and someone else urinating in another. The gentlemen urinating in the parking lot got in his white van after we exited our car and watched us very closely until we were out of site. Im not 100% sure of what happened after that, but my husband went outside to get something he left in the car and low and behold someone had hit the back of my car and the paint on it was...what...white. I of course went through the entire parking lot looking at every white car looking for my silver car paint on it and found nothing so we can only speculate. We had a reservation for 2 nights, didnt really want to stay this night but it was already 10 at night. The cherry topper in the morning was bugs in the bathroom, oh man, I dont even want my mind to go through what could have been lurking in the night, and lets not forget about the stains on the couch mattress. I went to the front desk, which is where breakfast also was being served and I was very quiet about...I am only giving this hotel one star because that is what is required as minimum. I read some of the reviews after the stay and this place needs way more than updating. The stay began with coming back from dinner and having someone doing drugs in one corner of the back parking lot and someone else urinating in another. The gentlemen urinating in the parking lot got in his white van after we exited our car and watched us very closely until we were out of site. Im not 100% sure of what happened after that, but my husband went outside to get something he left in the car and low and behold someone had hit the back of my car and the paint on it was...what...white. I of course went through the entire parking lot looking at every white car looking for my silver car paint on it and found nothing so we can only speculate. We had a reservation for 2 nights, didnt really want to stay this night but it was already 10 at night. The cherry topper in the morning was bugs in the bathroom, oh man, I dont even want my mind to go through what could have been lurking in the night, and lets not forget about the stains on the couch mattress. I went to the front desk, which is where breakfast also was being served and I was very quiet about my situation, let the young lady know what had happened and was happening and that I would not be staying my second night. I was only asking to be reimbursed for the night I was not going to stay and well you know she couldnt help me and the manager wouldnt be in til noon. We had Mickey to visit so we packed up and left the room I was not going to stay there another moment!!! After calling at noon from the park I was told the manager would not be in til 3 OMG how do you run a business with no one that can make decisions. The only positive thing out of that 24 hours was that andre (manager) was kind enough to phone us back and refund out one night. This place is awful on every level.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r259443518-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>259443518</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Find another place to stay.</t>
+  </si>
+  <si>
+    <t>Room was clean, but the bathroom needed renovating badly.  Sink plug didn't work so water drained slowly out of sink, tub is badly chipped, toilet stained.  Free WiFi was usually not working.  Made looking things up on the laptop for apartment hunting very tough.  I was constantly calling the desk letting them know when the WiFi was out, sometimes they reset the router, other times they did not.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was clean, but the bathroom needed renovating badly.  Sink plug didn't work so water drained slowly out of sink, tub is badly chipped, toilet stained.  Free WiFi was usually not working.  Made looking things up on the laptop for apartment hunting very tough.  I was constantly calling the desk letting them know when the WiFi was out, sometimes they reset the router, other times they did not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r258948311-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>258948311</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>This hotel's rooms need some updating.  We had a quiet room on the back.  Staff was very pleasant.  Breakfast was better than continental.  Pool was really clean and warm and they kept towels out all the time.  Location was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>This hotel's rooms need some updating.  We had a quiet room on the back.  Staff was very pleasant.  Breakfast was better than continental.  Pool was really clean and warm and they kept towels out all the time.  Location was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r251319482-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>251319482</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>8 Months at the Comfort Inn</t>
+  </si>
+  <si>
+    <t>I moved here from another hotel in Santa Ana. You may see my review of that one. "9 months at the Holiday Inn". I couldn't afford to stay at that one any longer so I was lucky enough to find the Comfort Inn. I had a room right at the pool and hot tub at about half the price. Now I must say the breakfast wasn't the greatest especially after a hundred days of it but it was just a short walk to many other places. I even walked to the Holiday Inn for breakfast. The people at the front desk and housekeeping were and still are like family to me. They even gave my bank a financial statement so I could buy a Condo in the area. I never saw anything bad happen like other reviews saidMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>I moved here from another hotel in Santa Ana. You may see my review of that one. "9 months at the Holiday Inn". I couldn't afford to stay at that one any longer so I was lucky enough to find the Comfort Inn. I had a room right at the pool and hot tub at about half the price. Now I must say the breakfast wasn't the greatest especially after a hundred days of it but it was just a short walk to many other places. I even walked to the Holiday Inn for breakfast. The people at the front desk and housekeeping were and still are like family to me. They even gave my bank a financial statement so I could buy a Condo in the area. I never saw anything bad happen like other reviews saidMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r248589701-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>248589701</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Consistent</t>
+  </si>
+  <si>
+    <t>Even though it wasn't far from my home i'am in sales so I needed nice neat place more local in that area were I could meet customers in that area they are part of choice hotels and had specials were you earned a free night after two different stays Ontario CA was another location they were very Courteous, let me check in early  and check out late I had to leave my car there a couple days they even picked me up and dropped me off to get my rent a car they had a excellent breakfast and the room had a  frig,microwave , coffee maker hd TV and iron all for $60 so I brought my own food witch if I ate out I would spent that mutch and close to events in Orange County plus you earn points  towards free rooms about 20 nights for about $800 excellent value the staff too !MoreShow less</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded January 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2015</t>
+  </si>
+  <si>
+    <t>Even though it wasn't far from my home i'am in sales so I needed nice neat place more local in that area were I could meet customers in that area they are part of choice hotels and had specials were you earned a free night after two different stays Ontario CA was another location they were very Courteous, let me check in early  and check out late I had to leave my car there a couple days they even picked me up and dropped me off to get my rent a car they had a excellent breakfast and the room had a  frig,microwave , coffee maker hd TV and iron all for $60 so I brought my own food witch if I ate out I would spent that mutch and close to events in Orange County plus you earn points  towards free rooms about 20 nights for about $800 excellent value the staff too !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r248564514-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>248564514</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crack Central </t>
+  </si>
+  <si>
+    <t>If you enjoy people arguing about meth and the pounds of drugs they have or if you enjoy throw up in the parking lot after someone exited their car- then this is your place! We watched two people fighting early one morning in the lobby during breakfast about all the meth she's doing and then we had to call security because another couple were fighting in the parking lot. One night when myself and our two daughters were in the jacuzzi, three men joined us bragging about their drinks and then another man got in smoking in the jacuzzi. We had to leave. We felt soooo uncomfortable. The morning my daughter checked out, she went up front to get our deposit and apparently my daughter left the door cracked open and housekeeping called to say there was a man in our room! Creepy, sketchy, just NO. Avoid it. The breakfast wasn't that good anyway and the rooms are very small. Will never stay there again. Don't waste your money! I did not feel safe there at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you enjoy people arguing about meth and the pounds of drugs they have or if you enjoy throw up in the parking lot after someone exited their car- then this is your place! We watched two people fighting early one morning in the lobby during breakfast about all the meth she's doing and then we had to call security because another couple were fighting in the parking lot. One night when myself and our two daughters were in the jacuzzi, three men joined us bragging about their drinks and then another man got in smoking in the jacuzzi. We had to leave. We felt soooo uncomfortable. The morning my daughter checked out, she went up front to get our deposit and apparently my daughter left the door cracked open and housekeeping called to say there was a man in our room! Creepy, sketchy, just NO. Avoid it. The breakfast wasn't that good anyway and the rooms are very small. Will never stay there again. Don't waste your money! I did not feel safe there at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r246339951-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>246339951</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Very Good Choice for the Price Level</t>
+  </si>
+  <si>
+    <t>We were very pleased with out stay here.  The room was clean, the beds were comfortable, and the management was quick to respond to every request.  We were pleased with the complimentary breakfast including scrambled eggs, sausage patties, waffle makers, assorted doughnuts and pastries, assorted breads, bagels, and English muffins, yogurt, hard-boiled eggs, assorted cereals with milk, oatmeal, orange and apple juice, fresh fruit, etc.  While inside seating was limited to two small tables, there were a half-dozen tables outside.  The pool and hot tub were well-maintained and pleasant.  There was even a gas grill available.  We book via Priceline.  It was good that I then called the hotel directly to confirm that we needed beds for two adults and two children.  Priceline only guarantees a bed for two adults.  Even though they were heavily booked, the attendant on the telephone was able to get us a king bed with a fold out couch.  We were quite comfortable with ample bedding, a mini fridge and microwave, and extra towels delivered within minutes, upon request.  Check out time set a noon allowed us a leisurely morning after a long day at Disneyland.  As for access to Disneyland, this was perfect!  The hotel is within two minutes of the freeway, and it was an easy 15 minute drive to Disneyland.  Yes, the hotel could be updated.  Yes, the epoxy paint on fiberglass shower was peeling.  But, it was clean, comfortable, convenient, and...We were very pleased with out stay here.  The room was clean, the beds were comfortable, and the management was quick to respond to every request.  We were pleased with the complimentary breakfast including scrambled eggs, sausage patties, waffle makers, assorted doughnuts and pastries, assorted breads, bagels, and English muffins, yogurt, hard-boiled eggs, assorted cereals with milk, oatmeal, orange and apple juice, fresh fruit, etc.  While inside seating was limited to two small tables, there were a half-dozen tables outside.  The pool and hot tub were well-maintained and pleasant.  There was even a gas grill available.  We book via Priceline.  It was good that I then called the hotel directly to confirm that we needed beds for two adults and two children.  Priceline only guarantees a bed for two adults.  Even though they were heavily booked, the attendant on the telephone was able to get us a king bed with a fold out couch.  We were quite comfortable with ample bedding, a mini fridge and microwave, and extra towels delivered within minutes, upon request.  Check out time set a noon allowed us a leisurely morning after a long day at Disneyland.  As for access to Disneyland, this was perfect!  The hotel is within two minutes of the freeway, and it was an easy 15 minute drive to Disneyland.  Yes, the hotel could be updated.  Yes, the epoxy paint on fiberglass shower was peeling.  But, it was clean, comfortable, convenient, and friendly.  For the price . . . we'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>CA800, Manager at Clarion Inn &amp; Suites Orange County John Wayne Airport, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>We were very pleased with out stay here.  The room was clean, the beds were comfortable, and the management was quick to respond to every request.  We were pleased with the complimentary breakfast including scrambled eggs, sausage patties, waffle makers, assorted doughnuts and pastries, assorted breads, bagels, and English muffins, yogurt, hard-boiled eggs, assorted cereals with milk, oatmeal, orange and apple juice, fresh fruit, etc.  While inside seating was limited to two small tables, there were a half-dozen tables outside.  The pool and hot tub were well-maintained and pleasant.  There was even a gas grill available.  We book via Priceline.  It was good that I then called the hotel directly to confirm that we needed beds for two adults and two children.  Priceline only guarantees a bed for two adults.  Even though they were heavily booked, the attendant on the telephone was able to get us a king bed with a fold out couch.  We were quite comfortable with ample bedding, a mini fridge and microwave, and extra towels delivered within minutes, upon request.  Check out time set a noon allowed us a leisurely morning after a long day at Disneyland.  As for access to Disneyland, this was perfect!  The hotel is within two minutes of the freeway, and it was an easy 15 minute drive to Disneyland.  Yes, the hotel could be updated.  Yes, the epoxy paint on fiberglass shower was peeling.  But, it was clean, comfortable, convenient, and...We were very pleased with out stay here.  The room was clean, the beds were comfortable, and the management was quick to respond to every request.  We were pleased with the complimentary breakfast including scrambled eggs, sausage patties, waffle makers, assorted doughnuts and pastries, assorted breads, bagels, and English muffins, yogurt, hard-boiled eggs, assorted cereals with milk, oatmeal, orange and apple juice, fresh fruit, etc.  While inside seating was limited to two small tables, there were a half-dozen tables outside.  The pool and hot tub were well-maintained and pleasant.  There was even a gas grill available.  We book via Priceline.  It was good that I then called the hotel directly to confirm that we needed beds for two adults and two children.  Priceline only guarantees a bed for two adults.  Even though they were heavily booked, the attendant on the telephone was able to get us a king bed with a fold out couch.  We were quite comfortable with ample bedding, a mini fridge and microwave, and extra towels delivered within minutes, upon request.  Check out time set a noon allowed us a leisurely morning after a long day at Disneyland.  As for access to Disneyland, this was perfect!  The hotel is within two minutes of the freeway, and it was an easy 15 minute drive to Disneyland.  Yes, the hotel could be updated.  Yes, the epoxy paint on fiberglass shower was peeling.  But, it was clean, comfortable, convenient, and friendly.  For the price . . . we'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r245037340-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>245037340</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Reasonably priced and great location</t>
+  </si>
+  <si>
+    <t>It was a last minute stay and we were happy about the price and spaciousness of the hotel.  It is outdated but clean.  The coffee was good and so was the hot breakfast. It was in a quiet area so sleeping was good despite being near an airport. Also had a microwave and refrigerator.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a last minute stay and we were happy about the price and spaciousness of the hotel.  It is outdated but clean.  The coffee was good and so was the hot breakfast. It was in a quiet area so sleeping was good despite being near an airport. Also had a microwave and refrigerator.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2993,6244 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>214</v>
+      </c>
+      <c r="X21" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>222</v>
+      </c>
+      <c r="X22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>231</v>
+      </c>
+      <c r="X23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>239</v>
+      </c>
+      <c r="X24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>247</v>
+      </c>
+      <c r="O25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>257</v>
+      </c>
+      <c r="X26" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L27" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>257</v>
+      </c>
+      <c r="X27" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>266</v>
+      </c>
+      <c r="J28" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" t="s">
+        <v>269</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>257</v>
+      </c>
+      <c r="X28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>276</v>
+      </c>
+      <c r="X30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>289</v>
+      </c>
+      <c r="X31" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>293</v>
+      </c>
+      <c r="J32" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" t="s">
+        <v>174</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>297</v>
+      </c>
+      <c r="X32" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>301</v>
+      </c>
+      <c r="J33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X33" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s">
+        <v>312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>321</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>322</v>
+      </c>
+      <c r="X35" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>321</v>
+      </c>
+      <c r="O36" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>330</v>
+      </c>
+      <c r="X36" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>334</v>
+      </c>
+      <c r="J37" t="s">
+        <v>335</v>
+      </c>
+      <c r="K37" t="s">
+        <v>336</v>
+      </c>
+      <c r="L37" t="s">
+        <v>337</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>338</v>
+      </c>
+      <c r="X37" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>345</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>321</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>346</v>
+      </c>
+      <c r="X38" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>350</v>
+      </c>
+      <c r="J39" t="s">
+        <v>351</v>
+      </c>
+      <c r="K39" t="s">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s">
+        <v>353</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>354</v>
+      </c>
+      <c r="X39" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>358</v>
+      </c>
+      <c r="J40" t="s">
+        <v>359</v>
+      </c>
+      <c r="K40" t="s">
+        <v>360</v>
+      </c>
+      <c r="L40" t="s">
+        <v>361</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>362</v>
+      </c>
+      <c r="O40" t="s">
+        <v>174</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>363</v>
+      </c>
+      <c r="X40" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>366</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>367</v>
+      </c>
+      <c r="J41" t="s">
+        <v>368</v>
+      </c>
+      <c r="K41" t="s">
+        <v>369</v>
+      </c>
+      <c r="L41" t="s">
+        <v>370</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>362</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>371</v>
+      </c>
+      <c r="X41" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>375</v>
+      </c>
+      <c r="J42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K42" t="s">
+        <v>377</v>
+      </c>
+      <c r="L42" t="s">
+        <v>378</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>379</v>
+      </c>
+      <c r="X42" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43" t="s">
+        <v>384</v>
+      </c>
+      <c r="L43" t="s">
+        <v>385</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>386</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>379</v>
+      </c>
+      <c r="X43" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
+        <v>390</v>
+      </c>
+      <c r="K44" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" t="s">
+        <v>391</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>386</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>392</v>
+      </c>
+      <c r="X44" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>395</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>396</v>
+      </c>
+      <c r="J45" t="s">
+        <v>397</v>
+      </c>
+      <c r="K45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L45" t="s">
+        <v>399</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>400</v>
+      </c>
+      <c r="O45" t="s">
+        <v>174</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>401</v>
+      </c>
+      <c r="X45" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>404</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>405</v>
+      </c>
+      <c r="J46" t="s">
+        <v>406</v>
+      </c>
+      <c r="K46" t="s">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s">
+        <v>408</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>400</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>409</v>
+      </c>
+      <c r="X46" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>413</v>
+      </c>
+      <c r="J47" t="s">
+        <v>414</v>
+      </c>
+      <c r="K47" t="s">
+        <v>415</v>
+      </c>
+      <c r="L47" t="s">
+        <v>416</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>417</v>
+      </c>
+      <c r="X47" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>420</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>421</v>
+      </c>
+      <c r="J48" t="s">
+        <v>422</v>
+      </c>
+      <c r="K48" t="s">
+        <v>423</v>
+      </c>
+      <c r="L48" t="s">
+        <v>424</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>425</v>
+      </c>
+      <c r="X48" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>428</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>429</v>
+      </c>
+      <c r="J49" t="s">
+        <v>430</v>
+      </c>
+      <c r="K49" t="s">
+        <v>431</v>
+      </c>
+      <c r="L49" t="s">
+        <v>432</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>400</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>425</v>
+      </c>
+      <c r="X49" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>434</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>435</v>
+      </c>
+      <c r="J50" t="s">
+        <v>436</v>
+      </c>
+      <c r="K50" t="s">
+        <v>437</v>
+      </c>
+      <c r="L50" t="s">
+        <v>438</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>439</v>
+      </c>
+      <c r="O50" t="s">
+        <v>174</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>440</v>
+      </c>
+      <c r="X50" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>444</v>
+      </c>
+      <c r="J51" t="s">
+        <v>445</v>
+      </c>
+      <c r="K51" t="s">
+        <v>446</v>
+      </c>
+      <c r="L51" t="s">
+        <v>447</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>448</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>449</v>
+      </c>
+      <c r="X51" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>452</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>453</v>
+      </c>
+      <c r="J52" t="s">
+        <v>454</v>
+      </c>
+      <c r="K52" t="s">
+        <v>455</v>
+      </c>
+      <c r="L52" t="s">
+        <v>456</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>448</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>457</v>
+      </c>
+      <c r="X52" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>460</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>461</v>
+      </c>
+      <c r="J53" t="s">
+        <v>462</v>
+      </c>
+      <c r="K53" t="s">
+        <v>463</v>
+      </c>
+      <c r="L53" t="s">
+        <v>464</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>465</v>
+      </c>
+      <c r="X53" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>468</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>469</v>
+      </c>
+      <c r="J54" t="s">
+        <v>470</v>
+      </c>
+      <c r="K54" t="s">
+        <v>471</v>
+      </c>
+      <c r="L54" t="s">
+        <v>472</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>473</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>474</v>
+      </c>
+      <c r="X54" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>477</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>478</v>
+      </c>
+      <c r="J55" t="s">
+        <v>479</v>
+      </c>
+      <c r="K55" t="s">
+        <v>480</v>
+      </c>
+      <c r="L55" t="s">
+        <v>481</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>473</v>
+      </c>
+      <c r="O55" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>482</v>
+      </c>
+      <c r="X55" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>485</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>486</v>
+      </c>
+      <c r="J56" t="s">
+        <v>487</v>
+      </c>
+      <c r="K56" t="s">
+        <v>488</v>
+      </c>
+      <c r="L56" t="s">
+        <v>489</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>473</v>
+      </c>
+      <c r="O56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>490</v>
+      </c>
+      <c r="X56" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>493</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>494</v>
+      </c>
+      <c r="J57" t="s">
+        <v>495</v>
+      </c>
+      <c r="K57" t="s">
+        <v>496</v>
+      </c>
+      <c r="L57" t="s">
+        <v>497</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>498</v>
+      </c>
+      <c r="O57" t="s">
+        <v>174</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>490</v>
+      </c>
+      <c r="X57" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>500</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>501</v>
+      </c>
+      <c r="J58" t="s">
+        <v>502</v>
+      </c>
+      <c r="K58" t="s">
+        <v>503</v>
+      </c>
+      <c r="L58" t="s">
+        <v>504</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>473</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>505</v>
+      </c>
+      <c r="X58" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>508</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>509</v>
+      </c>
+      <c r="J59" t="s">
+        <v>510</v>
+      </c>
+      <c r="K59" t="s">
+        <v>511</v>
+      </c>
+      <c r="L59" t="s">
+        <v>512</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>498</v>
+      </c>
+      <c r="O59" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>513</v>
+      </c>
+      <c r="X59" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>516</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>517</v>
+      </c>
+      <c r="J60" t="s">
+        <v>518</v>
+      </c>
+      <c r="K60" t="s">
+        <v>519</v>
+      </c>
+      <c r="L60" t="s">
+        <v>520</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>498</v>
+      </c>
+      <c r="O60" t="s">
+        <v>69</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>521</v>
+      </c>
+      <c r="X60" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>524</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>525</v>
+      </c>
+      <c r="J61" t="s">
+        <v>526</v>
+      </c>
+      <c r="K61" t="s">
+        <v>527</v>
+      </c>
+      <c r="L61" t="s">
+        <v>528</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>498</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>530</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>531</v>
+      </c>
+      <c r="J62" t="s">
+        <v>532</v>
+      </c>
+      <c r="K62" t="s">
+        <v>533</v>
+      </c>
+      <c r="L62" t="s">
+        <v>534</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>535</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>537</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>538</v>
+      </c>
+      <c r="J63" t="s">
+        <v>539</v>
+      </c>
+      <c r="K63" t="s">
+        <v>540</v>
+      </c>
+      <c r="L63" t="s">
+        <v>541</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>535</v>
+      </c>
+      <c r="O63" t="s">
+        <v>69</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>542</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>543</v>
+      </c>
+      <c r="J64" t="s">
+        <v>544</v>
+      </c>
+      <c r="K64" t="s">
+        <v>545</v>
+      </c>
+      <c r="L64" t="s">
+        <v>546</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>535</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>548</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>549</v>
+      </c>
+      <c r="J65" t="s">
+        <v>550</v>
+      </c>
+      <c r="K65" t="s">
+        <v>551</v>
+      </c>
+      <c r="L65" t="s">
+        <v>552</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>535</v>
+      </c>
+      <c r="O65" t="s">
+        <v>69</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>553</v>
+      </c>
+      <c r="X65" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>556</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>557</v>
+      </c>
+      <c r="J66" t="s">
+        <v>558</v>
+      </c>
+      <c r="K66" t="s">
+        <v>559</v>
+      </c>
+      <c r="L66" t="s">
+        <v>560</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>561</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>562</v>
+      </c>
+      <c r="X66" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>565</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>566</v>
+      </c>
+      <c r="J67" t="s">
+        <v>567</v>
+      </c>
+      <c r="K67" t="s">
+        <v>568</v>
+      </c>
+      <c r="L67" t="s">
+        <v>569</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>570</v>
+      </c>
+      <c r="O67" t="s">
+        <v>62</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>571</v>
+      </c>
+      <c r="X67" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>574</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>575</v>
+      </c>
+      <c r="J68" t="s">
+        <v>576</v>
+      </c>
+      <c r="K68" t="s">
+        <v>577</v>
+      </c>
+      <c r="L68" t="s">
+        <v>578</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>561</v>
+      </c>
+      <c r="O68" t="s">
+        <v>174</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>580</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>581</v>
+      </c>
+      <c r="J69" t="s">
+        <v>582</v>
+      </c>
+      <c r="K69" t="s">
+        <v>583</v>
+      </c>
+      <c r="L69" t="s">
+        <v>584</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>585</v>
+      </c>
+      <c r="O69" t="s">
+        <v>69</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>586</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>587</v>
+      </c>
+      <c r="J70" t="s">
+        <v>588</v>
+      </c>
+      <c r="K70" t="s">
+        <v>589</v>
+      </c>
+      <c r="L70" t="s">
+        <v>590</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>585</v>
+      </c>
+      <c r="O70" t="s">
+        <v>121</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>591</v>
+      </c>
+      <c r="X70" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>594</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>595</v>
+      </c>
+      <c r="J71" t="s">
+        <v>596</v>
+      </c>
+      <c r="K71" t="s">
+        <v>597</v>
+      </c>
+      <c r="L71" t="s">
+        <v>598</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>585</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>599</v>
+      </c>
+      <c r="X71" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>602</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>603</v>
+      </c>
+      <c r="J72" t="s">
+        <v>604</v>
+      </c>
+      <c r="K72" t="s">
+        <v>605</v>
+      </c>
+      <c r="L72" t="s">
+        <v>606</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>585</v>
+      </c>
+      <c r="O72" t="s">
+        <v>121</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>607</v>
+      </c>
+      <c r="X72" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>610</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>611</v>
+      </c>
+      <c r="J73" t="s">
+        <v>612</v>
+      </c>
+      <c r="K73" t="s">
+        <v>613</v>
+      </c>
+      <c r="L73" t="s">
+        <v>614</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>615</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>616</v>
+      </c>
+      <c r="X73" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>619</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>620</v>
+      </c>
+      <c r="J74" t="s">
+        <v>621</v>
+      </c>
+      <c r="K74" t="s">
+        <v>622</v>
+      </c>
+      <c r="L74" t="s">
+        <v>623</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>624</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>625</v>
+      </c>
+      <c r="X74" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>628</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>629</v>
+      </c>
+      <c r="J75" t="s">
+        <v>630</v>
+      </c>
+      <c r="K75" t="s">
+        <v>631</v>
+      </c>
+      <c r="L75" t="s">
+        <v>632</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>624</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>625</v>
+      </c>
+      <c r="X75" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>634</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>635</v>
+      </c>
+      <c r="J76" t="s">
+        <v>636</v>
+      </c>
+      <c r="K76" t="s">
+        <v>637</v>
+      </c>
+      <c r="L76" t="s">
+        <v>638</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>639</v>
+      </c>
+      <c r="O76" t="s">
+        <v>174</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>625</v>
+      </c>
+      <c r="X76" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>641</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>642</v>
+      </c>
+      <c r="J77" t="s">
+        <v>643</v>
+      </c>
+      <c r="K77" t="s">
+        <v>644</v>
+      </c>
+      <c r="L77" t="s">
+        <v>645</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>646</v>
+      </c>
+      <c r="O77" t="s">
+        <v>174</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>625</v>
+      </c>
+      <c r="X77" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>648</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>649</v>
+      </c>
+      <c r="J78" t="s">
+        <v>650</v>
+      </c>
+      <c r="K78" t="s">
+        <v>651</v>
+      </c>
+      <c r="L78" t="s">
+        <v>652</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>646</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>625</v>
+      </c>
+      <c r="X78" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>654</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>655</v>
+      </c>
+      <c r="J79" t="s">
+        <v>656</v>
+      </c>
+      <c r="K79" t="s">
+        <v>657</v>
+      </c>
+      <c r="L79" t="s">
+        <v>658</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>646</v>
+      </c>
+      <c r="O79" t="s">
+        <v>69</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>659</v>
+      </c>
+      <c r="X79" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>662</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>663</v>
+      </c>
+      <c r="J80" t="s">
+        <v>664</v>
+      </c>
+      <c r="K80" t="s">
+        <v>665</v>
+      </c>
+      <c r="L80" t="s">
+        <v>666</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>667</v>
+      </c>
+      <c r="X80" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>670</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>671</v>
+      </c>
+      <c r="J81" t="s">
+        <v>672</v>
+      </c>
+      <c r="K81" t="s">
+        <v>673</v>
+      </c>
+      <c r="L81" t="s">
+        <v>674</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>675</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>677</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>678</v>
+      </c>
+      <c r="J82" t="s">
+        <v>679</v>
+      </c>
+      <c r="K82" t="s">
+        <v>680</v>
+      </c>
+      <c r="L82" t="s">
+        <v>681</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>682</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>683</v>
+      </c>
+      <c r="X82" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>686</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>687</v>
+      </c>
+      <c r="J83" t="s">
+        <v>688</v>
+      </c>
+      <c r="K83" t="s">
+        <v>689</v>
+      </c>
+      <c r="L83" t="s">
+        <v>690</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>691</v>
+      </c>
+      <c r="O83" t="s">
+        <v>69</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>692</v>
+      </c>
+      <c r="X83" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>695</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>696</v>
+      </c>
+      <c r="J84" t="s">
+        <v>697</v>
+      </c>
+      <c r="K84" t="s">
+        <v>698</v>
+      </c>
+      <c r="L84" t="s">
+        <v>699</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>691</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>700</v>
+      </c>
+      <c r="X84" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>703</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>704</v>
+      </c>
+      <c r="J85" t="s">
+        <v>705</v>
+      </c>
+      <c r="K85" t="s">
+        <v>706</v>
+      </c>
+      <c r="L85" t="s">
+        <v>707</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>691</v>
+      </c>
+      <c r="O85" t="s">
+        <v>62</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>708</v>
+      </c>
+      <c r="X85" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>711</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>712</v>
+      </c>
+      <c r="J86" t="s">
+        <v>713</v>
+      </c>
+      <c r="K86" t="s">
+        <v>714</v>
+      </c>
+      <c r="L86" t="s">
+        <v>715</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>716</v>
+      </c>
+      <c r="O86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>717</v>
+      </c>
+      <c r="X86" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>720</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>721</v>
+      </c>
+      <c r="J87" t="s">
+        <v>722</v>
+      </c>
+      <c r="K87" t="s">
+        <v>723</v>
+      </c>
+      <c r="L87" t="s">
+        <v>724</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>570</v>
+      </c>
+      <c r="O87" t="s">
+        <v>174</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>725</v>
+      </c>
+      <c r="X87" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>728</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>729</v>
+      </c>
+      <c r="J88" t="s">
+        <v>730</v>
+      </c>
+      <c r="K88" t="s">
+        <v>731</v>
+      </c>
+      <c r="L88" t="s">
+        <v>732</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>570</v>
+      </c>
+      <c r="O88" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>733</v>
+      </c>
+      <c r="X88" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>736</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>737</v>
+      </c>
+      <c r="J89" t="s">
+        <v>738</v>
+      </c>
+      <c r="K89" t="s">
+        <v>739</v>
+      </c>
+      <c r="L89" t="s">
+        <v>740</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>570</v>
+      </c>
+      <c r="O89" t="s">
+        <v>62</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>700</v>
+      </c>
+      <c r="X89" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>742</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>743</v>
+      </c>
+      <c r="J90" t="s">
+        <v>744</v>
+      </c>
+      <c r="K90" t="s">
+        <v>745</v>
+      </c>
+      <c r="L90" t="s">
+        <v>746</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>747</v>
+      </c>
+      <c r="O90" t="s">
+        <v>69</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>748</v>
+      </c>
+      <c r="X90" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>751</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>752</v>
+      </c>
+      <c r="J91" t="s">
+        <v>753</v>
+      </c>
+      <c r="K91" t="s">
+        <v>754</v>
+      </c>
+      <c r="L91" t="s">
+        <v>755</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>747</v>
+      </c>
+      <c r="O91" t="s">
+        <v>62</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>748</v>
+      </c>
+      <c r="X91" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>757</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>758</v>
+      </c>
+      <c r="J92" t="s">
+        <v>759</v>
+      </c>
+      <c r="K92" t="s">
+        <v>760</v>
+      </c>
+      <c r="L92" t="s">
+        <v>761</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>762</v>
+      </c>
+      <c r="O92" t="s">
+        <v>62</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>700</v>
+      </c>
+      <c r="X92" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>764</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>765</v>
+      </c>
+      <c r="J93" t="s">
+        <v>766</v>
+      </c>
+      <c r="K93" t="s">
+        <v>767</v>
+      </c>
+      <c r="L93" t="s">
+        <v>768</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>762</v>
+      </c>
+      <c r="O93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>700</v>
+      </c>
+      <c r="X93" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>770</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>771</v>
+      </c>
+      <c r="J94" t="s">
+        <v>772</v>
+      </c>
+      <c r="K94" t="s">
+        <v>773</v>
+      </c>
+      <c r="L94" t="s">
+        <v>774</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>775</v>
+      </c>
+      <c r="O94" t="s">
+        <v>62</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>700</v>
+      </c>
+      <c r="X94" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>777</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>778</v>
+      </c>
+      <c r="J95" t="s">
+        <v>779</v>
+      </c>
+      <c r="K95" t="s">
+        <v>780</v>
+      </c>
+      <c r="L95" t="s">
+        <v>781</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>782</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>783</v>
+      </c>
+      <c r="X95" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>786</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>787</v>
+      </c>
+      <c r="J96" t="s">
+        <v>788</v>
+      </c>
+      <c r="K96" t="s">
+        <v>789</v>
+      </c>
+      <c r="L96" t="s">
+        <v>790</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>791</v>
+      </c>
+      <c r="X96" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>794</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>795</v>
+      </c>
+      <c r="J97" t="s">
+        <v>796</v>
+      </c>
+      <c r="K97" t="s">
+        <v>797</v>
+      </c>
+      <c r="L97" t="s">
+        <v>798</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>791</v>
+      </c>
+      <c r="X97" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>800</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>801</v>
+      </c>
+      <c r="J98" t="s">
+        <v>802</v>
+      </c>
+      <c r="K98" t="s">
+        <v>803</v>
+      </c>
+      <c r="L98" t="s">
+        <v>804</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>805</v>
+      </c>
+      <c r="O98" t="s">
+        <v>62</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>806</v>
+      </c>
+      <c r="X98" t="s">
+        <v>807</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>20397</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>809</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>810</v>
+      </c>
+      <c r="J99" t="s">
+        <v>811</v>
+      </c>
+      <c r="K99" t="s">
+        <v>812</v>
+      </c>
+      <c r="L99" t="s">
+        <v>813</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>805</v>
+      </c>
+      <c r="O99" t="s">
+        <v>62</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>806</v>
+      </c>
+      <c r="X99" t="s">
+        <v>807</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>814</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_110.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="912">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>sabrinve</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The employees here were super amazing! They were quick to take care of me when I asked for towels and toiletries. I stayed for two nights and when I asked my room to be serviced, the house keepers were super sweet too! I will definitely come back and recommend.More</t>
   </si>
   <si>
+    <t>JMJ R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r588452187-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>I stayed in the king suite on the third floor with my wife and kids. The boys were able to sleep in the sofabed. The staff was very helpful, and the breakfast service was the best I've had at a hotel, with made to order breakfast sandwiches that were delicious. The fire pit in the courtyard is really cool too. The only reason I didn't do five stars was that the room was a little smoky, but upon alerting the desk they brought some strong air purifying spray that worked well enough(we didn't ask to be moved, as it was the only room of its kind available). I would stay at this hotel again.More</t>
   </si>
   <si>
+    <t>Jason E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r587438477-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Always feel welcome when I come in and most of the time get the room I want, Jessica welcomes​ me with a smile and happy greeting! Been staying here for years and I'm​ sure plenty more ahead!Thanks againJasonMore</t>
   </si>
   <si>
+    <t>Victorjw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r571383544-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>I stayed at this hotel a few years ago (when it was a Comfort Inn) and noticed a big improvement this time. The rooms were very modern and clean. The lobby area was very nice, with a little cafe serving drinks and sandwiches etc. The pool area also looked quite nice. It's evident they have invested a lot into the property, and I'd stay here again for sure.More</t>
   </si>
   <si>
+    <t>GSB07042016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r568978988-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>Super friendly staff (front desk, drivers) with a tendency to overpromise and underdeliver. Breakfast and space to eat it is limited. I am gluten sensitive and was promised by the front desk that they would provide gluten-free bread for me in the morning. The guy making breakfast sandwiches had no idea what I was talking about the next morning. When I followed up later in the day with the front desk folks, there was an apology that they weren't able to get to it. On the plus side, the hotel does offer shuttle service to / from the airport and shopping center. They reimbursed me for an Uber ride from the airport when they were unable to pick me up.More</t>
   </si>
   <si>
+    <t>branddbxwd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r565291561-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>I was just here a few days ago! When we arrived and checked in “Marilyn” was there with a huge smile! she was very friendly although me and my mom were giving her a hard time and being rude she knew how to keep calm! At the end she was apologizing and me and my mom were just telling her no need to apologize! We apologized to her because we had a long drive and we were tired! But Marilyn was super friendly and nice unlike the other staff she was helping us out in any way that she can! Honestly we will definitely go back! Great experience although it was for one night onlyMore</t>
   </si>
   <si>
+    <t>Dtcat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r557440950-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>A nice Hotel that provide  quick pickup from hotel after calling for a pickup and schedule ride back to airport at the end of stay .Friendly and helpful staff .  The is located a number eating establishments and close to shopping and a movie theatre . More</t>
   </si>
   <si>
+    <t>Jamie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r555312458-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>Stayed here one night before flight out orange County. Price was reasonable. Hotel is dated, but kept clean. Hot tub had a lot of debris in bottom. Basic hotel for basic price. Would stay again for a night, but not much longer. More</t>
   </si>
   <si>
+    <t>bishopric</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r552323523-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -393,6 +420,9 @@
     <t>Pros:1) right off the CA-552) free breakfast sandwiches made to order3) free parking4) free wifi5) very nice staff.6) rooms are pretty nicely remodeled.Cons:1) try to get a room away from the stairs because people's footsteps are really loud.2) There is only car entrance to the property and it is extremely steep.More</t>
   </si>
   <si>
+    <t>Kimberly S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r539199889-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -420,6 +450,9 @@
     <t>The staff was great specially the front desk person by the name of Adeline. She made it great fun. The room was clean and very nice inside.clarion inn &amp; suites . I enjoyed the INN and it was great fun to stay.More</t>
   </si>
   <si>
+    <t>runner1726</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r536746520-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -447,6 +480,9 @@
     <t>I booked Room on phone to the property as my reservation would not go thru Choice iPhone app. Person at property took the reservation without much ado as I mentioned my cell phone. All information was there and she booked the room on few seconds. Upon arrival being Diamond member they upgraded my room !Room was well finished and in great shape. See photos. Also had in pool area had fireplace-type flames!! Amazing warm feeling on October 28 th. Breakfast open until 11am , another unheard feature.Only thing needs upgrade is hdtv which is on fixed wall mount which could be an adjustable wall mount fixture so that guest could move it as desired facing lounge chair..More</t>
   </si>
   <si>
+    <t>garrettair</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r535266433-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -471,6 +507,9 @@
     <t>The room was too loud. I could hear sounds from other rooms and doors opening and closing. The air conditioner and bathroom fan were very loud and slightly off so they were vibrating. The plumbing was also very loud and woke me up when the guests upstairs used it. I left early and have been trying to get a refund for the unused days, but the management has been very difficult and doesn't really seem to care at all about their guests.More</t>
   </si>
   <si>
+    <t>BobbbyE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r523444331-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>Priceline customers get slapped in the face at this hotel. PL customers do not get a "coupon" for hot breakfast.  They have to pay $7 for a breakfast sandwich.BAD:  Our free breakfast consist of coffee, a small muffin and fruits. (See photos.) Our view consists of the parking lot.  When the motorcycles rolled in last night, we heard every loud revving of their engine. GOOD:  The room was clean and well appointed.More</t>
   </si>
   <si>
+    <t>howell553</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r522875852-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>Hotel staff, especially Sabrina at front desk, professional and courteous. Rooms were kept in fine order, outside pool area serene and relaxing. Crew required a 4 week stay, all reservations were complete and rooms ready open arrival.More</t>
   </si>
   <si>
+    <t>travelerRH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r520491828-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -546,6 +591,9 @@
     <t>My husband and I stayed here the night before flying home to the East Coast.  We dropped our rental car at the airport and called for shuttle service to the hotel and a driver was there very quickly.  The hotel was comfortable, clean, and quiet. We were given a voucher for breakfast the next morning which included a breakfast sandwich (egg, sausage, cheese) or bagel and cream cheese plus a muffin and drink. No breakfast buffet, which I would have preferred, but this was ok. Shuttle to airport was on prompt and staff was friendly.More</t>
   </si>
   <si>
+    <t>itamar r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r517440691-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
     <t>Stayed there for 6 nights in june 2016 very fare price. Good value for money. Very modest hotelStaff is friendly and helpfull.Theres a nice pool and a hot tab.Theres a samall varaiety of food in the hotel diner .More</t>
   </si>
   <si>
+    <t>Christine K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r514896420-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>We needed a place for our family of 4 to stay between an evening at Disneyland and an early morning flight out of John Wayne.  We checked in around 10:30pm, the staff was great -super friendly and accommodating of our desire of an adult beverage after a long, fun day at Disneyland!  There was even a bonfire going on that we would have enjoyed had we not been so tired.The room was clean, the fridge was cold, and the bathroom was very large. We utilized the 5:30am shuttle, which was on time and got us to the airport in about 7 minutes.   All in all, this fit the bill and would stay here again!More</t>
   </si>
   <si>
+    <t>reddwoman1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r509759622-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -621,6 +675,9 @@
     <t>Hotel was great, hosted a family reunion many rooms, staff was accommodating to all of the needs of family, fire pit and pool was a hit. Breakfast bagel, juice, coffee was good start to the day, Laundry room on premise was a plus since my stay was 9 days.More</t>
   </si>
   <si>
+    <t>Eric H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r506322713-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -645,6 +702,9 @@
     <t>This hotel is very up to date and serves is great Sandra is one of the front desk lady's and was very helpful on getting me a ride to airport booked and booking a room again. The rooms are very clean and the food at hotel is good also definitely recommend this hotel to people staying in the areaMore</t>
   </si>
   <si>
+    <t>coyler138</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r505354977-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -669,6 +729,9 @@
     <t>I stayed in this hotel for 4 days and 5 nights and it was a pleasant, comfortable and quiet experience. The staff are very friendly, mixing the right amount of professionalism with natural good humour. Rooms are sizeable, comfortable and clean. My only slight quibble would be the sound of the (necessary) air conditioning which was akin to a WW2 bomber in terms of noise. Food and service was overall excellent. I would recommend it as a decent option for a work stay.More</t>
   </si>
   <si>
+    <t>Lorraine M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r503605660-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -693,6 +756,9 @@
     <t>First time to stay here.  Advertisement notes restaurant on site - not actually a restaurant, and was scheduled to close soon.  Front desk staff helpful to get me checked in in time to get food order in and the food service staff were kind enough to deliver to my room so I could get my things up to the to the room and get settled.  Flatbread was enough for an army.  Room decor needs some updating and was disturbed by neighbors very loud shower water noise at midnightMore</t>
   </si>
   <si>
+    <t>blindsay58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r492853326-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -720,6 +786,9 @@
     <t>Ranae always makes me and anyone I'm with feel so welcomed. Always smiling always pleasant. Always a quick check in, always a good time.                           It's dope that they have a fridge inside the room. Good people good time nahmsayin More</t>
   </si>
   <si>
+    <t>Aleessiah23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r492625685-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -744,6 +813,9 @@
     <t>I've stayed at many hotels/suites before due to work &amp; vacations. Clarion Inn &amp; suites is my place to go when in the area. I love the atmosphere this workplace offers. Everyone is so helpful and nice, Sandra at the front desk is awesome. I appreciate her assistance, not everyone has the power to change a bad day to a good day but she definitely has! Love love love! &amp; the food is amazing !! More</t>
   </si>
   <si>
+    <t>53escott</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r489220737-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -771,6 +843,9 @@
     <t>I stay here all of the time.  The rooms are clean and well taken care of.The front desk staff is always attentive and Sandra always goes the extra mile to make sure everything is taken care of.Thank you Clarion Suites.More</t>
   </si>
   <si>
+    <t>Alma H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r487779069-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -798,6 +873,9 @@
     <t>Loved this hotel, we were only in town for 1 night but it was perfect! Close to the OC Observatory, room was very clean and the beds were AMAZING, no complaints. Breakfast provided which was also very good. Will definitely be back.More</t>
   </si>
   <si>
+    <t>govline1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r487714132-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -813,6 +891,9 @@
     <t>Very clean, the staff was friendly.  Good location and the rooms were very spacious.  Jessica and Sandra were very helpful in our needs.  the hot tub and pool was very clean. There was more than enough parking.  Would stay there again.More</t>
   </si>
   <si>
+    <t>Eric J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r487556146-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -831,6 +912,9 @@
     <t>I travel to Orange County for work almost once a month. Sandra at the front desk greats me with a smile and is always helpful and welcoming. It makes it an easy decision for me to stay here every time I am in town.More</t>
   </si>
   <si>
+    <t>Jonathan E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r485144174-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -855,6 +939,9 @@
     <t>Sandra makes this the best hotel ever. Platinum member because if her!! Recommend this hotel above all in this area. New management has really picked up the place as well. Safer parking, good breakfast, and best of all - always clean rooms!More</t>
   </si>
   <si>
+    <t>Marz J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r485023370-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -870,6 +957,9 @@
     <t>Fast and really easy check in. Decent size room very clean. Clean bathroom as well. Nice pool area. Good wifi and phone service. Local and close to everything but you need a car to get around. Friendly helpful staff. Good bedding super comfortable with clean sheets. Great shower pressure and towel quality,  also very clean. Good house keeping. Plenty of lighting in room. Quiet environment. More</t>
   </si>
   <si>
+    <t>Rich H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r483934893-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -894,6 +984,9 @@
     <t>Sandra at the front desk is wonderful. She is courteous and always greet you with a smile.  Great location close to businesses in OC. Room is great with convenient amenities.  They have hotel shuttle too. Recommended fit business traveler. More</t>
   </si>
   <si>
+    <t>Cheryl D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r476988095-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -918,6 +1011,9 @@
     <t>From check-in to check-out, we found the staff extremely friendly.  Renaa in reception was very feiendly and helpful.  She allowed us to stay until 2pm because our flight wasn't scheduled to leave out of John Wayne Airport until 4:30pm.  Ginger was running the mini-cafe, and she was so nice and friendly. The hotel was very quiet, and our room was very clean and comfortable.More</t>
   </si>
   <si>
+    <t>majbs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r476121070-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -942,6 +1038,9 @@
     <t>Service is non existent. Yesterday told maids 3 times to make the room yet no service when we returned. Mattress is worn out extremely uncomfortable crunched  when sitting felt the springs. Don't stay here!More</t>
   </si>
   <si>
+    <t>mike m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r474121131-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -966,6 +1065,9 @@
     <t>3nights of good sleep...Sandra and her colleagues were very helpful with directions and suggestions.  Location was excellent for attending WWWY festival at the Observatory.  If you like shopping, the South Coast Plaza is close by.More</t>
   </si>
   <si>
+    <t>Ann M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r469414259-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -993,6 +1095,9 @@
     <t>I got to the hotel to let them know I'd be checking in late. The hotel had no information on my reservation, although I had email confirmation from Booking.com.  Sandra, at the desk, gave me the phone number to contact Booking.com.  After waiting for approx. 45 minutes, a live person answered, acknowledged my reservation, and said he would inform Clarion Inn right away.  9 hours later, the hotel still had not heard from Booking.com about my reservation.  In the meantime, Sandra used very kind judgment and professionalism - she held a room for me.  She went the extra mile to contact the next person at the desk, Jessica, telling her my situation.  When I arrived late at night, hoping that there'd be a room for me, Jessica greeted me, fully knowing the situation, gave me my room key, and wished me a good night's sleep.  Not only was I relieved at the way Sandra and Jessica took personal interest in my situation, they interacted with me with care, humor, and compassion.  Sandra and Jessica are top assets to the hotel, no question about that.  Booking.com never did contact the hotel.More</t>
   </si>
   <si>
+    <t>Dani M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r468320908-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1017,6 +1122,9 @@
     <t>Forgot to request proper bed option when hotel wad booked. Sandra went above and beyond to still find us proper bed accommodations at check in. Even checked us in super early so we could get ready for the tournament.  More</t>
   </si>
   <si>
+    <t>JAIME C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r467045487-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1041,6 +1149,9 @@
     <t>I would have given a 5 but although my overall stay was good, did not care for heavy bathroom sliding door, i had to open and close every time my boys wanted to use, Would have loved a dimmer in bathroom so is not so bright at night.  And one other thing forgot my shampoos and the one provided had no foam, a better product would be nice to have. Very welcoming stuff.  More</t>
   </si>
   <si>
+    <t>4Rita95827</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r465786045-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1065,6 +1176,9 @@
     <t>Even during the busiest season, this hotel and its staff go above and beyond to make sure your stay is comfortable and worry-free. From the time I checked in, no matter what I needed from a quick cup of coffee to ice cream just before bed, the lovely lady at the food counter was "on the job". The front desk could not be more pleasant even when I grumpily dragged in after a 14 hour day. Smiles, hellos and how can we help always greeted me. Knowing that I will be staying here on all my business trips (I'd stay here too if I had some time off!) takes the sting out of being away from home so often.More</t>
   </si>
   <si>
+    <t>niranjanc24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r464380524-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1089,6 +1203,9 @@
     <t>This is the first time i am staying at this hotel. And it was super pleasant. All the employees made me feel at home. Ginger, Jessica, Ranee,Sandra,Miriam,Joe,Gadys,Jesus. They are super sweet. And thanks for making it  pleasant memorable :)More</t>
   </si>
   <si>
+    <t>Cloude09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r462670739-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1116,6 +1233,9 @@
     <t>Me and my boyfriend had the greatest experience at the Clarion!!!! Ginger is an employee there that goes above and beyond! No matter what the need she handled it! She was kind, personable, consistent, and efficient! At first I thought she was the manager the way she conducted herself and worked with the staff! Not only did she show good leadership she also showed genuine concern for the guests at the hotel provided them an experience worth more than we paid! The shuttle drivers were also awesome went the extra mile to make us comfortable and always were fast in picking us up!!!!! And let's not forget the front desk ladies!!!! We had a horrible arrival to California and she went out of her way to keep the jacuzzi open past hours so we could relax! This was one of the best hotel experiences I ever had and it wasn't the facility it was the staff!!!! Good job More</t>
   </si>
   <si>
+    <t>oescobedo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r460777937-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1140,6 +1260,9 @@
     <t>My name is Olivia I live in Omaha Nebraska &amp; went to celebrate my daughters 16th birthday in Orange County. I reserved my room through travelocity couple weeks before my trip, it was pretty easy. When we arrived to Clarion Inn &amp; Suites John Wayne Airport the person that helped us her name was Sandra really nice person she greeted us in a positive, friendly matter she explained everything thoroughly, made me &amp; my daughter feel very welcomed. She just made our stay amazing. The rooms were clean all amenities you need they had them in our room. The Hotel was quiet &amp; clean inside &amp; out. I will definitely will stay here again, I will sure recommended to my family &amp; friends. I will be back this summer!More</t>
   </si>
   <si>
+    <t>badlandscb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r454152786-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1164,6 +1287,9 @@
     <t>Clean and roomy with all the amenities, such as; coffee, fridge, microwave, iron, and hair dryer. The staff were friendly and accommodating. TV reception was excellent with HD and WiFi worked great. Small Bistro in the main lobby for light snacks and beverages. Fast food restaurants are within easy walking distance in the area surrounded by more the expensive motels. Easy freeway, John Wayne Airport, and major road accessable. This is a real gem located in the heart of Orange County and this is the place to stay!More</t>
   </si>
   <si>
+    <t>Carole W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r454109834-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1182,6 +1308,9 @@
     <t>This property is lovely! Renee especially at the front desk took very good care of me! Rooms are fantastic with nice pool area! I recommend to stay here. Lots of restaurants near by and they have a little bistro in the lobby!More</t>
   </si>
   <si>
+    <t>edwinscott71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r449657839-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1203,6 +1332,9 @@
     <t>My stay at the Clarion was excellent.  The hotel front desk staff was very friendly and attentive to my needs, check in and out was a snap.  Sandra was especially helpful in telling me about places to dine in the area.Thank you Sandra and Clarion Hotels!More</t>
   </si>
   <si>
+    <t>godzkid54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r448721751-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1230,6 +1362,9 @@
     <t>If you're ever in the Orange County, go to the Clarion by the John Wayne Airport, they will take great care of you.  We know we are there at least once or twice a month!!!  Easy on the pocketbook too!  You will thank us!!More</t>
   </si>
   <si>
+    <t>Jacob D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r447954936-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1254,6 +1389,9 @@
     <t>Propertey is old, but the prices are worth it. great for walk-ins. people are nice,(staff) and the pool is great. The hot tub is working, and they have great tv. channels. the food is great. it is near the airport, and does have free shuttles. -ginger is a great cook---More</t>
   </si>
   <si>
+    <t>Bill B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r443741694-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1278,6 +1416,9 @@
     <t>Completed a five-night stay last week for business training in nearby Irvine. Hotel staff was always very courteous and accommodating to shuttle me each day to my training near the (John Wayne) airport. Hotel and room was very quiet and the room was cleaned well and refreshed each day when I returned. Having a small fridge and microwave came in handy for the week, too.More</t>
   </si>
   <si>
+    <t>Keesha L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r443410226-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1302,6 +1443,9 @@
     <t>Stayed here for over 10 days, while my family transitioned into a new home. Staff was pleasant, welcoming, and quite friendly. Ginger was my favorite. She made us feel right at home! We thoroughly enjoyed our stay!More</t>
   </si>
   <si>
+    <t>haveli63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r443184189-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1320,6 +1464,9 @@
     <t>I had a 1 night stay here at the Clarion. Check in/check out was smooth. Front desk staff were nice and friendly. I did not take advantage of the other amenities, as I was only here for 1 night, but they have a pool and outdoor seating with a fire pit. I would stay here again!More</t>
   </si>
   <si>
+    <t>cortnort10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r436459958-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1347,6 +1494,9 @@
     <t>It was an amazing weekend! Clarion inn has awesome employee who are so helpful. I was able to get a free upgrade due to some room issue and it was facing the pool! It was defiantly worth the trip from Arizona More</t>
   </si>
   <si>
+    <t>travelerX6808QV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r433851611-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1374,6 +1524,9 @@
     <t>Horrible bed--squeeky, hard, and every time my husband turned over, I was almost tossed out of bed.  Pillows were not good either. The noise in the courtyard went on to the wee hours of the night.  The noise at 7a.m. from the tour bus customers gathering in the front of the building was also very loud. The hot tub was only lukewarm and only 2 jets worked.More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r430021597-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1398,6 +1551,9 @@
     <t>Check inn staff was very nice. But in Morning name by Jessica was rude and not helpful like ignore us. we are here for business conference and find this one very close to airport.   This was the most horrible experience ,When we are check inn told front desk I need 6.30 wakeup but  after having no wake up call We was late for are routing things and meeting. Also they didn't offer express checkout. Hall way was smelled like weed.  Never come back  Thanks choiceMore</t>
   </si>
   <si>
+    <t>RichB30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r426227249-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1420,6 +1576,9 @@
   </si>
   <si>
     <t>Staff was very accommodating and polite, room was clean. Meals (including breakfast) available at a counter in the lobby for a fee. Make sure you utilize the coffee urns in the rooms as coffee is only available in the lobby for a fee at the counter.More</t>
+  </si>
+  <si>
+    <t>Michael B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r422599774-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
@@ -1453,6 +1612,9 @@
 The room was also described as NEW, which maybe was because of the new bathroom floor and 24" flat screen TV. The walls were not insulated, because I could hear the TV from one room and the people screaming at each other in the other room. I had ear plugs,...Must make this clear first, I was using points, so not always the best rooms for those not paying.The driveway is very steep. If you have a low vehicle you will scrape the bottom entering and exiting. The front desk clerk was on the phone in the room behind the desk.  I waited about 10 minutes.  He did apologize and said he was trying to direct a cab to the hotel. The lobby was clean, but looked old. There is a Bistro across the lobby from the front desk in the lobby. Check in went okay. The clerk directed me to the building where my room was. From the property map it looks like there are 5 buildings all around the outside pool. I took the elevator to my third floor room. Strange door locks, you just wave the key card in front of the lock. Took several attempts for the door to unlock. On-line the room was described as a king suite with sofa bed divided by a wall. The wall between the bed and living room area was about 4 feet tall and only 2 feet deep.The room was also described as NEW, which maybe was because of the new bathroom floor and 24" flat screen TV. The walls were not insulated, because I could hear the TV from one room and the people screaming at each other in the other room. I had ear plugs, so no problem.The room doors are all outside and there were no lights turned on in the area of my room.I have allergies which sometimes makes it hard to breathe in hotels, but this room was clean and even the air conditioner was NOT smelly. The bed was very comfortable. I still don't understand why a hotel puts 7 pillows on a king size bed, but they all do it.There was NO free breakfast but you could order something from the Bistro in the lobby. I did not eat there, but a sample of the food was a breakfast sandwich of egg and cheese on a bagel with breakfast potatoes for $6.There were about 10 items on the breakfast menu.For dinner you could order salads, flatbread pizzas or burgers. Not sure this would be my choice if in the area again.Bottom line, it was clean and odor free. Even though it is near John Wayne airport, I did not hear planes.More</t>
   </si>
   <si>
+    <t>Princesscali2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r422291584-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1477,6 +1639,9 @@
     <t>I booked this hotel for 5 days and 4 nights for my daughter school move-in day. I stayed at this hotel after my daughter moved in at UCI.  It's nothing to do here if you are on your leisure time. Beside, it is for business area. It is so boring that I have to stay in the room all day doing nothing. There wasn't much restaurants around this area, just the MEXICAN restaurants.More</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r419908799-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1501,6 +1666,9 @@
     <t>Wonderful hotel and very accommodating staff.I arrived just before 10am and requested an early check-in. Sandra was very helpful and asked me to wait in their nice lobby area and she would try.Pepe at the Bistro area made me an amazing bagel sandwich and the moment it was ready Sandra let me know that my room was indeed ready.Everyone went the extra mile for me - I was able to rest for an hour before my Sunday meeting.This is a first-rate hotel offering great service - lovely room and excellent overall feel. I'm well beyond please - Thank You Clarion...More</t>
   </si>
   <si>
+    <t>CaliforniaDreaming69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r419223269-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1522,6 +1690,9 @@
     <t>We were hanging out in the area and needed a place to stay for one night. This was close to the beach so we gave it a whirl. The room was clean and the bathroom had recently been remodeled. I did call before hand to see how old the beds were as I have a picky back and they told me the hotel had been completely remodeled within the last two years and that all beds were new. That may have been true, but the bed was a little soft for me. Regardless, it was easy to get in and out and was close to many restaurants as well as the beach. We would stay here again. Keep in mind it is an older property, but for the price it was fair. There is a pool, but shortly after 10pm all became quiet. No noise problems.More</t>
   </si>
   <si>
+    <t>KelloggTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r418214964-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1546,6 +1717,9 @@
     <t>This hotel has been refurbished within the past seven months and the results are excellent. We had a room facing the back so there was no noise from the street or airport. The room was very spacious and clean. The refurbishment included the bathroom. The only criticism, a minor one, is that the pocket door to the bathroom didn't change and it was hard to slide. The room comes with iron, microwave oven, refrigerator, coffee maker and small flat screen tv. The small swimming pool looks as good as new with a jacuzzi on the side. There is a small exercise room off the pool area. While breakfast is not included they offer an ala carte cafe type breakfast in the morning. You will easily save over $50 per night for something comparable. We will come back. More</t>
   </si>
   <si>
+    <t>Karli N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r411253576-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1570,6 +1744,9 @@
     <t>I will never stay at this hotel again. Customer service was terrible. I originally made a reservation through Orbitz for two nights, but I wanted to stay a third so I called the hotel (almost a month in advance.) and the woman who answered had no idea what was going on. She couldn't tell me how much my third night would be, when my credit card would be charged, or if I'd be able to stay in the room. She proceeded to tell me that she was "too swamped to help me." Because of her lack of customer service, I went to the hotel's website and found the manager's email to tell him about my incident. NO RESPONSE. When I arrived to check in, the woman at the front desk did not greet us and she was not friendly at all. I asked her about my third night and she told me she would "figure it out and call the room when she was ready for me to sign the papers." 45 minutes later, we left for dinner. There was a different girl at the desk because the one from earlier left for the day and told no one what was going on. The next day, I alerted the front desk that there was a problem with my bathroom door and she could not care less. 2 out of 3 front desk personnel were extremely unfriendly. The ONLY reason I...I will never stay at this hotel again. Customer service was terrible. I originally made a reservation through Orbitz for two nights, but I wanted to stay a third so I called the hotel (almost a month in advance.) and the woman who answered had no idea what was going on. She couldn't tell me how much my third night would be, when my credit card would be charged, or if I'd be able to stay in the room. She proceeded to tell me that she was "too swamped to help me." Because of her lack of customer service, I went to the hotel's website and found the manager's email to tell him about my incident. NO RESPONSE. When I arrived to check in, the woman at the front desk did not greet us and she was not friendly at all. I asked her about my third night and she told me she would "figure it out and call the room when she was ready for me to sign the papers." 45 minutes later, we left for dinner. There was a different girl at the desk because the one from earlier left for the day and told no one what was going on. The next day, I alerted the front desk that there was a problem with my bathroom door and she could not care less. 2 out of 3 front desk personnel were extremely unfriendly. The ONLY reason I will NEVER stay here again is because of the lack of customer service. The hotel was nice and in a convenient area and our room was comfortable, but I'd rather pay a little more to stay somewhere else with better customer service.More</t>
   </si>
   <si>
+    <t>simplysummer09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r410577353-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1594,6 +1771,9 @@
     <t>This is my go to hotel when I need to stay in the area. The hotel is nicely renovated, quiet and the front desk is very friendly. I stay here often, and the lady at the front desk, Sandra remembers my name and greets me as I walk in. Makes business travel feel a little more like I am staying at a friend's house. The beds are super comfy too!More</t>
   </si>
   <si>
+    <t>Jaquelinereyes2005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r409147483-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1610,6 +1790,9 @@
   </si>
   <si>
     <t>Rating -1My baby niece had and accident on the bed sheets, where she had diarrhea On the second night we stayed.  We removed the sheets and bedspread  and put I them in bag for housekeeping to wash. We left a tip to the housekeepers, and I still received a call from the concierge stating that they were going to charge extra because it  was considered damage to the property. I  replied to her don't you guys wash sheets and comforters every time a guest leaves?  Don't you guys have people accidentally vomit, or women  bleed  accidentally on the sheets?! Nothing was damage in the room the Sheets and  comforters are washable! I always stay in hotels because I travel a lot and I've never once had a called from a hotel telling me that they would charge me extra because of dirty sheets. I decided to stay at this hotel because friends and family members had chosen this hotel because of the proximity to the wedding we  had  to attend. Also No continental breakfast! For that price we paid we could have gone next-door to the Best Western, where the rooms are bigger, cleaner, beds are cozy and pillows are soft, and nice to their guests.More</t>
+  </si>
+  <si>
+    <t>ualtigger</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r399476431-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
@@ -1641,6 +1824,9 @@
 For the price and location, it's a good value and, if you have kids, the pool and spa will be a nice diversion. We had a quieter room but most in the complex overlook the pool so you can see your kids...Part two of the quick as heck trip to the West Coast:-)Arrived here after the stated 15:00/3:00 p.m. check in time and they were still in progress of cleaning the rooms with two beds (which was a requirement since I'm traveling with my 15 year old grand nephew) so that delayed us from checking in. But, we needed some items from Wal-Mart (a quick 10 minute drive down Dyer Road) so we went there.We had room 332 which is on the back side of the property and a ADA room (which I didn't request but could live with). Bed checks done... nothing there but us and the room was well stocked with towels plus a mini fridge and microwave which is definitely appreciated since a very early flight home the next day.The only issue I had was the air conditioning/heating unitl... it continually trips the GFI circuit built into the plug roughly every 1.5 hours... THAT got annoying after a while but how can management know to fix it if NO ONE MENTIONS IT. Since we had to wait for the room to be cleaned, I'm sure the previous occupants had the same exact problem...For the price and location, it's a good value and, if you have kids, the pool and spa will be a nice diversion. We had a quieter room but most in the complex overlook the pool so you can see your kids from your room if you don't want to swim. However, according to the 6'1"grand nephew, it's too shallow... stopping at just 5' deep.Fantastic location, family friendly and a less expensive alternate to the places near the West coast House of the Mouse (aka Disneyland in Anaheim) which isn't far down the road and the SNA airport is less than 10 minutes away... great alternative to the madhouse that is LAX.More</t>
   </si>
   <si>
+    <t>Bartsview</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r398657423-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1656,6 +1842,9 @@
     <t>If you are traveling for business steer clear. Kids are yelling after 10pm, the grounds are dirty and the staff is unsympathetic. I wore earplugs every night, ran a sound app on my phone and ran the a/c to drown it all out.</t>
   </si>
   <si>
+    <t>Carleton H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r396786944-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1674,6 +1863,9 @@
     <t>This was the ABSOLUTE worse hotel I've ever stayed in.  1. I caught the receptionist sleeping when I first checked in. 2. The leaning person left my room open after cleaning. After I complained to the front desk they said they'd have the GM call me. I'm still waiting for that call 3. Mold and mildew growing in the back of the sink. I'm almost certain it's still there. It didn't seem to bother the cleaning person even after I pointed it out. 4. Pee stains on the bathroom floor in my room. I guess the cleaning person didn't have a mop. Or at least one that had water or cleaner on it. I had to stand on towels for my entire stay. And forget about taking your shoes off. Not unless you've had a tetanus shot in the last 2 weeks.More</t>
   </si>
   <si>
+    <t>Jonaleen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r391931203-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1698,6 +1890,9 @@
     <t>Stayed a night at this place on a recent visit to Orange County. Well maintained facility. Clean room, decent amenities and a fair price. No issues to report other than a slightly noisy window air conditioning unit.More</t>
   </si>
   <si>
+    <t>DelScorcho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r388515767-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1725,6 +1920,9 @@
     <t>Unfriendly place to stay. Fair room, fair amenities, and no trouble with noise. However, staff was extremely rude at this hotel. Management lacked people skills and front desk clerk, Alexis, lacks customer service etiquette. Warning all credit card users, this hotel charges a deposit of $100 prior to your stay. Watch your credit card statement because this hotel charged our card several times for this deposit.More</t>
   </si>
   <si>
+    <t>Perry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r387097091-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1752,6 +1950,9 @@
     <t>Geez, I haven't even stayed there yet! I made a reservation for this coming July 12 for two nights with Rosemary. She was really great to deal with. professional, funny and knowledgeable. As a hotelier myself, I know the value of the having the knowledge and the personality that it takes to begin a great stay.Well done Rosemary!More</t>
   </si>
   <si>
+    <t>Paul S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r379911590-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1770,6 +1971,9 @@
     <t>Hotel itself was nice and a good location for Orange County Airport. Staff is overworked and seems stressed. Big problem with our shuttle to the airport though..... we needed to catch the first shuttle at 6:00 to make our flight time and the driver never showed up. We waited 15 minutes and finally we were saved by another hotel guest who just happened to be returning her rent-a-car and was willing to drop us off. The desk person said she would let her manager know, but nothing has come of that so far. For the return shuttle after our trip, they don't schedule you in ahead, so you have to call. When I did, I was put on hold for almost 20 minutes before a very helpful lady said she would send their driver, who did come to get us. I will say though that the price for their "park and fly" package is really a good deal to others I was going to do - if you can put up with the hassle and uncertainty.More</t>
   </si>
   <si>
+    <t>danielpmagic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r379649289-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1788,6 +1992,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>PhoenixRover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r378336767-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1812,6 +2019,9 @@
     <t>Stayed here over a weekend, while I was jamming with my band in Tustin, nearby. The room was really clean, modern, and acceptable. Front desk, check-in/service was very good as well. Now here's the good and the bad. This place was packed and there was a total and complete party atmosphere at this place. There was some sort of a Lacrosse tournament going on, and teams were staying here. That means a bunch of 18-21 yr. old Dudes, ready to party. Not only that, but I betcha' the place was sold out, and EVERYONE was partying it up! Not that we minded this, as we were pretty much doing the same, but if I came here with small kids, or for a romantic getaway, I'd RUN AWAY quickly. Fun yes, peaceful, nope.This being said, I would look forward to staying here again, just for the crazy atmosphere.  There was a bunch of junk piled up in the back parking lot, which was very unsightly and unacceptable. Rent a storage container or trash it... Was actually unsafe and ugly. Bad move, management. Otherwise, enjoyed the stay here and would return.More</t>
   </si>
   <si>
+    <t>sandymccluskey1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r375304239-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1836,6 +2046,9 @@
     <t>Nothing special about my suite or the Hotel....no breakfast and no restaurants around....plenty of fast food joints...no recognition of being a diamond elite member....not even a bottle of water....I should have stayed at another Choice hotel..econo lodge would be better.More</t>
   </si>
   <si>
+    <t>Tanya B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r372498695-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1860,6 +2073,9 @@
     <t>My son and three friends were robbed while they slept in their room on May 8 at the Clarion.  My son woke up at 3 am to someone at the bedside table stealing his phone and watch.  His friend's wallet was also stolen.  The hotel management was evasive in acknowledging the incident, even though the police responded. The hotel management has taken no action or accepted responsibility for the security breach.  My family will never stay in a Clarion or Choice Hotel property again.More</t>
   </si>
   <si>
+    <t>larryjw1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r366130640-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1887,6 +2103,9 @@
     <t>I have stayed here many times.  Not again. Despite what the website states, and what my printout had, they discontinued the free breakfast.  And there was no comment about that when I checked in.  I do not eat much, but a bowl of cereal and OJ was always nice.The hotel is comfortable, but the lack of communication is deceptive. I do not return to places where they lie by omission.   This should have been disclosed at check in.  I expect more from a hotel...and especially one where I am a gold card member.Goodbye Clarion .  There are other hotels nearby.More</t>
   </si>
   <si>
+    <t>Ronald D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r358777043-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1914,6 +2133,9 @@
     <t>I stayed at this hotel in March 2016.  I came in very late with no reservation.  They took my card and said I would be charged $98.  In my room which was musty and humid I turned on the crappy air conditioning that I would expect in a $30 hotel.  It worked poorly, kept me up most the night.  In the morning I found they charged me $209.  When I complained they said "oh that is the deposit, it will be reversed".  So I was charged $300 for a $30 room.  Better to sleep in the car or on the beach.  I will never stay at another Clarion Hotel ANYWHERE EVER.More</t>
   </si>
   <si>
+    <t>Cindy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r357185754-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1932,6 +2154,9 @@
     <t>We stayed to attend a funeral, had to reserve 3 rooms. We arrived at 2pm and the clerk was good enough to let us into all the rooms early. The rooms have been updated, very clean and comfortable. They are painting the outside of the hotel, so there is a bit of construction to walk around, but nothing major and it didn't smell like paint, so we were quite pleased. The breakfast consisted of: fruit, boiled eggs, milk/other, egg/sausage sandwiches that could be micro. would have liked a toaster, but that's fine. Also, had little muffins and coffee. For the price, in this area of S.CA, it's well worth it. We would return, for sure.More</t>
   </si>
   <si>
+    <t>Janet C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r348553398-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1953,6 +2178,9 @@
     <t>Stayed two nights in this hotel. They were remodeling the breakfast area. The staff went over and above to compensate for the remodeling. This hotel was close to restaurants and the staff was very helpful in giving us directions to the restaurants. The room was excellent. I sat out on the balcony and read a book and it was very peaceful. I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Jetlaggedbrain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r344656703-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1974,6 +2202,9 @@
     <t>Nothing in advertisement prepared us for the shape this Clarion was in. Couldn't use the heated pool or hot tub due to debris from roof construction. The "breakfast" which was set up in a stripped hotel room had no seating. The food was flavourless, kind of like food tastes when you have a bad cold. This place needs help, until then avoid it. The drone of construction equipment during the whole day was annoying &amp; despite complaining about the drunks yelling, arguing &amp; slamming doors until after 1:30am no help from staff. We won't return.More</t>
   </si>
   <si>
+    <t>Bill G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r342845020-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2016,6 +2247,9 @@
     <t>When done with construction will earn four stars.People here are real nice.Breakfast is in a room for now but they are trying hard.Beds and pillows are great.  Pool and got tub look good. Wish it was warmer.More</t>
   </si>
   <si>
+    <t>Christopher R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r334141382-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2040,6 +2274,9 @@
     <t>Apparently there are rooms that have already been rennovated and yet I was given the oldest room I have ever been in, tucked in the back end of the hotel near the laundry room.  The breakfast was WITHOUT ANY EXAGGERATION, DISSSSGUSTING.  Pre packaged breakfast sandwhiches.  I took on bite and I could not even fake it,, I had to spit it out.  Only cereal available was sugar coated crap.  So, the point is, ask for a NEW ROOM and if the free breakfast is leading you here,,, TRUST me , it is in NO WAY an added value and you will need to go out to eat any way.NOT every web site advertises that this location is "under rennovation".  At least I should have been given a newly rennovated room.The pool was fine and the hot tub was definitely a huge PLUS!  Bed was outdated.  Not a current version of a quality sleep system.  SUGGESTION:  call to make sure this location is post rennovation, ask if the breakfast is HOT or the same as it was for me.  I would only go back if the "free breakfast"  was HOT and not prepackaged breakfast sandwhiches you heat up in a microwave AND, if the renno was complete.More</t>
   </si>
   <si>
+    <t>Belinda M J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r331872297-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2061,6 +2298,9 @@
     <t>The Clarion, a handsome Spanish style facility, is being extensively renovated (formerly a Comfort Inn). My king room was refurbished, updated, and upgraded. The Lobby,  breakfast area and other public areas are still under renovation but this did not affect my stay. The room was good-sized, clean and comfortable with a nice large bath and good shower, desk, comfortable side chair and basic amenities including a microwave, refrigerator and coffee maker. Good flat screen TV, Wi-Fi and lots of plug-ins. An elevator is available for rooms on upper floors . My room had a nice view of the attractive courtyard and pool area. Breakfast was set-up in a temporary room and was a bit limited. A shuttle was available to John Wayne airport.More</t>
   </si>
   <si>
+    <t>Kristy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r330167538-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2088,6 +2328,9 @@
     <t>Absolutely great stay at this hotel! The staff is wonderful! They're currently undergoing some renovations, but are very accommodating. Work was not loud or disturbing. Remodeled rooms are simply beautiful!More</t>
   </si>
   <si>
+    <t>osanida</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r314933429-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2115,6 +2358,9 @@
     <t>Im staying here two days while on business. Glad someone else is paying but I did get a newly renovated room so I was happy about that.  I'd never stay here for leisure pay more to get a bit better nearbyMore</t>
   </si>
   <si>
+    <t>Michael A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r314522100-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2137,6 +2383,9 @@
   </si>
   <si>
     <t>Location is great, and the price was good. But I'm sure this is due to the remodeling that they are doing until the end of the year (Nov-Dec). I woke up every morning to hammers and saws and drilling and just about everything you could think of. So if you plan on staying here the work starts promptly at 730 am and lasts till about 7pm.More</t>
+  </si>
+  <si>
+    <t>subbuparam</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r309023298-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
@@ -2177,6 +2426,9 @@
 * Breakfast was horrendous. And that is an understatement. On day 1, the breakfast room had 6 slices of white bread, 3 muffins, and 7 packets of butter. after they saw people coming in, they brought in 6 bagels, but...Let me start with the positives.. We had a pretty good stay. We loved the proximity of the hotel to the freeways and the university. A few decent places to eat nearby. Rooms are spacious with good facilities. Restrooms are big and one does not feel cramped. The staff were pretty good and helped us resolve a few issues.On to the negatives. The hotel is undergoing remodeling. This was mentioned in fine print and hence many people were not aware of it. * We had booked a room with a king bed and sofabed and had requested for a few extra sheets and the sofabed to be cleaned as we might have an additional guest for a night. But that was not done* The room that was allocated to us was right next to where construction was happening and we were woken up not by our alarm, but by banging and drilling. People who come on a vacation will not leave @ 8 am before construction begins and in which case they should not rent out rooms close to that area. We walked into the restroom in that room and began hunting spiders. The next day morning, we * Breakfast was horrendous. And that is an understatement. On day 1, the breakfast room had 6 slices of white bread, 3 muffins, and 7 packets of butter. after they saw people coming in, they brought in 6 bagels, but no cream cheese and 10 slices of wheat bread. There was no coffee.I had a chat with the Asst. Mngr. and he promised to have something better at breakfast the next day. But the next day, they removed the bread and all that was there was pre-packaged sandwiches with meat (we are vegetarians), a few danish pastries and Nature Valley oats bars. They said the fire safety rules does not permit having a toaster. Who wants a toaster, just keep the bread and some jelly, we can at least eat it without toasting. No Sir, we cannot, Fire Safety rules! Seriously??? At least keep some milk, cereals and a microwave. No sir, we don't have cereals as part of our breakfast. Because of fire safety rules, we cannot have a microwave in that room. But you can keep a microwave inside our rooms, that's okay?? I am not asking for waffles or pancakes. In fact if you have fire safety rules, cereals are the best choice of breakfast. In the reservation, you said that the hotel is undergoing renovation., but did not say that there will be no breakfast or horrible Wi-fi. Sorry sir it was decided by our District manager to not put it out so we don't lose business. The reservation says, free hot breakfast with eggs, waffles, fruits and yogurt. Day 3: i decided to skip breakfast and went to IHOP for breakfast. * Wi-fi: bad on the first day, then we were switched to another room where it was okay* Beds: felt like sleeping on a trampoline. But this is the case with most hotels, not specifically this one.More</t>
   </si>
   <si>
+    <t>Tgsd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r300045836-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2204,6 +2456,9 @@
     <t>I understand this is a budget motel, so I only only expect a clean and safe room and property. It was neither. The exterior was old with dead potted plants. The exterior lights were burned out by our room (safety issue at night) Construction materials and ladders were left out in the parking lot on the property unsecured (danger for young children). It was a standard room with one bed and couch separated by a 3 foot wall. Sorry this is not a suite. It was a old and tired room. The sheets had stains on them. The pull out bed had a old dirty matress with a bodily fluid stain. Having no Choice, we slept on it so our kids did not have to. Every turn at night, we were poked by the bed frame and endured a faint smell of urine. The bathroom door did not work and the ceiling had water stains. The tub has a non slip liner that was covered in mold under it. I am shocked that Choice Hotels has not terminated its association with this property. A budget hotel should not be a slum hotel. Families should avoid this hotel!!!More</t>
   </si>
   <si>
+    <t>les062015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r290831530-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2228,6 +2483,9 @@
     <t>My husband and I stayed here this past weekend, when we got there it is this place is old and dirty. seems like they just cover the wall with paint and not replacing it. the stair floor paint was cheeping off, and dirty, the room was ok, the carpet was dirty and smelly, the tub was old, the breakfast was so so. they had a nice picture of outside but as soon as you are there its not nice at all. this Hotel need to serious update and serious major clean up.More</t>
   </si>
   <si>
+    <t>Photoguy505</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r287463841-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2252,6 +2510,9 @@
     <t>Love this place. We stayed here 4 times in 4 months while relocating to Orange County 3 years ago, and when we had a household emergency last week it was this hotel we chose. If anything, it got better! The room seemed cleaner and the whole place seemed better. It was definitely more enjoyable this timeMore</t>
   </si>
   <si>
+    <t>vwfanforever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r285446470-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2268,6 +2529,9 @@
   </si>
   <si>
     <t>Stayed at this hotel due to competitive pricing. We were placed in room that was renovated and have no complaints to that regard. Once renovations are done I would think the hotel will be nice. A lot of things are tired but with some updating should be fine.  Only issue we encountered was lack of parking due to painting and the workers removed the tape to get us some parking. The hotel was quiet and rooms were clean. More</t>
+  </si>
+  <si>
+    <t>Jennifer N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r284024503-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
@@ -2303,6 +2567,9 @@
 The only positive I can honestly think about...This is the worst Comfort Inn I have stayed at.  The hotel was under construction and the water was shut off when I checked in.  My toilet "exploded" and I ended up with water all over.  The internet did not work.  When I talked with the front desk about the internet, I was told the front desk  had already received several complaints about the internet.  It never stopped crashing and I was then informed, due to the construction, that my room would not have internet.  It was suggested that I utilize the internet in the lobby. (BTW, the lobby internet was unreliable).   I was on a business trip and I felt uncomfortable trying to do work in a public location.  The room I stayed in smelled.  I asked about the odor but was told it was new paint smell.  The carpeting had multiple stains that made me question the new paint smell.  The refrigerator in the room was so cold it froze all of my food. (Yes, I did play with the temperature control.  No change)Again, I state comfort inn would not switch my room or reimburse me in any way.  The Manager of the hotel would not even contact me via phone or talk with me while I was staying at the facility.  I was given the check in staff to "solve the problem" which meant they could do nothing.The only positive I can honestly think about was the price was less then any other hotel.  The king room was large and the breakfast did include eggs, sausage, and waffles.  So, if you can live without internet, and live with construction and non working items in your room, it is a great place to stay for a night.More</t>
   </si>
   <si>
+    <t>Tracy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r283625391-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2321,6 +2588,9 @@
     <t>Recently renovated - rooms look nice. Good breakfast with a selection of hot items. Very convenient to Orange County Airport if you're flying in late or leaving early and want a place close by. Pool area looked nice. The only negative is the view from the back rooms is of an industrial area &amp; a storage lot. The property itself is landscaped very nicely however.More</t>
   </si>
   <si>
+    <t>Tabatha K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r261374446-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2342,6 +2612,9 @@
     <t>I am only giving this hotel one star because that is what is required as minimum. I read some of the reviews after the stay and this place needs way more than updating. The stay began with coming back from dinner and having someone doing drugs in one corner of the back parking lot and someone else urinating in another. The gentlemen urinating in the parking lot got in his white van after we exited our car and watched us very closely until we were out of site. Im not 100% sure of what happened after that, but my husband went outside to get something he left in the car and low and behold someone had hit the back of my car and the paint on it was...what...white. I of course went through the entire parking lot looking at every white car looking for my silver car paint on it and found nothing so we can only speculate. We had a reservation for 2 nights, didnt really want to stay this night but it was already 10 at night. The cherry topper in the morning was bugs in the bathroom, oh man, I dont even want my mind to go through what could have been lurking in the night, and lets not forget about the stains on the couch mattress. I went to the front desk, which is where breakfast also was being served and I was very quiet about...I am only giving this hotel one star because that is what is required as minimum. I read some of the reviews after the stay and this place needs way more than updating. The stay began with coming back from dinner and having someone doing drugs in one corner of the back parking lot and someone else urinating in another. The gentlemen urinating in the parking lot got in his white van after we exited our car and watched us very closely until we were out of site. Im not 100% sure of what happened after that, but my husband went outside to get something he left in the car and low and behold someone had hit the back of my car and the paint on it was...what...white. I of course went through the entire parking lot looking at every white car looking for my silver car paint on it and found nothing so we can only speculate. We had a reservation for 2 nights, didnt really want to stay this night but it was already 10 at night. The cherry topper in the morning was bugs in the bathroom, oh man, I dont even want my mind to go through what could have been lurking in the night, and lets not forget about the stains on the couch mattress. I went to the front desk, which is where breakfast also was being served and I was very quiet about my situation, let the young lady know what had happened and was happening and that I would not be staying my second night. I was only asking to be reimbursed for the night I was not going to stay and well you know she couldnt help me and the manager wouldnt be in til noon. We had Mickey to visit so we packed up and left the room I was not going to stay there another moment!!! After calling at noon from the park I was told the manager would not be in til 3 OMG how do you run a business with no one that can make decisions. The only positive thing out of that 24 hours was that andre (manager) was kind enough to phone us back and refund out one night. This place is awful on every level.More</t>
   </si>
   <si>
+    <t>ShilohNorthCarolina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r259443518-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2360,6 +2633,9 @@
     <t>Room was clean, but the bathroom needed renovating badly.  Sink plug didn't work so water drained slowly out of sink, tub is badly chipped, toilet stained.  Free WiFi was usually not working.  Made looking things up on the laptop for apartment hunting very tough.  I was constantly calling the desk letting them know when the WiFi was out, sometimes they reset the router, other times they did not.More</t>
   </si>
   <si>
+    <t>Sqeeky17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r258948311-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2381,6 +2657,9 @@
     <t>This hotel's rooms need some updating.  We had a quiet room on the back.  Staff was very pleasant.  Breakfast was better than continental.  Pool was really clean and warm and they kept towels out all the time.  Location was great.More</t>
   </si>
   <si>
+    <t>Michael R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r251319482-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2408,6 +2687,9 @@
     <t>I moved here from another hotel in Santa Ana. You may see my review of that one. "9 months at the Holiday Inn". I couldn't afford to stay at that one any longer so I was lucky enough to find the Comfort Inn. I had a room right at the pool and hot tub at about half the price. Now I must say the breakfast wasn't the greatest especially after a hundred days of it but it was just a short walk to many other places. I even walked to the Holiday Inn for breakfast. The people at the front desk and housekeeping were and still are like family to me. They even gave my bank a financial statement so I could buy a Condo in the area. I never saw anything bad happen like other reviews saidMore</t>
   </si>
   <si>
+    <t>Hankster1958</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r248589701-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2432,6 +2714,9 @@
     <t>Even though it wasn't far from my home i'am in sales so I needed nice neat place more local in that area were I could meet customers in that area they are part of choice hotels and had specials were you earned a free night after two different stays Ontario CA was another location they were very Courteous, let me check in early  and check out late I had to leave my car there a couple days they even picked me up and dropped me off to get my rent a car they had a excellent breakfast and the room had a  frig,microwave , coffee maker hd TV and iron all for $60 so I brought my own food witch if I ate out I would spent that mutch and close to events in Orange County plus you earn points  towards free rooms about 20 nights for about $800 excellent value the staff too !More</t>
   </si>
   <si>
+    <t>surrender92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r248564514-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2450,6 +2735,9 @@
     <t>If you enjoy people arguing about meth and the pounds of drugs they have or if you enjoy throw up in the parking lot after someone exited their car- then this is your place! We watched two people fighting early one morning in the lobby during breakfast about all the meth she's doing and then we had to call security because another couple were fighting in the parking lot. One night when myself and our two daughters were in the jacuzzi, three men joined us bragging about their drinks and then another man got in smoking in the jacuzzi. We had to leave. We felt soooo uncomfortable. The morning my daughter checked out, she went up front to get our deposit and apparently my daughter left the door cracked open and housekeeping called to say there was a man in our room! Creepy, sketchy, just NO. Avoid it. The breakfast wasn't that good anyway and the rooms are very small. Will never stay there again. Don't waste your money! I did not feel safe there at all.More</t>
   </si>
   <si>
+    <t>Bob836</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r246339951-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2475,6 +2763,9 @@
   </si>
   <si>
     <t>We were very pleased with out stay here.  The room was clean, the beds were comfortable, and the management was quick to respond to every request.  We were pleased with the complimentary breakfast including scrambled eggs, sausage patties, waffle makers, assorted doughnuts and pastries, assorted breads, bagels, and English muffins, yogurt, hard-boiled eggs, assorted cereals with milk, oatmeal, orange and apple juice, fresh fruit, etc.  While inside seating was limited to two small tables, there were a half-dozen tables outside.  The pool and hot tub were well-maintained and pleasant.  There was even a gas grill available.  We book via Priceline.  It was good that I then called the hotel directly to confirm that we needed beds for two adults and two children.  Priceline only guarantees a bed for two adults.  Even though they were heavily booked, the attendant on the telephone was able to get us a king bed with a fold out couch.  We were quite comfortable with ample bedding, a mini fridge and microwave, and extra towels delivered within minutes, upon request.  Check out time set a noon allowed us a leisurely morning after a long day at Disneyland.  As for access to Disneyland, this was perfect!  The hotel is within two minutes of the freeway, and it was an easy 15 minute drive to Disneyland.  Yes, the hotel could be updated.  Yes, the epoxy paint on fiberglass shower was peeling.  But, it was clean, comfortable, convenient, and...We were very pleased with out stay here.  The room was clean, the beds were comfortable, and the management was quick to respond to every request.  We were pleased with the complimentary breakfast including scrambled eggs, sausage patties, waffle makers, assorted doughnuts and pastries, assorted breads, bagels, and English muffins, yogurt, hard-boiled eggs, assorted cereals with milk, oatmeal, orange and apple juice, fresh fruit, etc.  While inside seating was limited to two small tables, there were a half-dozen tables outside.  The pool and hot tub were well-maintained and pleasant.  There was even a gas grill available.  We book via Priceline.  It was good that I then called the hotel directly to confirm that we needed beds for two adults and two children.  Priceline only guarantees a bed for two adults.  Even though they were heavily booked, the attendant on the telephone was able to get us a king bed with a fold out couch.  We were quite comfortable with ample bedding, a mini fridge and microwave, and extra towels delivered within minutes, upon request.  Check out time set a noon allowed us a leisurely morning after a long day at Disneyland.  As for access to Disneyland, this was perfect!  The hotel is within two minutes of the freeway, and it was an easy 15 minute drive to Disneyland.  Yes, the hotel could be updated.  Yes, the epoxy paint on fiberglass shower was peeling.  But, it was clean, comfortable, convenient, and friendly.  For the price . . . we'll be back!More</t>
+  </si>
+  <si>
+    <t>358kathleeng</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78082-r245037340-Clarion_Inn_Suites_Orange_County_John_Wayne_Airport-Santa_Ana_California.html</t>
@@ -2997,43 +3288,47 @@
       <c r="A2" t="n">
         <v>20397</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>130843</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3045,56 +3340,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>20397</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>130844</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3112,56 +3411,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>20397</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>15643</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3173,56 +3476,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>20397</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>130845</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3238,56 +3545,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20397</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>130846</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3305,56 +3616,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20397</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>130847</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3366,56 +3681,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>20397</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>130848</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3427,56 +3746,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>20397</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>13461</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3488,56 +3811,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>20397</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>130849</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3555,56 +3882,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>20397</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>17712</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3622,56 +3953,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>20397</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>130850</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3683,56 +4018,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>20397</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>130851</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3748,56 +4087,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>20397</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>130852</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3813,56 +4156,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>20397</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>130853</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3874,56 +4221,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>20397</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>130854</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3941,56 +4292,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>20397</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>130855</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4002,56 +4357,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>20397</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>58780</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4063,56 +4422,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>20397</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>130856</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4130,56 +4493,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>20397</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4191,56 +4558,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20397</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>130857</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4256,56 +4627,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20397</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>15594</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4323,56 +4698,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20397</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>130858</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4384,56 +4763,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>20397</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>130859</v>
+      </c>
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4445,56 +4828,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="X24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>20397</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>130860</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4512,56 +4899,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>20397</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>130861</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O26" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4579,56 +4970,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="Y26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>20397</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>130862</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="L27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4646,56 +5041,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="Y27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20397</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>29122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>291</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4707,56 +5106,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X28" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20397</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>48802</v>
+      </c>
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>300</v>
+      </c>
+      <c r="J29" t="s">
+        <v>301</v>
+      </c>
+      <c r="K29" t="s">
+        <v>302</v>
+      </c>
+      <c r="L29" t="s">
+        <v>303</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>271</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>272</v>
-      </c>
-      <c r="J29" t="s">
-        <v>273</v>
-      </c>
-      <c r="K29" t="s">
-        <v>274</v>
-      </c>
-      <c r="L29" t="s">
-        <v>275</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>247</v>
-      </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4768,47 +5171,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="X29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="Y29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>20397</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>130863</v>
+      </c>
+      <c r="C30" t="s">
+        <v>307</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -4825,56 +5232,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="X30" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="Y30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>20397</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>130864</v>
+      </c>
+      <c r="C31" t="s">
+        <v>313</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="J31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="K31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4886,56 +5297,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="X31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Y31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>20397</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>17711</v>
+      </c>
+      <c r="C32" t="s">
+        <v>322</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="J32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="K32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="L32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4951,56 +5366,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="X32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>20397</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>130865</v>
+      </c>
+      <c r="C33" t="s">
+        <v>331</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="J33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="K33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5012,56 +5431,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="X33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="Y33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>20397</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>52652</v>
+      </c>
+      <c r="C34" t="s">
+        <v>340</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="J34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="K34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="L34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -5079,56 +5502,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="X34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="Y34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20397</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>63022</v>
+      </c>
+      <c r="C35" t="s">
+        <v>349</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="J35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="K35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="L35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5144,56 +5571,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="X35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="Y35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>20397</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>1067</v>
+      </c>
+      <c r="C36" t="s">
+        <v>359</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="O36" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5205,47 +5636,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="X36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="Y36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20397</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>130866</v>
+      </c>
+      <c r="C37" t="s">
+        <v>368</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="J37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="K37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="L37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
@@ -5262,56 +5697,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="X37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="Y37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>20397</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>130867</v>
+      </c>
+      <c r="C38" t="s">
+        <v>377</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="J38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="K38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="O38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -5327,56 +5766,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="X38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="Y38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>20397</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>130868</v>
+      </c>
+      <c r="C39" t="s">
+        <v>386</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="J39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="K39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="L39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5392,56 +5835,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="X39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="Y39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>20397</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>130869</v>
+      </c>
+      <c r="C40" t="s">
+        <v>395</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="J40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="K40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="L40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="O40" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5453,56 +5900,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="X40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="Y40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>20397</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>130870</v>
+      </c>
+      <c r="C41" t="s">
+        <v>405</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="J41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="K41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5518,47 +5969,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="X41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="Y41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>20397</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>130871</v>
+      </c>
+      <c r="C42" t="s">
+        <v>414</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
@@ -5575,56 +6030,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="X42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="Y42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>20397</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>2387</v>
+      </c>
+      <c r="C43" t="s">
+        <v>423</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="J43" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="L43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="O43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5636,56 +6095,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="X43" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="Y43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>20397</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>130872</v>
+      </c>
+      <c r="C44" t="s">
+        <v>430</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="J44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="K44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="O44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5703,56 +6166,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="X44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="Y44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>20397</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>130873</v>
+      </c>
+      <c r="C45" t="s">
+        <v>438</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="J45" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="K45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="L45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="O45" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5764,56 +6231,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="X45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="Y45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>20397</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>45492</v>
+      </c>
+      <c r="C46" t="s">
+        <v>448</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="J46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="K46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="L46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5829,56 +6300,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="X46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="Y46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>20397</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>16664</v>
+      </c>
+      <c r="C47" t="s">
+        <v>457</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="J47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="K47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="L47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="O47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5896,56 +6371,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="X47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="Y47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>20397</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>130874</v>
+      </c>
+      <c r="C48" t="s">
+        <v>466</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="J48" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="K48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="L48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5957,56 +6436,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="X48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="Y48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>20397</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>130875</v>
+      </c>
+      <c r="C49" t="s">
+        <v>475</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="J49" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="K49" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="L49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6022,56 +6505,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="X49" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="Y49" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>20397</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>130876</v>
+      </c>
+      <c r="C50" t="s">
+        <v>482</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="J50" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="K50" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="L50" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="O50" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6083,56 +6570,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X50" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y50" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>20397</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>130877</v>
+      </c>
+      <c r="C51" t="s">
+        <v>492</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="J51" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="K51" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="L51" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -6148,56 +6639,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="X51" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Y51" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>20397</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>321</v>
+      </c>
+      <c r="C52" t="s">
+        <v>502</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="J52" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="K52" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="L52" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="O52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6215,56 +6710,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="X52" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="Y52" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>20397</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>130878</v>
+      </c>
+      <c r="C53" t="s">
+        <v>511</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="J53" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="K53" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="L53" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="O53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6282,56 +6781,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="X53" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="Y53" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>20397</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>967</v>
+      </c>
+      <c r="C54" t="s">
+        <v>520</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="J54" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="K54" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="L54" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6349,56 +6852,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="X54" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="Y54" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>20397</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>130879</v>
+      </c>
+      <c r="C55" t="s">
+        <v>530</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="J55" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="K55" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="L55" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="O55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6416,56 +6923,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="X55" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="Y55" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>20397</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>539</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="J56" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="K56" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="L56" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="O56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6483,56 +6994,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="X56" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="Y56" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>20397</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>130880</v>
+      </c>
+      <c r="C57" t="s">
+        <v>548</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="J57" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="K57" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="L57" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="O57" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6550,56 +7065,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="X57" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="Y57" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>20397</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>130881</v>
+      </c>
+      <c r="C58" t="s">
+        <v>556</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="J58" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="K58" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="L58" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6611,56 +7130,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="X58" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="Y58" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>20397</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>130882</v>
+      </c>
+      <c r="C59" t="s">
+        <v>565</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="J59" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="K59" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="L59" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="O59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6676,56 +7199,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="X59" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="Y59" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>20397</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>130883</v>
+      </c>
+      <c r="C60" t="s">
+        <v>574</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="J60" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="K60" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="L60" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="O60" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6741,56 +7268,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="X60" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="Y60" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>20397</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>130884</v>
+      </c>
+      <c r="C61" t="s">
+        <v>583</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="J61" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="K61" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="L61" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="O61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6804,50 +7335,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>20397</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>130885</v>
+      </c>
+      <c r="C62" t="s">
+        <v>590</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="J62" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="K62" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="L62" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6865,50 +7400,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>20397</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>130886</v>
+      </c>
+      <c r="C63" t="s">
+        <v>598</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="J63" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="K63" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="L63" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="O63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6922,50 +7461,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>20397</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>130887</v>
+      </c>
+      <c r="C64" t="s">
+        <v>604</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="J64" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="K64" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="L64" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="O64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="n">
@@ -6985,50 +7528,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>20397</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>130888</v>
+      </c>
+      <c r="C65" t="s">
+        <v>611</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="J65" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="K65" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="L65" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="O65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7044,56 +7591,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="X65" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="Y65" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>20397</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>130889</v>
+      </c>
+      <c r="C66" t="s">
+        <v>620</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="J66" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="K66" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="L66" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="O66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -7111,56 +7662,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="X66" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="Y66" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>20397</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>130890</v>
+      </c>
+      <c r="C67" t="s">
+        <v>630</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="J67" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="K67" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="L67" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="O67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7174,56 +7729,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>571</v>
+        <v>637</v>
       </c>
       <c r="X67" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="Y67" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>20397</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>997</v>
+      </c>
+      <c r="C68" t="s">
+        <v>640</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="J68" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
       <c r="K68" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
       <c r="L68" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="O68" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7241,50 +7800,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>579</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>20397</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>130891</v>
+      </c>
+      <c r="C69" t="s">
+        <v>647</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="J69" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="K69" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="L69" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="O69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="n">
@@ -7304,50 +7867,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>20397</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>130892</v>
+      </c>
+      <c r="C70" t="s">
+        <v>654</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="J70" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="K70" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="L70" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="O70" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7365,56 +7932,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="X70" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="Y70" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>20397</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>115374</v>
+      </c>
+      <c r="C71" t="s">
+        <v>663</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="J71" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
       <c r="K71" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="L71" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7426,56 +7997,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="X71" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="Y71" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>20397</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>9663</v>
+      </c>
+      <c r="C72" t="s">
+        <v>672</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>603</v>
+        <v>674</v>
       </c>
       <c r="J72" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
       <c r="K72" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
       <c r="L72" t="s">
-        <v>606</v>
+        <v>677</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="O72" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -7491,56 +8066,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="X72" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="Y72" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>20397</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>130893</v>
+      </c>
+      <c r="C73" t="s">
+        <v>681</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
       <c r="J73" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="K73" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
       <c r="L73" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="O73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7552,56 +8131,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="X73" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="Y73" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>20397</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>4212</v>
+      </c>
+      <c r="C74" t="s">
+        <v>691</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>619</v>
+        <v>692</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>620</v>
+        <v>693</v>
       </c>
       <c r="J74" t="s">
-        <v>621</v>
+        <v>694</v>
       </c>
       <c r="K74" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="L74" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="O74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7619,56 +8202,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="X74" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="Y74" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>20397</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>64939</v>
+      </c>
+      <c r="C75" t="s">
+        <v>701</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="J75" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="K75" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
       <c r="L75" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="O75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="n">
@@ -7684,56 +8271,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="X75" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="Y75" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>20397</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>13896</v>
+      </c>
+      <c r="C76" t="s">
+        <v>708</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="J76" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="K76" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
       <c r="L76" t="s">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="O76" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="n">
@@ -7751,56 +8342,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="X76" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="Y76" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>20397</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>130894</v>
+      </c>
+      <c r="C77" t="s">
+        <v>716</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="J77" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="K77" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="L77" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="O77" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="n">
@@ -7816,56 +8411,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="X77" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="Y77" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>20397</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>10306</v>
+      </c>
+      <c r="C78" t="s">
+        <v>724</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="J78" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="K78" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="L78" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="O78" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7881,56 +8480,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="X78" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="Y78" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>20397</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>4212</v>
+      </c>
+      <c r="C79" t="s">
+        <v>691</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>654</v>
+        <v>731</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="J79" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="K79" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="L79" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="O79" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7942,47 +8545,51 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="X79" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="Y79" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>20397</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>46850</v>
+      </c>
+      <c r="C80" t="s">
+        <v>739</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>662</v>
+        <v>740</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>663</v>
+        <v>741</v>
       </c>
       <c r="J80" t="s">
-        <v>664</v>
+        <v>742</v>
       </c>
       <c r="K80" t="s">
-        <v>665</v>
+        <v>743</v>
       </c>
       <c r="L80" t="s">
-        <v>666</v>
+        <v>744</v>
       </c>
       <c r="M80" t="n">
         <v>2</v>
@@ -7999,56 +8606,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="X80" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="Y80" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>20397</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>130895</v>
+      </c>
+      <c r="C81" t="s">
+        <v>748</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="J81" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="K81" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="L81" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="O81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="n">
@@ -8068,50 +8679,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>20397</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>63591</v>
+      </c>
+      <c r="C82" t="s">
+        <v>756</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="J82" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
       <c r="K82" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="L82" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
       <c r="O82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8127,56 +8742,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="X82" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
       <c r="Y82" t="s">
-        <v>685</v>
+        <v>765</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>20397</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>130896</v>
+      </c>
+      <c r="C83" t="s">
+        <v>766</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="J83" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="K83" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="L83" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="O83" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8188,56 +8807,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="X83" t="s">
-        <v>693</v>
+        <v>774</v>
       </c>
       <c r="Y83" t="s">
-        <v>694</v>
+        <v>775</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>20397</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>4229</v>
+      </c>
+      <c r="C84" t="s">
+        <v>776</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>695</v>
+        <v>777</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="J84" t="s">
-        <v>697</v>
+        <v>779</v>
       </c>
       <c r="K84" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="L84" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8255,56 +8878,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="X84" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="Y84" t="s">
-        <v>702</v>
+        <v>784</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>20397</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>130897</v>
+      </c>
+      <c r="C85" t="s">
+        <v>785</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>703</v>
+        <v>786</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>704</v>
+        <v>787</v>
       </c>
       <c r="J85" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="K85" t="s">
-        <v>706</v>
+        <v>789</v>
       </c>
       <c r="L85" t="s">
-        <v>707</v>
+        <v>790</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="O85" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="n">
@@ -8322,56 +8949,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>708</v>
+        <v>791</v>
       </c>
       <c r="X85" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="Y85" t="s">
-        <v>710</v>
+        <v>793</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>20397</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>130898</v>
+      </c>
+      <c r="C86" t="s">
+        <v>794</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="J86" t="s">
-        <v>713</v>
+        <v>797</v>
       </c>
       <c r="K86" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
       <c r="L86" t="s">
-        <v>715</v>
+        <v>799</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>716</v>
+        <v>800</v>
       </c>
       <c r="O86" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8383,56 +9014,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>717</v>
+        <v>801</v>
       </c>
       <c r="X86" t="s">
-        <v>718</v>
+        <v>802</v>
       </c>
       <c r="Y86" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>20397</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>130899</v>
+      </c>
+      <c r="C87" t="s">
+        <v>804</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>720</v>
+        <v>805</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>721</v>
+        <v>806</v>
       </c>
       <c r="J87" t="s">
-        <v>722</v>
+        <v>807</v>
       </c>
       <c r="K87" t="s">
-        <v>723</v>
+        <v>808</v>
       </c>
       <c r="L87" t="s">
-        <v>724</v>
+        <v>809</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="O87" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -8448,56 +9083,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>725</v>
+        <v>810</v>
       </c>
       <c r="X87" t="s">
-        <v>726</v>
+        <v>811</v>
       </c>
       <c r="Y87" t="s">
-        <v>727</v>
+        <v>812</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>20397</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>130900</v>
+      </c>
+      <c r="C88" t="s">
+        <v>813</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>728</v>
+        <v>814</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>729</v>
+        <v>815</v>
       </c>
       <c r="J88" t="s">
-        <v>730</v>
+        <v>816</v>
       </c>
       <c r="K88" t="s">
-        <v>731</v>
+        <v>817</v>
       </c>
       <c r="L88" t="s">
-        <v>732</v>
+        <v>818</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="O88" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8509,56 +9148,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>733</v>
+        <v>819</v>
       </c>
       <c r="X88" t="s">
-        <v>734</v>
+        <v>820</v>
       </c>
       <c r="Y88" t="s">
-        <v>735</v>
+        <v>821</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>20397</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>130901</v>
+      </c>
+      <c r="C89" t="s">
+        <v>822</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>736</v>
+        <v>823</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>737</v>
+        <v>824</v>
       </c>
       <c r="J89" t="s">
-        <v>738</v>
+        <v>825</v>
       </c>
       <c r="K89" t="s">
-        <v>739</v>
+        <v>826</v>
       </c>
       <c r="L89" t="s">
-        <v>740</v>
+        <v>827</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="O89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="s"/>
@@ -8570,56 +9213,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="X89" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="Y89" t="s">
-        <v>741</v>
+        <v>828</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>20397</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>11267</v>
+      </c>
+      <c r="C90" t="s">
+        <v>829</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>742</v>
+        <v>830</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>743</v>
+        <v>831</v>
       </c>
       <c r="J90" t="s">
-        <v>744</v>
+        <v>832</v>
       </c>
       <c r="K90" t="s">
-        <v>745</v>
+        <v>833</v>
       </c>
       <c r="L90" t="s">
-        <v>746</v>
+        <v>834</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>747</v>
+        <v>835</v>
       </c>
       <c r="O90" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8635,56 +9282,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>748</v>
+        <v>836</v>
       </c>
       <c r="X90" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="Y90" t="s">
-        <v>750</v>
+        <v>838</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>20397</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>17270</v>
+      </c>
+      <c r="C91" t="s">
+        <v>839</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>751</v>
+        <v>840</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>752</v>
+        <v>841</v>
       </c>
       <c r="J91" t="s">
-        <v>753</v>
+        <v>842</v>
       </c>
       <c r="K91" t="s">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="L91" t="s">
-        <v>755</v>
+        <v>844</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>747</v>
+        <v>835</v>
       </c>
       <c r="O91" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8702,56 +9353,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>748</v>
+        <v>836</v>
       </c>
       <c r="X91" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="Y91" t="s">
-        <v>756</v>
+        <v>845</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>20397</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>130902</v>
+      </c>
+      <c r="C92" t="s">
+        <v>846</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>757</v>
+        <v>847</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>758</v>
+        <v>848</v>
       </c>
       <c r="J92" t="s">
-        <v>759</v>
+        <v>849</v>
       </c>
       <c r="K92" t="s">
-        <v>760</v>
+        <v>850</v>
       </c>
       <c r="L92" t="s">
-        <v>761</v>
+        <v>851</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>762</v>
+        <v>852</v>
       </c>
       <c r="O92" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -8769,56 +9424,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="X92" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="Y92" t="s">
-        <v>763</v>
+        <v>853</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>20397</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>130903</v>
+      </c>
+      <c r="C93" t="s">
+        <v>854</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>764</v>
+        <v>855</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>765</v>
+        <v>856</v>
       </c>
       <c r="J93" t="s">
-        <v>766</v>
+        <v>857</v>
       </c>
       <c r="K93" t="s">
-        <v>767</v>
+        <v>858</v>
       </c>
       <c r="L93" t="s">
-        <v>768</v>
+        <v>859</v>
       </c>
       <c r="M93" t="n">
         <v>2</v>
       </c>
       <c r="N93" t="s">
-        <v>762</v>
+        <v>852</v>
       </c>
       <c r="O93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8834,56 +9493,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="X93" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="Y93" t="s">
-        <v>769</v>
+        <v>860</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>20397</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>130904</v>
+      </c>
+      <c r="C94" t="s">
+        <v>861</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>770</v>
+        <v>862</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>771</v>
+        <v>863</v>
       </c>
       <c r="J94" t="s">
-        <v>772</v>
+        <v>864</v>
       </c>
       <c r="K94" t="s">
-        <v>773</v>
+        <v>865</v>
       </c>
       <c r="L94" t="s">
-        <v>774</v>
+        <v>866</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>775</v>
+        <v>867</v>
       </c>
       <c r="O94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8899,56 +9562,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="X94" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="Y94" t="s">
-        <v>776</v>
+        <v>868</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>20397</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>832</v>
+      </c>
+      <c r="C95" t="s">
+        <v>869</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>777</v>
+        <v>870</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>778</v>
+        <v>871</v>
       </c>
       <c r="J95" t="s">
-        <v>779</v>
+        <v>872</v>
       </c>
       <c r="K95" t="s">
-        <v>780</v>
+        <v>873</v>
       </c>
       <c r="L95" t="s">
-        <v>781</v>
+        <v>874</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>782</v>
+        <v>875</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="n">
@@ -8964,47 +9631,51 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>783</v>
+        <v>876</v>
       </c>
       <c r="X95" t="s">
-        <v>784</v>
+        <v>877</v>
       </c>
       <c r="Y95" t="s">
-        <v>785</v>
+        <v>878</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>20397</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>130905</v>
+      </c>
+      <c r="C96" t="s">
+        <v>879</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>786</v>
+        <v>880</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>787</v>
+        <v>881</v>
       </c>
       <c r="J96" t="s">
-        <v>788</v>
+        <v>882</v>
       </c>
       <c r="K96" t="s">
-        <v>789</v>
+        <v>883</v>
       </c>
       <c r="L96" t="s">
-        <v>790</v>
+        <v>884</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
@@ -9031,47 +9702,51 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>791</v>
+        <v>885</v>
       </c>
       <c r="X96" t="s">
-        <v>792</v>
+        <v>886</v>
       </c>
       <c r="Y96" t="s">
-        <v>793</v>
+        <v>887</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>20397</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>130906</v>
+      </c>
+      <c r="C97" t="s">
+        <v>888</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>794</v>
+        <v>889</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>795</v>
+        <v>890</v>
       </c>
       <c r="J97" t="s">
-        <v>796</v>
+        <v>891</v>
       </c>
       <c r="K97" t="s">
-        <v>797</v>
+        <v>892</v>
       </c>
       <c r="L97" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
@@ -9088,56 +9763,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>791</v>
+        <v>885</v>
       </c>
       <c r="X97" t="s">
-        <v>792</v>
+        <v>886</v>
       </c>
       <c r="Y97" t="s">
-        <v>799</v>
+        <v>894</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>20397</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>130907</v>
+      </c>
+      <c r="C98" t="s">
+        <v>895</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>800</v>
+        <v>896</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>801</v>
+        <v>897</v>
       </c>
       <c r="J98" t="s">
-        <v>802</v>
+        <v>898</v>
       </c>
       <c r="K98" t="s">
-        <v>803</v>
+        <v>899</v>
       </c>
       <c r="L98" t="s">
-        <v>804</v>
+        <v>900</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>805</v>
+        <v>901</v>
       </c>
       <c r="O98" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9155,56 +9834,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>806</v>
+        <v>902</v>
       </c>
       <c r="X98" t="s">
-        <v>807</v>
+        <v>903</v>
       </c>
       <c r="Y98" t="s">
-        <v>808</v>
+        <v>904</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>20397</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>130908</v>
+      </c>
+      <c r="C99" t="s">
+        <v>905</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>809</v>
+        <v>906</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>810</v>
+        <v>907</v>
       </c>
       <c r="J99" t="s">
-        <v>811</v>
+        <v>908</v>
       </c>
       <c r="K99" t="s">
-        <v>812</v>
+        <v>909</v>
       </c>
       <c r="L99" t="s">
-        <v>813</v>
+        <v>910</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>805</v>
+        <v>901</v>
       </c>
       <c r="O99" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="n">
@@ -9222,13 +9905,13 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>806</v>
+        <v>902</v>
       </c>
       <c r="X99" t="s">
-        <v>807</v>
+        <v>903</v>
       </c>
       <c r="Y99" t="s">
-        <v>814</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_110.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_110.xlsx
@@ -3289,7 +3289,7 @@
         <v>20397</v>
       </c>
       <c r="B2" t="n">
-        <v>130843</v>
+        <v>161587</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3354,7 +3354,7 @@
         <v>20397</v>
       </c>
       <c r="B3" t="n">
-        <v>130844</v>
+        <v>161588</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3490,7 +3490,7 @@
         <v>20397</v>
       </c>
       <c r="B5" t="n">
-        <v>130845</v>
+        <v>161589</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -3559,7 +3559,7 @@
         <v>20397</v>
       </c>
       <c r="B6" t="n">
-        <v>130846</v>
+        <v>161590</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -3630,7 +3630,7 @@
         <v>20397</v>
       </c>
       <c r="B7" t="n">
-        <v>130847</v>
+        <v>161591</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
@@ -3695,7 +3695,7 @@
         <v>20397</v>
       </c>
       <c r="B8" t="n">
-        <v>130848</v>
+        <v>161592</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -3825,7 +3825,7 @@
         <v>20397</v>
       </c>
       <c r="B10" t="n">
-        <v>130849</v>
+        <v>161593</v>
       </c>
       <c r="C10" t="s">
         <v>124</v>
@@ -3967,7 +3967,7 @@
         <v>20397</v>
       </c>
       <c r="B12" t="n">
-        <v>130850</v>
+        <v>161594</v>
       </c>
       <c r="C12" t="s">
         <v>144</v>
@@ -4032,7 +4032,7 @@
         <v>20397</v>
       </c>
       <c r="B13" t="n">
-        <v>130851</v>
+        <v>161595</v>
       </c>
       <c r="C13" t="s">
         <v>154</v>
@@ -4101,7 +4101,7 @@
         <v>20397</v>
       </c>
       <c r="B14" t="n">
-        <v>130852</v>
+        <v>161596</v>
       </c>
       <c r="C14" t="s">
         <v>163</v>
@@ -4170,7 +4170,7 @@
         <v>20397</v>
       </c>
       <c r="B15" t="n">
-        <v>130853</v>
+        <v>161597</v>
       </c>
       <c r="C15" t="s">
         <v>173</v>
@@ -4235,7 +4235,7 @@
         <v>20397</v>
       </c>
       <c r="B16" t="n">
-        <v>130854</v>
+        <v>161598</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -4306,7 +4306,7 @@
         <v>20397</v>
       </c>
       <c r="B17" t="n">
-        <v>130855</v>
+        <v>161599</v>
       </c>
       <c r="C17" t="s">
         <v>191</v>
@@ -4436,7 +4436,7 @@
         <v>20397</v>
       </c>
       <c r="B19" t="n">
-        <v>130856</v>
+        <v>161600</v>
       </c>
       <c r="C19" t="s">
         <v>209</v>
@@ -4572,7 +4572,7 @@
         <v>20397</v>
       </c>
       <c r="B21" t="n">
-        <v>130857</v>
+        <v>161601</v>
       </c>
       <c r="C21" t="s">
         <v>228</v>
@@ -4712,7 +4712,7 @@
         <v>20397</v>
       </c>
       <c r="B23" t="n">
-        <v>130858</v>
+        <v>161602</v>
       </c>
       <c r="C23" t="s">
         <v>246</v>
@@ -4777,7 +4777,7 @@
         <v>20397</v>
       </c>
       <c r="B24" t="n">
-        <v>130859</v>
+        <v>161603</v>
       </c>
       <c r="C24" t="s">
         <v>256</v>
@@ -4842,7 +4842,7 @@
         <v>20397</v>
       </c>
       <c r="B25" t="n">
-        <v>130860</v>
+        <v>161604</v>
       </c>
       <c r="C25" t="s">
         <v>265</v>
@@ -4913,7 +4913,7 @@
         <v>20397</v>
       </c>
       <c r="B26" t="n">
-        <v>130861</v>
+        <v>161605</v>
       </c>
       <c r="C26" t="s">
         <v>275</v>
@@ -4984,7 +4984,7 @@
         <v>20397</v>
       </c>
       <c r="B27" t="n">
-        <v>130862</v>
+        <v>161606</v>
       </c>
       <c r="C27" t="s">
         <v>285</v>
@@ -5185,7 +5185,7 @@
         <v>20397</v>
       </c>
       <c r="B30" t="n">
-        <v>130863</v>
+        <v>161607</v>
       </c>
       <c r="C30" t="s">
         <v>307</v>
@@ -5246,7 +5246,7 @@
         <v>20397</v>
       </c>
       <c r="B31" t="n">
-        <v>130864</v>
+        <v>161608</v>
       </c>
       <c r="C31" t="s">
         <v>313</v>
@@ -5380,7 +5380,7 @@
         <v>20397</v>
       </c>
       <c r="B33" t="n">
-        <v>130865</v>
+        <v>161609</v>
       </c>
       <c r="C33" t="s">
         <v>331</v>
@@ -5650,7 +5650,7 @@
         <v>20397</v>
       </c>
       <c r="B37" t="n">
-        <v>130866</v>
+        <v>161610</v>
       </c>
       <c r="C37" t="s">
         <v>368</v>
@@ -5711,7 +5711,7 @@
         <v>20397</v>
       </c>
       <c r="B38" t="n">
-        <v>130867</v>
+        <v>161611</v>
       </c>
       <c r="C38" t="s">
         <v>377</v>
@@ -5780,7 +5780,7 @@
         <v>20397</v>
       </c>
       <c r="B39" t="n">
-        <v>130868</v>
+        <v>161612</v>
       </c>
       <c r="C39" t="s">
         <v>386</v>
@@ -5849,7 +5849,7 @@
         <v>20397</v>
       </c>
       <c r="B40" t="n">
-        <v>130869</v>
+        <v>161613</v>
       </c>
       <c r="C40" t="s">
         <v>395</v>
@@ -5914,7 +5914,7 @@
         <v>20397</v>
       </c>
       <c r="B41" t="n">
-        <v>130870</v>
+        <v>161614</v>
       </c>
       <c r="C41" t="s">
         <v>405</v>
@@ -5983,7 +5983,7 @@
         <v>20397</v>
       </c>
       <c r="B42" t="n">
-        <v>130871</v>
+        <v>161615</v>
       </c>
       <c r="C42" t="s">
         <v>414</v>
@@ -6109,7 +6109,7 @@
         <v>20397</v>
       </c>
       <c r="B44" t="n">
-        <v>130872</v>
+        <v>161616</v>
       </c>
       <c r="C44" t="s">
         <v>430</v>
@@ -6180,7 +6180,7 @@
         <v>20397</v>
       </c>
       <c r="B45" t="n">
-        <v>130873</v>
+        <v>161617</v>
       </c>
       <c r="C45" t="s">
         <v>438</v>
@@ -6385,7 +6385,7 @@
         <v>20397</v>
       </c>
       <c r="B48" t="n">
-        <v>130874</v>
+        <v>161618</v>
       </c>
       <c r="C48" t="s">
         <v>466</v>
@@ -6450,7 +6450,7 @@
         <v>20397</v>
       </c>
       <c r="B49" t="n">
-        <v>130875</v>
+        <v>161619</v>
       </c>
       <c r="C49" t="s">
         <v>475</v>
@@ -6519,7 +6519,7 @@
         <v>20397</v>
       </c>
       <c r="B50" t="n">
-        <v>130876</v>
+        <v>161620</v>
       </c>
       <c r="C50" t="s">
         <v>482</v>
@@ -6584,7 +6584,7 @@
         <v>20397</v>
       </c>
       <c r="B51" t="n">
-        <v>130877</v>
+        <v>161621</v>
       </c>
       <c r="C51" t="s">
         <v>492</v>
@@ -6724,7 +6724,7 @@
         <v>20397</v>
       </c>
       <c r="B53" t="n">
-        <v>130878</v>
+        <v>161622</v>
       </c>
       <c r="C53" t="s">
         <v>511</v>
@@ -6866,7 +6866,7 @@
         <v>20397</v>
       </c>
       <c r="B55" t="n">
-        <v>130879</v>
+        <v>161623</v>
       </c>
       <c r="C55" t="s">
         <v>530</v>
@@ -7008,7 +7008,7 @@
         <v>20397</v>
       </c>
       <c r="B57" t="n">
-        <v>130880</v>
+        <v>161624</v>
       </c>
       <c r="C57" t="s">
         <v>548</v>
@@ -7079,7 +7079,7 @@
         <v>20397</v>
       </c>
       <c r="B58" t="n">
-        <v>130881</v>
+        <v>161625</v>
       </c>
       <c r="C58" t="s">
         <v>556</v>
@@ -7144,7 +7144,7 @@
         <v>20397</v>
       </c>
       <c r="B59" t="n">
-        <v>130882</v>
+        <v>161626</v>
       </c>
       <c r="C59" t="s">
         <v>565</v>
@@ -7213,7 +7213,7 @@
         <v>20397</v>
       </c>
       <c r="B60" t="n">
-        <v>130883</v>
+        <v>161627</v>
       </c>
       <c r="C60" t="s">
         <v>574</v>
@@ -7282,7 +7282,7 @@
         <v>20397</v>
       </c>
       <c r="B61" t="n">
-        <v>130884</v>
+        <v>161628</v>
       </c>
       <c r="C61" t="s">
         <v>583</v>
@@ -7343,7 +7343,7 @@
         <v>20397</v>
       </c>
       <c r="B62" t="n">
-        <v>130885</v>
+        <v>161629</v>
       </c>
       <c r="C62" t="s">
         <v>590</v>
@@ -7408,7 +7408,7 @@
         <v>20397</v>
       </c>
       <c r="B63" t="n">
-        <v>130886</v>
+        <v>161630</v>
       </c>
       <c r="C63" t="s">
         <v>598</v>
@@ -7469,7 +7469,7 @@
         <v>20397</v>
       </c>
       <c r="B64" t="n">
-        <v>130887</v>
+        <v>161631</v>
       </c>
       <c r="C64" t="s">
         <v>604</v>
@@ -7536,7 +7536,7 @@
         <v>20397</v>
       </c>
       <c r="B65" t="n">
-        <v>130888</v>
+        <v>161632</v>
       </c>
       <c r="C65" t="s">
         <v>611</v>
@@ -7605,7 +7605,7 @@
         <v>20397</v>
       </c>
       <c r="B66" t="n">
-        <v>130889</v>
+        <v>161633</v>
       </c>
       <c r="C66" t="s">
         <v>620</v>
@@ -7676,7 +7676,7 @@
         <v>20397</v>
       </c>
       <c r="B67" t="n">
-        <v>130890</v>
+        <v>161634</v>
       </c>
       <c r="C67" t="s">
         <v>630</v>
@@ -7808,7 +7808,7 @@
         <v>20397</v>
       </c>
       <c r="B69" t="n">
-        <v>130891</v>
+        <v>161635</v>
       </c>
       <c r="C69" t="s">
         <v>647</v>
@@ -7875,7 +7875,7 @@
         <v>20397</v>
       </c>
       <c r="B70" t="n">
-        <v>130892</v>
+        <v>161636</v>
       </c>
       <c r="C70" t="s">
         <v>654</v>
@@ -8080,7 +8080,7 @@
         <v>20397</v>
       </c>
       <c r="B73" t="n">
-        <v>130893</v>
+        <v>161637</v>
       </c>
       <c r="C73" t="s">
         <v>681</v>
@@ -8356,7 +8356,7 @@
         <v>20397</v>
       </c>
       <c r="B77" t="n">
-        <v>130894</v>
+        <v>161638</v>
       </c>
       <c r="C77" t="s">
         <v>716</v>
@@ -8620,7 +8620,7 @@
         <v>20397</v>
       </c>
       <c r="B81" t="n">
-        <v>130895</v>
+        <v>161639</v>
       </c>
       <c r="C81" t="s">
         <v>748</v>
@@ -8756,7 +8756,7 @@
         <v>20397</v>
       </c>
       <c r="B83" t="n">
-        <v>130896</v>
+        <v>161640</v>
       </c>
       <c r="C83" t="s">
         <v>766</v>
@@ -8892,7 +8892,7 @@
         <v>20397</v>
       </c>
       <c r="B85" t="n">
-        <v>130897</v>
+        <v>161641</v>
       </c>
       <c r="C85" t="s">
         <v>785</v>
@@ -8963,7 +8963,7 @@
         <v>20397</v>
       </c>
       <c r="B86" t="n">
-        <v>130898</v>
+        <v>161642</v>
       </c>
       <c r="C86" t="s">
         <v>794</v>
@@ -9028,7 +9028,7 @@
         <v>20397</v>
       </c>
       <c r="B87" t="n">
-        <v>130899</v>
+        <v>161643</v>
       </c>
       <c r="C87" t="s">
         <v>804</v>
@@ -9097,7 +9097,7 @@
         <v>20397</v>
       </c>
       <c r="B88" t="n">
-        <v>130900</v>
+        <v>161644</v>
       </c>
       <c r="C88" t="s">
         <v>813</v>
@@ -9162,7 +9162,7 @@
         <v>20397</v>
       </c>
       <c r="B89" t="n">
-        <v>130901</v>
+        <v>161645</v>
       </c>
       <c r="C89" t="s">
         <v>822</v>
@@ -9367,7 +9367,7 @@
         <v>20397</v>
       </c>
       <c r="B92" t="n">
-        <v>130902</v>
+        <v>161646</v>
       </c>
       <c r="C92" t="s">
         <v>846</v>
@@ -9438,7 +9438,7 @@
         <v>20397</v>
       </c>
       <c r="B93" t="n">
-        <v>130903</v>
+        <v>161647</v>
       </c>
       <c r="C93" t="s">
         <v>854</v>
@@ -9507,7 +9507,7 @@
         <v>20397</v>
       </c>
       <c r="B94" t="n">
-        <v>130904</v>
+        <v>161648</v>
       </c>
       <c r="C94" t="s">
         <v>861</v>
@@ -9645,7 +9645,7 @@
         <v>20397</v>
       </c>
       <c r="B96" t="n">
-        <v>130905</v>
+        <v>161649</v>
       </c>
       <c r="C96" t="s">
         <v>879</v>
@@ -9716,7 +9716,7 @@
         <v>20397</v>
       </c>
       <c r="B97" t="n">
-        <v>130906</v>
+        <v>161650</v>
       </c>
       <c r="C97" t="s">
         <v>888</v>
@@ -9777,7 +9777,7 @@
         <v>20397</v>
       </c>
       <c r="B98" t="n">
-        <v>130907</v>
+        <v>161651</v>
       </c>
       <c r="C98" t="s">
         <v>895</v>
@@ -9848,7 +9848,7 @@
         <v>20397</v>
       </c>
       <c r="B99" t="n">
-        <v>130908</v>
+        <v>161652</v>
       </c>
       <c r="C99" t="s">
         <v>905</v>
